--- a/MOptim/lab3/МОл3.xlsx
+++ b/MOptim/lab3/МОл3.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Отчет об устойчивости 1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Лист3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="1" name="solver_adj" vbProcedure="false">Sheet1!$E$42:$G$42</definedName>
@@ -144,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="150">
   <si>
     <t xml:space="preserve">Microsoft Excel 16.0 Отчет об устойчивости</t>
   </si>
@@ -326,7 +327,7 @@
     <t xml:space="preserve">&lt;=</t>
   </si>
   <si>
-    <t xml:space="preserve">Задание 2.1.а</t>
+    <t xml:space="preserve">Задание 2.1</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -794,28 +795,25 @@
     <t xml:space="preserve">Есть резерв</t>
   </si>
   <si>
+    <t xml:space="preserve">I love this life!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toij</t>
+  </si>
+  <si>
     <t xml:space="preserve">thij</t>
   </si>
   <si>
-    <t xml:space="preserve">toij</t>
+    <t xml:space="preserve">toij-tнij</t>
   </si>
   <si>
     <t xml:space="preserve">xij</t>
   </si>
   <si>
-    <t xml:space="preserve">toij - thij</t>
+    <t xml:space="preserve">tij-dij*xij</t>
   </si>
   <si>
     <t xml:space="preserve">t'ij</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toij-tнij</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tij-dij*xij</t>
   </si>
   <si>
     <t xml:space="preserve">z=</t>
@@ -831,7 +829,7 @@
     <numFmt numFmtId="166" formatCode="d\-mmm"/>
     <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -887,6 +885,13 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -917,10 +922,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFC9211E"/>
+      <sz val="26"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -941,7 +947,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -951,7 +957,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -986,12 +992,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFC9211E"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF158466"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF158466"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1103,26 +1127,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="medium"/>
       <top style="medium"/>
@@ -1164,8 +1168,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1225,32 +1233,48 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="2" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="3" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1265,19 +1289,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="3" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="3" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1285,35 +1309,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="2" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="2" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1321,23 +1333,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1345,15 +1349,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1372,7 +1388,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -1384,13 +1400,13 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF7F7F7F"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF158466"/>
       <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF5B9BD5"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFF2F2F2"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFED7D31"/>
       <rgbColor rgb="FF0066CC"/>
@@ -1420,7 +1436,7 @@
       <rgbColor rgb="FF595959"/>
       <rgbColor rgb="FFA5A5A5"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFC9211E"/>
@@ -1432,7 +1448,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1869,11 +1885,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="51970942"/>
-        <c:axId val="76909958"/>
+        <c:axId val="30495384"/>
+        <c:axId val="4068339"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51970942"/>
+        <c:axId val="30495384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1939,7 +1955,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76909958"/>
+        <c:crossAx val="4068339"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1947,7 +1963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76909958"/>
+        <c:axId val="4068339"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2020,7 +2036,614 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51970942"/>
+        <c:crossAx val="30495384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="ru-RU" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" lang="ru-RU" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>линейный график</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5b9bd5"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$21:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v> ( 1, 2 )</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> ( 1, 3 )</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> ( 1, 4 )</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> ( 2, 4 )</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> ( 2, 5 )</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> ( 3, 4 )</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> ( 3, 6 )</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> ( 4, 5 )</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> ( 4, 6 )</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> ( 5, 6 )</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$A$48:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$21:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v> ( 1, 2 )</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> ( 1, 3 )</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> ( 1, 4 )</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> ( 2, 4 )</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> ( 2, 5 )</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> ( 3, 4 )</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> ( 3, 6 )</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> ( 4, 5 )</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> ( 4, 6 )</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> ( 5, 6 )</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$48:$B$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="a5a5a5"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$21:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v> ( 1, 2 )</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> ( 1, 3 )</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> ( 1, 4 )</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> ( 2, 4 )</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> ( 2, 5 )</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> ( 3, 4 )</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> ( 3, 6 )</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> ( 4, 5 )</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> ( 4, 6 )</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> ( 5, 6 )</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$48:$C$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="23815275"/>
+        <c:axId val="87475825"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="23815275"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>работы</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="87475825"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="87475825"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>время</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="23815275"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2083,9 +2706,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>175680</xdr:rowOff>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2099,7 +2722,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4937760" y="4474800"/>
-          <a:ext cx="870480" cy="406080"/>
+          <a:ext cx="870120" cy="405720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2120,9 +2743,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>281880</xdr:colOff>
+      <xdr:colOff>281520</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2136,7 +2759,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4915080" y="5502240"/>
-          <a:ext cx="870480" cy="460440"/>
+          <a:ext cx="870120" cy="460080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2153,183 +2776,69 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>548280</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 59" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="920160"/>
-          <a:ext cx="6663240" cy="603360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>53280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>548280</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 60" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect l="0" t="8923" r="0" b="0"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1501200"/>
-          <a:ext cx="6663240" cy="534960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>426600</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>388080</xdr:colOff>
+      <xdr:colOff>387720</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 6"/>
+        <xdr:cNvPr id="2" name="Диаграмма 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4095720" y="8008920"/>
-        <a:ext cx="6076440" cy="2811240"/>
+        <a:off x="4095720" y="7822440"/>
+        <a:ext cx="6076080" cy="2810880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>533520</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>604080</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>486360</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>154440</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>565200</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 7" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8483040" y="10913760"/>
-          <a:ext cx="6067800" cy="3196800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>396360</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>53640</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 8" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8957520" y="14162040"/>
-          <a:ext cx="4549320" cy="2282400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4273200" y="7588440"/>
+        <a:ext cx="6076080" cy="2810880"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2340,271 +2849,282 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G20:N30 A1"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.44"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="4" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4" t="n">
+      <c r="D9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="n">
         <v>-0.689655172413793</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <v>0.689655172413793</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="5" t="n">
         <v>1E+030</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>0.0517241379310345</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="n">
+      <c r="E10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="5" t="n">
         <v>0.0909090909090909</v>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="H10" s="5" t="n">
         <v>0.285714285714286</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="5" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="6" t="n">
         <v>0.0344827586206897</v>
       </c>
-      <c r="E11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5" t="n">
+      <c r="E11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="6" t="n">
         <v>0.4</v>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H11" s="6" t="n">
         <v>0.0833333333333334</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="4" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="5" t="n">
         <v>0.982758620689655</v>
       </c>
-      <c r="E16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4" t="n">
+      <c r="E16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="5" t="n">
         <v>1E+030</v>
       </c>
-      <c r="H16" s="4" t="n">
+      <c r="H16" s="5" t="n">
         <v>0.0172413793103448</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="4" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="5" t="n">
         <v>0.0689655172413793</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="H17" s="4" t="n">
+      <c r="H17" s="5" t="n">
         <v>0.0416666666666667</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="5" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="5" t="n">
+      <c r="E18" s="6" t="n">
         <v>0.0172413793103448</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="6" t="n">
         <v>0.0123456790123457</v>
       </c>
-      <c r="H18" s="5" t="n">
+      <c r="H18" s="6" t="n">
         <v>0.166666666666667</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2623,707 +3143,707 @@
   </sheetPr>
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="G20:N30 D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="9" t="n">
         <f aca="false">$B$5</f>
         <v>13</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="G8" s="9" t="n">
         <f aca="false">$B$6</f>
         <v>9</v>
       </c>
-      <c r="H8" s="8" t="n">
+      <c r="H8" s="9" t="n">
         <f aca="false">$B$7</f>
         <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="9" t="n">
         <f aca="false">$B$9</f>
         <v>20</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G9" s="9" t="n">
         <f aca="false">$B$10</f>
         <v>12</v>
       </c>
-      <c r="H9" s="8" t="n">
+      <c r="H9" s="9" t="n">
         <f aca="false">$B$11</f>
         <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="9" t="n">
         <f aca="false">$B$13</f>
         <v>18</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G10" s="9" t="n">
         <f aca="false">$B$14</f>
         <v>10</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="H10" s="9" t="n">
         <f aca="false">$B$15</f>
         <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="8" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="M14" s="10"/>
+      <c r="M14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="8" t="n">
+      <c r="F15" s="11"/>
+      <c r="G15" s="9" t="n">
         <f aca="false">$B$5</f>
         <v>13</v>
       </c>
-      <c r="H15" s="8" t="n">
+      <c r="H15" s="9" t="n">
         <f aca="false">$B$6</f>
         <v>9</v>
       </c>
-      <c r="I15" s="8" t="n">
+      <c r="I15" s="9" t="n">
         <f aca="false">$B$7</f>
         <v>15</v>
       </c>
-      <c r="J15" s="8" t="n">
+      <c r="J15" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="K15" s="8" t="n">
+      <c r="K15" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="L15" s="10" t="n">
+      <c r="L15" s="11" t="n">
         <f aca="false">J15*0.7+K15*0.7</f>
         <v>16.8</v>
       </c>
-      <c r="M15" s="10"/>
+      <c r="M15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="8" t="n">
+      <c r="F16" s="11"/>
+      <c r="G16" s="9" t="n">
         <f aca="false">$B$9</f>
         <v>20</v>
       </c>
-      <c r="H16" s="8" t="n">
+      <c r="H16" s="9" t="n">
         <f aca="false">$B$10</f>
         <v>12</v>
       </c>
-      <c r="I16" s="8" t="n">
+      <c r="I16" s="9" t="n">
         <f aca="false">$B$11</f>
         <v>11</v>
       </c>
-      <c r="J16" s="8" t="n">
+      <c r="J16" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="K16" s="8" t="n">
+      <c r="K16" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="L16" s="10" t="n">
+      <c r="L16" s="11" t="n">
         <f aca="false">J16*0.7+K16*0.7</f>
         <v>21.7</v>
       </c>
-      <c r="M16" s="10"/>
+      <c r="M16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="8" t="n">
+      <c r="F17" s="11"/>
+      <c r="G17" s="9" t="n">
         <f aca="false">$B$13</f>
         <v>18</v>
       </c>
-      <c r="H17" s="8" t="n">
+      <c r="H17" s="9" t="n">
         <f aca="false">$B$14</f>
         <v>10</v>
       </c>
-      <c r="I17" s="8" t="n">
+      <c r="I17" s="9" t="n">
         <f aca="false">$B$15</f>
         <v>14</v>
       </c>
-      <c r="J17" s="8" t="n">
+      <c r="J17" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="K17" s="8" t="n">
+      <c r="K17" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="L17" s="10" t="n">
+      <c r="L17" s="11" t="n">
         <f aca="false">J17*0.7+K17*0.7</f>
         <v>19.6</v>
       </c>
-      <c r="M17" s="10"/>
+      <c r="M17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>0.45</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="8" t="n">
+      <c r="F18" s="11"/>
+      <c r="G18" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="H18" s="8" t="n">
+      <c r="H18" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="I18" s="8" t="n">
+      <c r="I18" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>0.25</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="10"/>
+      <c r="L20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="8" t="n">
+      <c r="F21" s="9" t="n">
         <f aca="false">$G$18-G15</f>
         <v>7</v>
       </c>
-      <c r="G21" s="8" t="n">
+      <c r="G21" s="9" t="n">
         <f aca="false">$H$18-H15</f>
         <v>3</v>
       </c>
-      <c r="H21" s="8" t="n">
+      <c r="H21" s="9" t="n">
         <f aca="false">$I$18-I15</f>
         <v>0</v>
       </c>
-      <c r="I21" s="8" t="n">
+      <c r="I21" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="J21" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="10" t="n">
+      <c r="J21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11" t="n">
         <f aca="false">I21*0.7+J21*0.7</f>
         <v>4.9</v>
       </c>
-      <c r="L21" s="10"/>
+      <c r="L21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="8" t="n">
+      <c r="F22" s="9" t="n">
         <f aca="false">$G$18-G16</f>
         <v>0</v>
       </c>
-      <c r="G22" s="8" t="n">
+      <c r="G22" s="9" t="n">
         <f aca="false">$H$18-H16</f>
         <v>0</v>
       </c>
-      <c r="H22" s="8" t="n">
+      <c r="H22" s="9" t="n">
         <f aca="false">$I$18-I16</f>
         <v>4</v>
       </c>
-      <c r="I22" s="8" t="n">
+      <c r="I22" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="J22" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="10" t="n">
+      <c r="J22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="11" t="n">
         <f aca="false">I22*0.7+J22*0.7</f>
         <v>2.8</v>
       </c>
-      <c r="L22" s="10"/>
+      <c r="L22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="8" t="n">
+      <c r="F23" s="9" t="n">
         <f aca="false">$G$18-G17</f>
         <v>2</v>
       </c>
-      <c r="G23" s="8" t="n">
+      <c r="G23" s="9" t="n">
         <f aca="false">$H$18-H17</f>
         <v>2</v>
       </c>
-      <c r="H23" s="8" t="n">
+      <c r="H23" s="9" t="n">
         <f aca="false">$I$18-I17</f>
         <v>1</v>
       </c>
-      <c r="I23" s="8" t="n">
+      <c r="I23" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="J23" s="8" t="n">
+      <c r="J23" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K23" s="10" t="n">
+      <c r="K23" s="11" t="n">
         <f aca="false">I23*0.7+J23*0.7</f>
         <v>2.1</v>
       </c>
-      <c r="L23" s="10"/>
+      <c r="L23" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="8"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="8" t="n">
+      <c r="F28" s="9" t="n">
         <f aca="false">$B$5</f>
         <v>13</v>
       </c>
-      <c r="G28" s="8" t="n">
+      <c r="G28" s="9" t="n">
         <f aca="false">$B$6</f>
         <v>9</v>
       </c>
-      <c r="H28" s="8" t="n">
+      <c r="H28" s="9" t="n">
         <f aca="false">$B$7</f>
         <v>15</v>
       </c>
-      <c r="I28" s="8" t="n">
+      <c r="I28" s="9" t="n">
         <f aca="false">F28*$F$31+G28*$G$31+H28*$H$31</f>
         <v>11.7</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="8" t="n">
+      <c r="F29" s="9" t="n">
         <f aca="false">$B$9</f>
         <v>20</v>
       </c>
-      <c r="G29" s="8" t="n">
+      <c r="G29" s="9" t="n">
         <f aca="false">$B$10</f>
         <v>12</v>
       </c>
-      <c r="H29" s="8" t="n">
+      <c r="H29" s="9" t="n">
         <f aca="false">$B$11</f>
         <v>11</v>
       </c>
-      <c r="I29" s="12" t="n">
+      <c r="I29" s="13" t="n">
         <f aca="false">F29*$F$31+G29*$G$31+H29*$H$31</f>
         <v>14.15</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="8" t="n">
+      <c r="F30" s="9" t="n">
         <f aca="false">$B$13</f>
         <v>18</v>
       </c>
-      <c r="G30" s="8" t="n">
+      <c r="G30" s="9" t="n">
         <f aca="false">$B$14</f>
         <v>10</v>
       </c>
-      <c r="H30" s="8" t="n">
+      <c r="H30" s="9" t="n">
         <f aca="false">$B$15</f>
         <v>14</v>
       </c>
-      <c r="I30" s="8" t="n">
+      <c r="I30" s="9" t="n">
         <f aca="false">F30*$F$31+G30*$G$31+H30*$H$31</f>
         <v>13.4</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="8" t="n">
+      <c r="F31" s="9" t="n">
         <f aca="false">$B$17</f>
         <v>0.3</v>
       </c>
-      <c r="G31" s="8" t="n">
+      <c r="G31" s="9" t="n">
         <f aca="false">$B$18</f>
         <v>0.45</v>
       </c>
-      <c r="H31" s="8" t="n">
+      <c r="H31" s="9" t="n">
         <f aca="false">$B$19</f>
         <v>0.25</v>
       </c>
-      <c r="I31" s="8"/>
+      <c r="I31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="8"/>
-      <c r="F33" s="8" t="s">
+      <c r="E33" s="9"/>
+      <c r="F33" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="8"/>
+      <c r="I33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="8" t="n">
+      <c r="F34" s="9" t="n">
         <f aca="false">$G$18-G15</f>
         <v>7</v>
       </c>
-      <c r="G34" s="8" t="n">
+      <c r="G34" s="9" t="n">
         <f aca="false">$H$18-H15</f>
         <v>3</v>
       </c>
-      <c r="H34" s="8" t="n">
+      <c r="H34" s="9" t="n">
         <f aca="false">$I$18-I15</f>
         <v>0</v>
       </c>
-      <c r="I34" s="8" t="n">
+      <c r="I34" s="9" t="n">
         <f aca="false">F34*$F$31+G34*$G$31+H34*$H$31</f>
         <v>3.45</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="8" t="n">
+      <c r="F35" s="9" t="n">
         <f aca="false">$G$18-G16</f>
         <v>0</v>
       </c>
-      <c r="G35" s="8" t="n">
+      <c r="G35" s="9" t="n">
         <f aca="false">$H$18-H16</f>
         <v>0</v>
       </c>
-      <c r="H35" s="8" t="n">
+      <c r="H35" s="9" t="n">
         <f aca="false">$I$18-I16</f>
         <v>4</v>
       </c>
-      <c r="I35" s="12" t="n">
+      <c r="I35" s="13" t="n">
         <f aca="false">F35*$F$31+G35*$G$31+H35*$H$31</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="8" t="n">
+      <c r="F36" s="9" t="n">
         <f aca="false">$G$18-G17</f>
         <v>2</v>
       </c>
-      <c r="G36" s="8" t="n">
+      <c r="G36" s="9" t="n">
         <f aca="false">$H$18-H17</f>
         <v>2</v>
       </c>
-      <c r="H36" s="8" t="n">
+      <c r="H36" s="9" t="n">
         <f aca="false">$I$18-I17</f>
         <v>1</v>
       </c>
-      <c r="I36" s="8" t="n">
+      <c r="I36" s="9" t="n">
         <f aca="false">F36*$F$31+G36*$G$31+H36*$H$31</f>
         <v>1.75</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="8" t="n">
+      <c r="F37" s="9" t="n">
         <f aca="false">$B$17</f>
         <v>0.3</v>
       </c>
-      <c r="G37" s="8" t="n">
+      <c r="G37" s="9" t="n">
         <f aca="false">$B$18</f>
         <v>0.45</v>
       </c>
-      <c r="H37" s="8" t="n">
+      <c r="H37" s="9" t="n">
         <f aca="false">$B$19</f>
         <v>0.25</v>
       </c>
-      <c r="I37" s="8"/>
+      <c r="I37" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="14" t="n">
+      <c r="J41" s="15" t="n">
         <f aca="false">F28*$E$42+G28*$F$42+H28*$G$42</f>
-        <v>0.982758620689655</v>
-      </c>
-      <c r="K41" s="14" t="s">
+        <v>0.982758620689656</v>
+      </c>
+      <c r="K41" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L41" s="14" t="n">
+      <c r="L41" s="15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E42" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="13" t="n">
+      <c r="E42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="14" t="n">
         <v>0.0517241379310345</v>
       </c>
-      <c r="G42" s="13" t="n">
+      <c r="G42" s="14" t="n">
         <v>0.0344827586206897</v>
       </c>
-      <c r="H42" s="12" t="n">
+      <c r="H42" s="13" t="n">
         <f aca="false">SUM(E42:G42)</f>
-        <v>0.0862068965517241</v>
-      </c>
-      <c r="J42" s="14" t="n">
+        <v>0.0862068965517242</v>
+      </c>
+      <c r="J42" s="15" t="n">
         <f aca="false">F29*$E$42+G29*$F$42+H29*$G$42</f>
         <v>1</v>
       </c>
-      <c r="K42" s="14" t="s">
+      <c r="K42" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L42" s="14" t="n">
+      <c r="L42" s="15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J43" s="14" t="n">
+      <c r="J43" s="15" t="n">
         <f aca="false">F30*$E$42+G30*$F$42+H30*$G$42</f>
         <v>1</v>
       </c>
-      <c r="K43" s="14" t="s">
+      <c r="K43" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L43" s="14" t="n">
+      <c r="L43" s="15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="1" t="n">
         <f aca="false">1/H42</f>
         <v>11.6</v>
       </c>
@@ -3371,2425 +3891,2027 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB94"/>
+  <dimension ref="A5:AB94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A73" activeCellId="1" sqref="G20:N30 A73"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="15" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C10" s="17"/>
+    </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="16" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="M13" s="16"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16"/>
-      <c r="B14" s="18" t="n">
+      <c r="M13" s="18"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="18"/>
+      <c r="B14" s="20" t="n">
         <v>1.2</v>
       </c>
-      <c r="C14" s="18" t="n">
+      <c r="C14" s="20" t="n">
         <v>1.3</v>
       </c>
-      <c r="D14" s="18" t="n">
+      <c r="D14" s="20" t="n">
         <v>1.4</v>
       </c>
-      <c r="E14" s="18" t="n">
+      <c r="E14" s="20" t="n">
         <v>2.4</v>
       </c>
-      <c r="F14" s="18" t="n">
+      <c r="F14" s="20" t="n">
         <v>2.5</v>
       </c>
-      <c r="G14" s="18" t="n">
+      <c r="G14" s="20" t="n">
         <v>3.4</v>
       </c>
-      <c r="H14" s="18" t="n">
+      <c r="H14" s="20" t="n">
         <v>3.6</v>
       </c>
-      <c r="I14" s="18" t="n">
+      <c r="I14" s="20" t="n">
         <v>4.5</v>
       </c>
-      <c r="J14" s="18" t="n">
+      <c r="J14" s="20" t="n">
         <v>4.6</v>
       </c>
-      <c r="K14" s="18" t="n">
+      <c r="K14" s="20" t="n">
         <v>5.6</v>
       </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="19" t="n">
+      <c r="B15" s="21" t="n">
         <v>19</v>
       </c>
-      <c r="C15" s="19" t="n">
+      <c r="C15" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="D15" s="19" t="n">
+      <c r="D15" s="21" t="n">
         <v>35</v>
       </c>
-      <c r="E15" s="19" t="n">
+      <c r="E15" s="21" t="n">
         <v>18</v>
       </c>
-      <c r="F15" s="19" t="n">
+      <c r="F15" s="21" t="n">
         <v>20</v>
       </c>
-      <c r="G15" s="19" t="n">
+      <c r="G15" s="21" t="n">
         <v>9</v>
       </c>
-      <c r="H15" s="19" t="n">
+      <c r="H15" s="21" t="n">
         <v>22</v>
       </c>
-      <c r="I15" s="19" t="n">
+      <c r="I15" s="21" t="n">
         <v>17</v>
       </c>
-      <c r="J15" s="19" t="n">
+      <c r="J15" s="21" t="n">
         <v>20</v>
       </c>
-      <c r="K15" s="19" t="n">
+      <c r="K15" s="21" t="n">
         <v>18</v>
       </c>
-      <c r="L15" s="20" t="n">
+      <c r="L15" s="22" t="n">
         <v>56</v>
       </c>
-      <c r="M15" s="20"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
+      <c r="M15" s="22"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="19" t="n">
+      <c r="B16" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="C16" s="19" t="n">
+      <c r="C16" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="D16" s="19" t="n">
+      <c r="D16" s="21" t="n">
         <v>25</v>
       </c>
-      <c r="E16" s="19" t="n">
+      <c r="E16" s="21" t="n">
         <v>13</v>
       </c>
-      <c r="F16" s="19" t="n">
+      <c r="F16" s="21" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="19" t="n">
+      <c r="G16" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="H16" s="19" t="n">
+      <c r="H16" s="21" t="n">
         <v>17</v>
       </c>
-      <c r="I16" s="19" t="n">
+      <c r="I16" s="21" t="n">
         <v>13</v>
       </c>
-      <c r="J16" s="19" t="n">
+      <c r="J16" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="K16" s="19" t="n">
+      <c r="K16" s="21" t="n">
         <v>14</v>
       </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="s">
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="19" t="n">
+      <c r="B17" s="21" t="n">
         <v>0.25</v>
       </c>
-      <c r="C17" s="19" t="n">
+      <c r="C17" s="21" t="n">
         <v>0.07</v>
       </c>
-      <c r="D17" s="19" t="n">
+      <c r="D17" s="21" t="n">
         <v>0.1</v>
       </c>
-      <c r="E17" s="19" t="n">
+      <c r="E17" s="21" t="n">
         <v>0.2</v>
       </c>
-      <c r="F17" s="19" t="n">
+      <c r="F17" s="21" t="n">
         <v>0.13</v>
       </c>
-      <c r="G17" s="19" t="n">
+      <c r="G17" s="21" t="n">
         <v>0.15</v>
       </c>
-      <c r="H17" s="19" t="n">
+      <c r="H17" s="21" t="n">
         <v>0.06</v>
       </c>
-      <c r="I17" s="19" t="n">
+      <c r="I17" s="21" t="n">
         <v>0.4</v>
       </c>
-      <c r="J17" s="19" t="n">
+      <c r="J17" s="21" t="n">
         <v>0.2</v>
       </c>
-      <c r="K17" s="19" t="n">
+      <c r="K17" s="21" t="n">
         <v>0.1</v>
       </c>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+    </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="K20" s="21" t="s">
+      <c r="K20" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="L20" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="M20" s="21" t="s">
+      <c r="M20" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="N20" s="21" t="s">
+      <c r="N20" s="25" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="14" t="n">
+      <c r="B21" s="23" t="n">
         <v>19</v>
       </c>
-      <c r="C21" s="13" t="n">
+      <c r="C21" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="13" t="n">
+      <c r="D21" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="24" t="n">
         <f aca="false">$B$43-J42</f>
         <v>0</v>
       </c>
-      <c r="F21" s="13" t="n">
+      <c r="F21" s="24" t="n">
         <f aca="false">E21-D21</f>
         <v>0</v>
       </c>
-      <c r="G21" s="21" t="n">
+      <c r="G21" s="25" t="n">
         <f aca="false">D21</f>
         <v>0</v>
       </c>
-      <c r="H21" s="21" t="n">
+      <c r="H21" s="25" t="n">
         <f aca="false">B21+G21</f>
         <v>19</v>
       </c>
-      <c r="I21" s="21" t="n">
+      <c r="I21" s="25" t="n">
         <f aca="false">E22</f>
         <v>19</v>
       </c>
-      <c r="J21" s="21" t="n">
+      <c r="J21" s="25" t="n">
         <f aca="false">I21-B21</f>
         <v>0</v>
       </c>
-      <c r="K21" s="21" t="n">
+      <c r="K21" s="25" t="n">
         <f aca="false">I21-G21-B21</f>
         <v>0</v>
       </c>
-      <c r="L21" s="21" t="n">
+      <c r="L21" s="25" t="n">
         <f aca="false">D22-E21-B21</f>
         <v>0</v>
       </c>
-      <c r="M21" s="21" t="n">
+      <c r="M21" s="25" t="n">
         <f aca="false">E22-E21-B21</f>
         <v>0</v>
       </c>
-      <c r="N21" s="21" t="n">
+      <c r="N21" s="25" t="n">
         <f aca="false">D22-D21-B21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="14" t="n">
+      <c r="B22" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="C22" s="13" t="n">
+      <c r="C22" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="D22" s="13" t="n">
+      <c r="D22" s="24" t="n">
         <f aca="false">B21</f>
         <v>19</v>
       </c>
-      <c r="E22" s="13" t="n">
+      <c r="E22" s="24" t="n">
         <f aca="false">$B$43-MAX(L42:P42)</f>
         <v>19</v>
       </c>
-      <c r="F22" s="13" t="n">
+      <c r="F22" s="24" t="n">
         <f aca="false">E22-D22</f>
         <v>0</v>
       </c>
-      <c r="G22" s="21" t="n">
+      <c r="G22" s="25" t="n">
         <f aca="false">D21</f>
         <v>0</v>
       </c>
-      <c r="H22" s="21" t="n">
+      <c r="H22" s="25" t="n">
         <f aca="false">B22+G22</f>
         <v>10</v>
       </c>
-      <c r="I22" s="21" t="n">
+      <c r="I22" s="25" t="n">
         <f aca="false">E23</f>
         <v>28</v>
       </c>
-      <c r="J22" s="21" t="n">
+      <c r="J22" s="25" t="n">
         <f aca="false">I22-B22</f>
         <v>18</v>
       </c>
-      <c r="K22" s="21" t="n">
+      <c r="K22" s="25" t="n">
         <f aca="false">I22-G22-B22</f>
         <v>18</v>
       </c>
-      <c r="L22" s="21" t="n">
+      <c r="L22" s="25" t="n">
         <f aca="false">D23-E21-B22</f>
         <v>0</v>
       </c>
-      <c r="M22" s="21" t="n">
+      <c r="M22" s="25" t="n">
         <f aca="false">E23-E21-B22</f>
         <v>18</v>
       </c>
-      <c r="N22" s="21" t="n">
+      <c r="N22" s="25" t="n">
         <f aca="false">D23-D21-B22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="14" t="n">
+      <c r="B23" s="23" t="n">
         <v>35</v>
       </c>
-      <c r="C23" s="13" t="n">
+      <c r="C23" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="D23" s="13" t="n">
+      <c r="D23" s="24" t="n">
         <f aca="false">B22</f>
         <v>10</v>
       </c>
-      <c r="E23" s="13" t="n">
+      <c r="E23" s="24" t="n">
         <f aca="false">$B$43-MAX(R42:V42)</f>
         <v>28</v>
       </c>
-      <c r="F23" s="13" t="n">
+      <c r="F23" s="24" t="n">
         <f aca="false">E23-D23</f>
         <v>18</v>
       </c>
-      <c r="G23" s="21" t="n">
+      <c r="G23" s="25" t="n">
         <f aca="false">D21</f>
         <v>0</v>
       </c>
-      <c r="H23" s="21" t="n">
+      <c r="H23" s="25" t="n">
         <f aca="false">B23+G23</f>
         <v>35</v>
       </c>
-      <c r="I23" s="21" t="n">
+      <c r="I23" s="25" t="n">
         <f aca="false">E24</f>
         <v>37</v>
       </c>
-      <c r="J23" s="21" t="n">
+      <c r="J23" s="25" t="n">
         <f aca="false">I23-B23</f>
         <v>2</v>
       </c>
-      <c r="K23" s="21" t="n">
+      <c r="K23" s="25" t="n">
         <f aca="false">I23-G23-B23</f>
         <v>2</v>
       </c>
-      <c r="L23" s="21" t="n">
+      <c r="L23" s="25" t="n">
         <f aca="false">D24-E21-B23</f>
         <v>2</v>
       </c>
-      <c r="M23" s="21" t="n">
+      <c r="M23" s="25" t="n">
         <f aca="false">E24-E21-B23</f>
         <v>2</v>
       </c>
-      <c r="N23" s="21" t="n">
+      <c r="N23" s="25" t="n">
         <f aca="false">D24-D21-B23</f>
         <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="14" t="n">
+      <c r="B24" s="23" t="n">
         <v>18</v>
       </c>
-      <c r="C24" s="13" t="n">
+      <c r="C24" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="D24" s="13" t="n">
+      <c r="D24" s="24" t="n">
         <v>37</v>
       </c>
-      <c r="E24" s="13" t="n">
+      <c r="E24" s="24" t="n">
         <f aca="false">$B$43-MAX(X42:Z42)</f>
         <v>37</v>
       </c>
-      <c r="F24" s="13" t="n">
+      <c r="F24" s="24" t="n">
         <f aca="false">E24-D24</f>
         <v>0</v>
       </c>
-      <c r="G24" s="21" t="n">
+      <c r="G24" s="25" t="n">
         <f aca="false">D22</f>
         <v>19</v>
       </c>
-      <c r="H24" s="21" t="n">
+      <c r="H24" s="25" t="n">
         <f aca="false">B24+G24</f>
         <v>37</v>
       </c>
-      <c r="I24" s="21" t="n">
+      <c r="I24" s="25" t="n">
         <f aca="false">E24</f>
         <v>37</v>
       </c>
-      <c r="J24" s="21" t="n">
+      <c r="J24" s="25" t="n">
         <f aca="false">I24-B24</f>
         <v>19</v>
       </c>
-      <c r="K24" s="21" t="n">
+      <c r="K24" s="25" t="n">
         <f aca="false">I24-G24-B24</f>
         <v>0</v>
       </c>
-      <c r="L24" s="21" t="n">
+      <c r="L24" s="25" t="n">
         <f aca="false">D24-E22-B24</f>
         <v>0</v>
       </c>
-      <c r="M24" s="21" t="n">
+      <c r="M24" s="25" t="n">
         <f aca="false">E24-E22-B24</f>
         <v>0</v>
       </c>
-      <c r="N24" s="21" t="n">
+      <c r="N24" s="25" t="n">
         <f aca="false">D24-D22-B24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="14" t="n">
+      <c r="B25" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="C25" s="13" t="n">
+      <c r="C25" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="D25" s="13" t="n">
+      <c r="D25" s="24" t="n">
         <v>54</v>
       </c>
-      <c r="E25" s="13" t="n">
+      <c r="E25" s="24" t="n">
         <f aca="false">$B$43-AB42</f>
         <v>54</v>
       </c>
-      <c r="F25" s="13" t="n">
+      <c r="F25" s="24" t="n">
         <f aca="false">E25-D25</f>
         <v>0</v>
       </c>
-      <c r="G25" s="21" t="n">
+      <c r="G25" s="25" t="n">
         <f aca="false">D22</f>
         <v>19</v>
       </c>
-      <c r="H25" s="21" t="n">
+      <c r="H25" s="25" t="n">
         <f aca="false">B25+G25</f>
         <v>39</v>
       </c>
-      <c r="I25" s="21" t="n">
+      <c r="I25" s="25" t="n">
         <f aca="false">E25</f>
         <v>54</v>
       </c>
-      <c r="J25" s="21" t="n">
+      <c r="J25" s="25" t="n">
         <f aca="false">I25-B25</f>
         <v>34</v>
       </c>
-      <c r="K25" s="21" t="n">
+      <c r="K25" s="25" t="n">
         <f aca="false">I25-G25-B25</f>
         <v>15</v>
       </c>
-      <c r="L25" s="21" t="n">
+      <c r="L25" s="25" t="n">
         <f aca="false">D25-E22-B25</f>
         <v>15</v>
       </c>
-      <c r="M25" s="21" t="n">
+      <c r="M25" s="25" t="n">
         <f aca="false">E25-E22-B25</f>
         <v>15</v>
       </c>
-      <c r="N25" s="21" t="n">
+      <c r="N25" s="25" t="n">
         <f aca="false">D25-D22-B25</f>
         <v>15</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="14" t="n">
+      <c r="B26" s="23" t="n">
         <v>9</v>
       </c>
-      <c r="C26" s="13" t="n">
+      <c r="C26" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="D26" s="13" t="n">
+      <c r="D26" s="24" t="n">
         <v>72</v>
       </c>
-      <c r="E26" s="13" t="n">
+      <c r="E26" s="24" t="n">
         <f aca="false">$B$43</f>
         <v>72</v>
       </c>
-      <c r="F26" s="13" t="n">
+      <c r="F26" s="24" t="n">
         <f aca="false">E26-D26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="21" t="n">
+      <c r="G26" s="25" t="n">
         <f aca="false">D23</f>
         <v>10</v>
       </c>
-      <c r="H26" s="21" t="n">
+      <c r="H26" s="25" t="n">
         <f aca="false">B26+G26</f>
         <v>19</v>
       </c>
-      <c r="I26" s="21" t="n">
+      <c r="I26" s="25" t="n">
         <f aca="false">E24</f>
         <v>37</v>
       </c>
-      <c r="J26" s="21" t="n">
+      <c r="J26" s="25" t="n">
         <f aca="false">I26-B26</f>
         <v>28</v>
       </c>
-      <c r="K26" s="21" t="n">
+      <c r="K26" s="25" t="n">
         <f aca="false">I26-G26-B26</f>
         <v>18</v>
       </c>
-      <c r="L26" s="21" t="n">
+      <c r="L26" s="25" t="n">
         <f aca="false">D24-E23-B26</f>
         <v>0</v>
       </c>
-      <c r="M26" s="21" t="n">
+      <c r="M26" s="25" t="n">
         <f aca="false">E24-E23-B26</f>
         <v>0</v>
       </c>
-      <c r="N26" s="21" t="n">
+      <c r="N26" s="25" t="n">
         <f aca="false">D24-D23-B26</f>
         <v>18</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="14" t="n">
+      <c r="B27" s="23" t="n">
         <v>22</v>
       </c>
-      <c r="G27" s="21" t="n">
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="25" t="n">
         <f aca="false">D23</f>
         <v>10</v>
       </c>
-      <c r="H27" s="21" t="n">
+      <c r="H27" s="25" t="n">
         <f aca="false">B27+G27</f>
         <v>32</v>
       </c>
-      <c r="I27" s="21" t="n">
+      <c r="I27" s="25" t="n">
         <f aca="false">E26</f>
         <v>72</v>
       </c>
-      <c r="J27" s="21" t="n">
+      <c r="J27" s="25" t="n">
         <f aca="false">I27-B27</f>
         <v>50</v>
       </c>
-      <c r="K27" s="21" t="n">
+      <c r="K27" s="25" t="n">
         <f aca="false">I27-G27-B27</f>
         <v>40</v>
       </c>
-      <c r="L27" s="21" t="n">
+      <c r="L27" s="25" t="n">
         <f aca="false">D26-E23-B27</f>
         <v>22</v>
       </c>
-      <c r="M27" s="21" t="n">
+      <c r="M27" s="25" t="n">
         <f aca="false">E26-E23-B27</f>
         <v>22</v>
       </c>
-      <c r="N27" s="21" t="n">
+      <c r="N27" s="25" t="n">
         <f aca="false">D26-D23-B27</f>
         <v>40</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="14" t="n">
+      <c r="B28" s="23" t="n">
         <v>17</v>
       </c>
-      <c r="G28" s="21" t="n">
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="25" t="n">
         <f aca="false">D24</f>
         <v>37</v>
       </c>
-      <c r="H28" s="21" t="n">
+      <c r="H28" s="25" t="n">
         <f aca="false">B28+G28</f>
         <v>54</v>
       </c>
-      <c r="I28" s="21" t="n">
+      <c r="I28" s="25" t="n">
         <f aca="false">E25</f>
         <v>54</v>
       </c>
-      <c r="J28" s="21" t="n">
+      <c r="J28" s="25" t="n">
         <f aca="false">I28-B28</f>
         <v>37</v>
       </c>
-      <c r="K28" s="21" t="n">
+      <c r="K28" s="25" t="n">
         <f aca="false">I28-G28-B28</f>
         <v>0</v>
       </c>
-      <c r="L28" s="21" t="n">
+      <c r="L28" s="25" t="n">
         <f aca="false">D25-E24-B28</f>
         <v>0</v>
       </c>
-      <c r="M28" s="21" t="n">
+      <c r="M28" s="25" t="n">
         <f aca="false">E25-E24-B28</f>
         <v>0</v>
       </c>
-      <c r="N28" s="21" t="n">
+      <c r="N28" s="25" t="n">
         <f aca="false">D25-D24-B28</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="14" t="n">
+      <c r="B29" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="G29" s="21" t="n">
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="25" t="n">
         <f aca="false">D24</f>
         <v>37</v>
       </c>
-      <c r="H29" s="21" t="n">
+      <c r="H29" s="25" t="n">
         <f aca="false">B29+G29</f>
         <v>57</v>
       </c>
-      <c r="I29" s="21" t="n">
+      <c r="I29" s="25" t="n">
         <f aca="false">E26</f>
         <v>72</v>
       </c>
-      <c r="J29" s="21" t="n">
+      <c r="J29" s="25" t="n">
         <f aca="false">I29-B29</f>
         <v>52</v>
       </c>
-      <c r="K29" s="21" t="n">
+      <c r="K29" s="25" t="n">
         <f aca="false">I29-G29-B29</f>
         <v>15</v>
       </c>
-      <c r="L29" s="21" t="n">
+      <c r="L29" s="25" t="n">
         <f aca="false">D26-E24-B29</f>
         <v>15</v>
       </c>
-      <c r="M29" s="21" t="n">
+      <c r="M29" s="25" t="n">
         <f aca="false">E26-E24-B29</f>
         <v>15</v>
       </c>
-      <c r="N29" s="21" t="n">
+      <c r="N29" s="25" t="n">
         <f aca="false">D26-D24-B29</f>
         <v>15</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="14" t="n">
+      <c r="B30" s="23" t="n">
         <v>18</v>
       </c>
-      <c r="G30" s="21" t="n">
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="25" t="n">
         <f aca="false">D25</f>
         <v>54</v>
       </c>
-      <c r="H30" s="21" t="n">
+      <c r="H30" s="25" t="n">
         <f aca="false">B30+G30</f>
         <v>72</v>
       </c>
-      <c r="I30" s="21" t="n">
+      <c r="I30" s="25" t="n">
         <f aca="false">E26</f>
         <v>72</v>
       </c>
-      <c r="J30" s="21" t="n">
+      <c r="J30" s="25" t="n">
         <f aca="false">I30-B30</f>
         <v>54</v>
       </c>
-      <c r="K30" s="21" t="n">
+      <c r="K30" s="25" t="n">
         <f aca="false">I30-G30-B30</f>
         <v>0</v>
       </c>
-      <c r="L30" s="21" t="n">
+      <c r="L30" s="25" t="n">
         <f aca="false">D26-E25-B30</f>
         <v>0</v>
       </c>
-      <c r="M30" s="21" t="n">
+      <c r="M30" s="25" t="n">
         <f aca="false">E26-E25-B30</f>
         <v>0</v>
       </c>
-      <c r="N30" s="21" t="n">
+      <c r="N30" s="25" t="n">
         <f aca="false">D26-D25-B30</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22" t="s">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="27"/>
+      <c r="C32" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10" t="s">
+      <c r="D32" s="11"/>
+      <c r="E32" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10" t="s">
+      <c r="F32" s="11"/>
+      <c r="G32" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10" t="s">
+      <c r="H32" s="11"/>
+      <c r="I32" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10" t="s">
+      <c r="J32" s="11"/>
+      <c r="K32" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10" t="s">
+      <c r="L32" s="11"/>
+      <c r="M32" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10" t="s">
+      <c r="N32" s="11"/>
+      <c r="O32" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10" t="s">
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10" t="s">
+      <c r="R32" s="11"/>
+      <c r="S32" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10" t="s">
+      <c r="T32" s="11"/>
+      <c r="U32" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10" t="s">
+      <c r="V32" s="11"/>
+      <c r="W32" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10" t="s">
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="10" t="s">
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="AB32" s="10"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="23" t="s">
+      <c r="AB32" s="11"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="8" t="n">
+      <c r="B33" s="9" t="n">
         <f aca="false">B21</f>
         <v>19</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="8" t="n">
+      <c r="D33" s="9" t="n">
         <f aca="false">B22</f>
         <v>10</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="8" t="n">
+      <c r="F33" s="9" t="n">
         <f aca="false">B23</f>
         <v>35</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H33" s="8" t="n">
+      <c r="H33" s="9" t="n">
         <f aca="false">B21+B25</f>
         <v>39</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J33" s="8" t="n">
+      <c r="J33" s="9" t="n">
         <f aca="false">B22+B27</f>
         <v>32</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="K33" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="L33" s="8" t="n">
+      <c r="L33" s="9" t="n">
         <f aca="false">B24</f>
         <v>18</v>
       </c>
-      <c r="M33" s="8" t="s">
+      <c r="M33" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="N33" s="8" t="n">
+      <c r="N33" s="9" t="n">
         <f aca="false">B25</f>
         <v>20</v>
       </c>
-      <c r="O33" s="8" t="s">
+      <c r="O33" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="P33" s="8" t="n">
+      <c r="P33" s="9" t="n">
         <f aca="false">B24+B29</f>
         <v>38</v>
       </c>
-      <c r="Q33" s="8" t="s">
+      <c r="Q33" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="R33" s="8" t="n">
+      <c r="R33" s="9" t="n">
         <f aca="false">B26</f>
         <v>9</v>
       </c>
-      <c r="S33" s="8" t="s">
+      <c r="S33" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="T33" s="8" t="n">
+      <c r="T33" s="9" t="n">
         <f aca="false">B26+B28</f>
         <v>26</v>
       </c>
-      <c r="U33" s="8" t="s">
+      <c r="U33" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="V33" s="8" t="n">
+      <c r="V33" s="9" t="n">
         <f aca="false">B27</f>
         <v>22</v>
       </c>
-      <c r="W33" s="8" t="s">
+      <c r="W33" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="X33" s="8" t="n">
+      <c r="X33" s="9" t="n">
         <f aca="false">B28</f>
         <v>17</v>
       </c>
-      <c r="Y33" s="8" t="s">
+      <c r="Y33" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="Z33" s="8" t="n">
+      <c r="Z33" s="9" t="n">
         <f aca="false">B29</f>
         <v>20</v>
       </c>
-      <c r="AA33" s="8" t="s">
+      <c r="AA33" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="AB33" s="8" t="n">
+      <c r="AB33" s="9" t="n">
         <f aca="false">B30</f>
         <v>18</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E34" s="8" t="s">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="8" t="n">
+      <c r="F34" s="9" t="n">
         <f aca="false">B21+B24</f>
         <v>37</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H34" s="8" t="n">
+      <c r="H34" s="9" t="n">
         <f aca="false">B23+B28</f>
         <v>52</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="J34" s="8" t="n">
+      <c r="J34" s="9" t="n">
         <f aca="false">B23+B29</f>
         <v>55</v>
       </c>
-      <c r="M34" s="24" t="s">
+      <c r="M34" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="N34" s="8" t="n">
+      <c r="N34" s="9" t="n">
         <f aca="false">B24+B28</f>
         <v>35</v>
       </c>
-      <c r="O34" s="8" t="s">
+      <c r="O34" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="P34" s="8" t="n">
+      <c r="P34" s="9" t="n">
         <f aca="false">B25+B30</f>
         <v>38</v>
       </c>
-      <c r="U34" s="8" t="s">
+      <c r="U34" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="V34" s="8" t="n">
+      <c r="V34" s="9" t="n">
         <f aca="false">B26+B29</f>
         <v>29</v>
       </c>
-      <c r="Y34" s="8" t="s">
+      <c r="Y34" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="Z34" s="8" t="n">
+      <c r="Z34" s="9" t="n">
         <f aca="false">B28+B30</f>
         <v>35</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="8" t="s">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F35" s="8" t="n">
+      <c r="F35" s="9" t="n">
         <f aca="false">B22+B26</f>
         <v>19</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H35" s="8" t="n">
+      <c r="H35" s="9" t="n">
         <f aca="false">B21+B24+B28</f>
         <v>54</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="J35" s="8" t="n">
+      <c r="J35" s="9" t="n">
         <f aca="false">B21+B24+B29</f>
         <v>57</v>
       </c>
-      <c r="O35" s="8" t="s">
+      <c r="O35" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="P35" s="8" t="n">
+      <c r="P35" s="9" t="n">
         <f aca="false">B24+B28+B30</f>
         <v>53</v>
       </c>
-      <c r="U35" s="8" t="s">
+      <c r="U35" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="V35" s="8" t="n">
+      <c r="V35" s="9" t="n">
         <f aca="false">B26+B28+B30</f>
         <v>44</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G36" s="8" t="s">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G36" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="H36" s="8" t="n">
+      <c r="H36" s="9" t="n">
         <f aca="false">B22+B26+B28</f>
         <v>36</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="J36" s="8" t="n">
+      <c r="J36" s="9" t="n">
         <f aca="false">B22+B26+B29</f>
         <v>39</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I37" s="8" t="s">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I37" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="J37" s="8" t="n">
+      <c r="J37" s="9" t="n">
         <f aca="false">B21+B25+B30</f>
         <v>57</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I38" s="8" t="s">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I38" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="J38" s="8" t="n">
+      <c r="J38" s="9" t="n">
         <f aca="false">B23+B28+B30</f>
         <v>70</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I39" s="8" t="s">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I39" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="J39" s="8" t="n">
+      <c r="J39" s="9" t="n">
         <f aca="false">B21+B24+B28+B30</f>
         <v>72</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I40" s="8" t="s">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I40" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="J40" s="8" t="n">
+      <c r="J40" s="9" t="n">
         <f aca="false">B22+B26+B28+B30</f>
         <v>54</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B42" s="12" t="n">
+      <c r="B42" s="13" t="n">
         <f aca="false">MAX(B33)</f>
         <v>19</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="12" t="n">
+      <c r="C42" s="9"/>
+      <c r="D42" s="13" t="n">
         <f aca="false">MAX(D33)</f>
         <v>10</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="12" t="n">
+      <c r="E42" s="9"/>
+      <c r="F42" s="13" t="n">
         <f aca="false">MAX(F33:F35)</f>
         <v>37</v>
       </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="12" t="n">
+      <c r="G42" s="9"/>
+      <c r="H42" s="13" t="n">
         <f aca="false">MAX(H33:H36)</f>
         <v>54</v>
       </c>
-      <c r="I42" s="8"/>
-      <c r="J42" s="12" t="n">
+      <c r="I42" s="9"/>
+      <c r="J42" s="13" t="n">
         <f aca="false">MAX(J33:J40)</f>
         <v>72</v>
       </c>
-      <c r="K42" s="8"/>
-      <c r="L42" s="12" t="n">
+      <c r="K42" s="9"/>
+      <c r="L42" s="13" t="n">
         <f aca="false">MAX(L33:L40)</f>
         <v>18</v>
       </c>
-      <c r="M42" s="8"/>
-      <c r="N42" s="12" t="n">
+      <c r="M42" s="9"/>
+      <c r="N42" s="13" t="n">
         <f aca="false">MAX(N33:N40)</f>
         <v>35</v>
       </c>
-      <c r="O42" s="8"/>
-      <c r="P42" s="12" t="n">
+      <c r="O42" s="9"/>
+      <c r="P42" s="13" t="n">
         <f aca="false">MAX(P33:P40)</f>
         <v>53</v>
       </c>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="12" t="n">
+      <c r="Q42" s="9"/>
+      <c r="R42" s="13" t="n">
         <f aca="false">MAX(R33:R40)</f>
         <v>9</v>
       </c>
-      <c r="S42" s="8"/>
-      <c r="T42" s="12" t="n">
+      <c r="S42" s="9"/>
+      <c r="T42" s="13" t="n">
         <f aca="false">MAX(T33:T40)</f>
         <v>26</v>
       </c>
-      <c r="U42" s="8"/>
-      <c r="V42" s="12" t="n">
+      <c r="U42" s="9"/>
+      <c r="V42" s="13" t="n">
         <f aca="false">MAX(V33:V40)</f>
         <v>44</v>
       </c>
-      <c r="W42" s="8"/>
-      <c r="X42" s="12" t="n">
+      <c r="W42" s="9"/>
+      <c r="X42" s="13" t="n">
         <f aca="false">MAX(X33:X40)</f>
         <v>17</v>
       </c>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="12" t="n">
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="13" t="n">
         <f aca="false">MAX(Z33:Z40)</f>
         <v>35</v>
       </c>
-      <c r="AA42" s="8"/>
-      <c r="AB42" s="12" t="n">
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="13" t="n">
         <f aca="false">MAX(AB33:AB40)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="s">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B43" s="13" t="n">
+      <c r="B43" s="14" t="n">
         <f aca="false">MAX(B42:AB42)</f>
         <v>72</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="25" t="s">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="B48" s="28" t="n">
+      <c r="A48" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="B48" s="33" t="n">
         <v>19</v>
       </c>
-      <c r="C48" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" s="29" t="s">
+      <c r="C48" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="E48" s="29"/>
+      <c r="E48" s="34"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="B49" s="28" t="n">
+      <c r="A49" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="B49" s="33" t="n">
         <v>10</v>
       </c>
-      <c r="C49" s="25" t="n">
+      <c r="C49" s="30" t="n">
         <v>18</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="E49" s="29"/>
+      <c r="E49" s="34"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="B50" s="28" t="n">
+      <c r="A50" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" s="33" t="n">
         <v>35</v>
       </c>
-      <c r="C50" s="25" t="n">
+      <c r="C50" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="D50" s="30" t="s">
+      <c r="D50" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="E50" s="30"/>
+      <c r="E50" s="34"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="27" t="n">
+      <c r="A51" s="32" t="n">
         <v>19</v>
       </c>
-      <c r="B51" s="28" t="n">
+      <c r="B51" s="33" t="n">
         <v>18</v>
       </c>
-      <c r="C51" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="29" t="s">
+      <c r="C51" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="E51" s="29"/>
+      <c r="E51" s="34"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="27" t="n">
+      <c r="A52" s="32" t="n">
         <v>19</v>
       </c>
-      <c r="B52" s="28" t="n">
+      <c r="B52" s="33" t="n">
         <v>20</v>
       </c>
-      <c r="C52" s="25" t="n">
+      <c r="C52" s="30" t="n">
         <v>15</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="D52" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="E52" s="30"/>
+      <c r="E52" s="34"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="27" t="n">
+      <c r="A53" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="B53" s="28" t="n">
+      <c r="B53" s="33" t="n">
         <v>9</v>
       </c>
-      <c r="C53" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" s="30" t="s">
+      <c r="C53" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="E53" s="30"/>
+      <c r="E53" s="34"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="27" t="n">
+      <c r="A54" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="B54" s="28" t="n">
+      <c r="B54" s="33" t="n">
         <v>22</v>
       </c>
-      <c r="C54" s="25" t="n">
+      <c r="C54" s="30" t="n">
         <v>22</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="E54" s="30"/>
+      <c r="E54" s="34"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="27" t="n">
+      <c r="A55" s="32" t="n">
         <v>37</v>
       </c>
-      <c r="B55" s="28" t="n">
+      <c r="B55" s="33" t="n">
         <v>17</v>
       </c>
-      <c r="C55" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" s="30" t="s">
+      <c r="C55" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="E55" s="30"/>
+      <c r="E55" s="34"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="27" t="n">
+      <c r="A56" s="32" t="n">
         <v>37</v>
       </c>
-      <c r="B56" s="28" t="n">
+      <c r="B56" s="33" t="n">
         <v>20</v>
       </c>
-      <c r="C56" s="25" t="n">
+      <c r="C56" s="30" t="n">
         <v>15</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="E56" s="30"/>
+      <c r="E56" s="34"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="27" t="n">
+      <c r="A57" s="32" t="n">
         <v>54</v>
       </c>
-      <c r="B57" s="28" t="n">
+      <c r="B57" s="33" t="n">
         <v>18</v>
       </c>
-      <c r="C57" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" s="30" t="s">
+      <c r="C57" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="E57" s="30"/>
-    </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E57" s="34"/>
+    </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="M62" s="31"/>
-    </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="31"/>
-      <c r="B63" s="33" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="C63" s="33" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="D63" s="33" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E63" s="33" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="F63" s="33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G63" s="33" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H63" s="33" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I63" s="33" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J63" s="33" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K63" s="33" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-    </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="34" t="n">
-        <v>10</v>
-      </c>
-      <c r="C64" s="34" t="n">
-        <v>13</v>
-      </c>
-      <c r="D64" s="34" t="n">
-        <v>24</v>
-      </c>
-      <c r="E64" s="34" t="n">
-        <v>9</v>
-      </c>
-      <c r="F64" s="34" t="n">
-        <v>11</v>
-      </c>
-      <c r="G64" s="34" t="n">
-        <v>17</v>
-      </c>
-      <c r="H64" s="34" t="n">
-        <v>10</v>
-      </c>
-      <c r="I64" s="34" t="n">
-        <v>15</v>
-      </c>
-      <c r="J64" s="34" t="n">
-        <v>15</v>
-      </c>
-      <c r="K64" s="34" t="n">
-        <v>20</v>
-      </c>
-      <c r="L64" s="35" t="n">
-        <v>56</v>
-      </c>
+      <c r="A62" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
       <c r="M64" s="35"/>
-    </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="C65" s="34" t="n">
-        <v>9</v>
-      </c>
-      <c r="D65" s="34" t="n">
-        <v>11</v>
-      </c>
-      <c r="E65" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="F65" s="34" t="n">
-        <v>9</v>
-      </c>
-      <c r="G65" s="34" t="n">
-        <v>12</v>
-      </c>
-      <c r="H65" s="34" t="n">
-        <v>7</v>
-      </c>
-      <c r="I65" s="34" t="n">
-        <v>13</v>
-      </c>
-      <c r="J65" s="34" t="n">
-        <v>13</v>
-      </c>
-      <c r="K65" s="34" t="n">
-        <v>15</v>
-      </c>
+      <c r="N64" s="35"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
       <c r="L65" s="35"/>
       <c r="M65" s="35"/>
-    </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="34" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="C66" s="34" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D66" s="34" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E66" s="34" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F66" s="34" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G66" s="34" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H66" s="34" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I66" s="34" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J66" s="34" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K66" s="34" t="n">
-        <v>0.1</v>
-      </c>
+      <c r="N65" s="35"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="35"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
       <c r="L66" s="35"/>
       <c r="M66" s="35"/>
-    </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="B67" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C67" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" s="0" t="n">
-        <f aca="false">B68</f>
+      <c r="N66" s="35"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="35"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="35"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="35"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="35"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="35"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="35"/>
+      <c r="N72" s="35"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="35"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="35"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="35"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="35"/>
+      <c r="N74" s="35"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="35"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="35"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="35"/>
+      <c r="M76" s="35"/>
+      <c r="N76" s="35"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="35"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="35"/>
+      <c r="N77" s="35"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="35"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="35"/>
+      <c r="M78" s="35"/>
+      <c r="N78" s="35"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="35"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="35"/>
+      <c r="M79" s="35"/>
+      <c r="N79" s="35"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="35"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="35"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="35"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="35"/>
+      <c r="M81" s="35"/>
+      <c r="N81" s="35"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="35"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="36"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="38"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B85" s="39" t="n">
         <v>10</v>
       </c>
-      <c r="F67" s="0" t="n">
-        <f aca="false">B68</f>
+      <c r="C85" s="39" t="n">
+        <v>13</v>
+      </c>
+      <c r="D85" s="39" t="n">
+        <v>24</v>
+      </c>
+      <c r="E85" s="39" t="n">
+        <v>9</v>
+      </c>
+      <c r="F85" s="39" t="n">
+        <v>11</v>
+      </c>
+      <c r="G85" s="39" t="n">
+        <v>17</v>
+      </c>
+      <c r="H85" s="39" t="n">
         <v>10</v>
       </c>
-      <c r="G67" s="0" t="n">
-        <f aca="false">C68</f>
+      <c r="I85" s="39" t="n">
+        <v>15</v>
+      </c>
+      <c r="J85" s="39" t="n">
+        <v>15</v>
+      </c>
+      <c r="K85" s="39" t="n">
+        <v>20</v>
+      </c>
+      <c r="L85" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="M85" s="40"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86" s="39" t="n">
+        <v>5</v>
+      </c>
+      <c r="C86" s="39" t="n">
+        <v>9</v>
+      </c>
+      <c r="D86" s="39" t="n">
+        <v>11</v>
+      </c>
+      <c r="E86" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="F86" s="39" t="n">
+        <v>9</v>
+      </c>
+      <c r="G86" s="39" t="n">
+        <v>12</v>
+      </c>
+      <c r="H86" s="39" t="n">
+        <v>7</v>
+      </c>
+      <c r="I86" s="39" t="n">
         <v>13</v>
       </c>
-      <c r="H67" s="0" t="n">
-        <f aca="false">C68</f>
+      <c r="J86" s="39" t="n">
         <v>13</v>
       </c>
-      <c r="I67" s="0" t="n">
-        <f aca="false">MAX(D68,E68,G68)</f>
-        <v>30</v>
-      </c>
-      <c r="J67" s="0" t="n">
-        <f aca="false">I67</f>
-        <v>30</v>
-      </c>
-      <c r="K67" s="0" t="n">
-        <f aca="false">MAX(H68,J68)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="36" t="s">
+      <c r="K86" s="39" t="n">
+        <v>15</v>
+      </c>
+      <c r="L86" s="40"/>
+      <c r="M86" s="40"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87" s="39" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C87" s="39" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D87" s="39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E87" s="39" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F87" s="39" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G87" s="39" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H87" s="39" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I87" s="39" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J87" s="39" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K87" s="39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L87" s="41" t="n">
+        <v>56</v>
+      </c>
+      <c r="M87" s="41"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="B68" s="0" t="n">
-        <f aca="false">B71+B67</f>
-        <v>10</v>
-      </c>
-      <c r="C68" s="0" t="n">
-        <f aca="false">C71+C67</f>
-        <v>13</v>
-      </c>
-      <c r="D68" s="0" t="n">
-        <f aca="false">D71+D67</f>
+      <c r="B88" s="39" t="n">
+        <v>16</v>
+      </c>
+      <c r="C88" s="39" t="n">
+        <v>9</v>
+      </c>
+      <c r="D88" s="39" t="n">
         <v>24</v>
       </c>
-      <c r="E68" s="0" t="n">
-        <f aca="false">E71+E67</f>
+      <c r="E88" s="39" t="n">
+        <v>24</v>
+      </c>
+      <c r="F88" s="39" t="n">
+        <v>39</v>
+      </c>
+      <c r="G88" s="39" t="n">
+        <v>24</v>
+      </c>
+      <c r="H88" s="39" t="n">
         <v>19</v>
       </c>
-      <c r="F68" s="0" t="n">
-        <f aca="false">F71+F67</f>
-        <v>21</v>
-      </c>
-      <c r="G68" s="0" t="n">
-        <f aca="false">G71+G67</f>
-        <v>30</v>
-      </c>
-      <c r="H68" s="0" t="n">
-        <f aca="false">H71+H67</f>
-        <v>23</v>
-      </c>
-      <c r="I68" s="0" t="n">
-        <f aca="false">I71+I67</f>
-        <v>45</v>
-      </c>
-      <c r="J68" s="0" t="n">
-        <f aca="false">J71+J67</f>
-        <v>45</v>
-      </c>
-      <c r="K68" s="0" t="n">
-        <f aca="false">K71+K67</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="36" t="s">
+      <c r="I88" s="39" t="n">
+        <v>39</v>
+      </c>
+      <c r="J88" s="39" t="n">
+        <v>39</v>
+      </c>
+      <c r="K88" s="39" t="n">
+        <v>56</v>
+      </c>
+      <c r="L88" s="41"/>
+      <c r="M88" s="41"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="39" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="36" t="s">
+      <c r="B89" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" s="39" t="n">
+        <v>15</v>
+      </c>
+      <c r="F89" s="39" t="n">
+        <v>28</v>
+      </c>
+      <c r="G89" s="39" t="n">
+        <v>9</v>
+      </c>
+      <c r="H89" s="39" t="n">
+        <v>9</v>
+      </c>
+      <c r="I89" s="39" t="n">
+        <v>24</v>
+      </c>
+      <c r="J89" s="39" t="n">
+        <v>24</v>
+      </c>
+      <c r="K89" s="39" t="n">
+        <v>39</v>
+      </c>
+      <c r="L89" s="41"/>
+      <c r="M89" s="41"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="B70" s="0" t="n">
-        <f aca="false">B68-B67</f>
-        <v>10</v>
-      </c>
-      <c r="C70" s="0" t="n">
-        <f aca="false">C68-C67</f>
-        <v>13</v>
-      </c>
-      <c r="D70" s="0" t="n">
-        <f aca="false">D68-D67</f>
-        <v>24</v>
-      </c>
-      <c r="E70" s="0" t="n">
-        <f aca="false">E68-E67</f>
-        <v>9</v>
-      </c>
-      <c r="F70" s="0" t="n">
-        <f aca="false">F68-F67</f>
-        <v>11</v>
-      </c>
-      <c r="G70" s="0" t="n">
-        <f aca="false">G68-G67</f>
-        <v>17</v>
-      </c>
-      <c r="H70" s="0" t="n">
-        <f aca="false">H68-H67</f>
-        <v>10</v>
-      </c>
-      <c r="I70" s="0" t="n">
-        <f aca="false">I68-I67</f>
-        <v>15</v>
-      </c>
-      <c r="J70" s="0" t="n">
-        <f aca="false">J68-J67</f>
-        <v>15</v>
-      </c>
-      <c r="K70" s="0" t="n">
-        <f aca="false">K68-K67</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="B71" s="0" t="n">
-        <f aca="false">B64-B65*B69</f>
-        <v>10</v>
-      </c>
-      <c r="C71" s="0" t="n">
-        <f aca="false">C64-C65*C69</f>
-        <v>13</v>
-      </c>
-      <c r="D71" s="0" t="n">
-        <f aca="false">D64-D65*D69</f>
-        <v>24</v>
-      </c>
-      <c r="E71" s="0" t="n">
-        <f aca="false">E64-E65*E69</f>
-        <v>9</v>
-      </c>
-      <c r="F71" s="0" t="n">
-        <f aca="false">F64-F65*F69</f>
-        <v>11</v>
-      </c>
-      <c r="G71" s="0" t="n">
-        <f aca="false">G64-G65*G69</f>
-        <v>17</v>
-      </c>
-      <c r="H71" s="0" t="n">
-        <f aca="false">H64-H65*H69</f>
-        <v>10</v>
-      </c>
-      <c r="I71" s="0" t="n">
-        <f aca="false">I64-I65*I69</f>
-        <v>15</v>
-      </c>
-      <c r="J71" s="0" t="n">
-        <f aca="false">J64-J65*J69</f>
-        <v>15</v>
-      </c>
-      <c r="K71" s="0" t="n">
-        <f aca="false">K64-K65*K69</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="B73" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="39"/>
-      <c r="K73" s="39"/>
-      <c r="L73" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="M73" s="38"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="38"/>
-      <c r="B74" s="40" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="C74" s="40" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="D74" s="40" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E74" s="40" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="F74" s="40" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G74" s="40" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H74" s="40" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I74" s="40" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J74" s="40" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K74" s="40" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L74" s="38"/>
-      <c r="M74" s="38"/>
-      <c r="N74" s="41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B75" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C75" s="14" t="n">
-        <v>13</v>
-      </c>
-      <c r="D75" s="14" t="n">
-        <v>24</v>
-      </c>
-      <c r="E75" s="14" t="n">
-        <v>9</v>
-      </c>
-      <c r="F75" s="14" t="n">
-        <v>11</v>
-      </c>
-      <c r="G75" s="14" t="n">
-        <v>17</v>
-      </c>
-      <c r="H75" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="I75" s="14" t="n">
-        <v>15</v>
-      </c>
-      <c r="J75" s="14" t="n">
-        <v>15</v>
-      </c>
-      <c r="K75" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="L75" s="42" t="n">
-        <v>56</v>
-      </c>
-      <c r="M75" s="42"/>
-      <c r="N75" s="43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B76" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C76" s="14" t="n">
-        <v>9</v>
-      </c>
-      <c r="D76" s="14" t="n">
-        <v>11</v>
-      </c>
-      <c r="E76" s="14" t="n">
-        <v>6</v>
-      </c>
-      <c r="F76" s="14" t="n">
-        <v>9</v>
-      </c>
-      <c r="G76" s="14" t="n">
-        <v>12</v>
-      </c>
-      <c r="H76" s="14" t="n">
-        <v>7</v>
-      </c>
-      <c r="I76" s="14" t="n">
-        <v>13</v>
-      </c>
-      <c r="J76" s="14" t="n">
-        <v>13</v>
-      </c>
-      <c r="K76" s="14" t="n">
-        <v>15</v>
-      </c>
-      <c r="L76" s="42"/>
-      <c r="M76" s="42"/>
-      <c r="N76" s="43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B77" s="14" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="C77" s="14" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D77" s="14" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E77" s="14" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F77" s="14" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G77" s="14" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H77" s="14" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I77" s="14" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J77" s="14" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K77" s="14" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L77" s="42"/>
-      <c r="M77" s="42"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B78" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C78" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="F78" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="G78" s="8" t="n">
-        <v>13</v>
-      </c>
-      <c r="H78" s="8" t="n">
-        <v>13</v>
-      </c>
-      <c r="I78" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" s="42"/>
-      <c r="M78" s="42"/>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B79" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C79" s="8" t="n">
-        <v>13</v>
-      </c>
-      <c r="D79" s="8" t="n">
-        <v>24</v>
-      </c>
-      <c r="E79" s="8" t="n">
-        <v>19</v>
-      </c>
-      <c r="F79" s="8" t="n">
-        <v>21</v>
-      </c>
-      <c r="G79" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="H79" s="8" t="n">
-        <v>23</v>
-      </c>
-      <c r="I79" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="J79" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="K79" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="L79" s="42"/>
-      <c r="M79" s="42"/>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B80" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C80" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H80" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" s="42"/>
-      <c r="M80" s="42"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B81" s="8" t="n">
-        <f aca="false">B79-B78</f>
-        <v>10</v>
-      </c>
-      <c r="C81" s="8" t="n">
-        <f aca="false">C79-C78</f>
-        <v>13</v>
-      </c>
-      <c r="D81" s="8" t="n">
-        <f aca="false">D79-D78</f>
-        <v>24</v>
-      </c>
-      <c r="E81" s="8" t="n">
-        <f aca="false">E79-E78</f>
-        <v>9</v>
-      </c>
-      <c r="F81" s="8" t="n">
-        <f aca="false">F79-F78</f>
-        <v>11</v>
-      </c>
-      <c r="G81" s="8" t="n">
-        <f aca="false">G79-G78</f>
-        <v>17</v>
-      </c>
-      <c r="H81" s="8" t="n">
-        <f aca="false">H79-H78</f>
-        <v>10</v>
-      </c>
-      <c r="I81" s="8" t="n">
-        <f aca="false">I79-I78</f>
-        <v>15</v>
-      </c>
-      <c r="J81" s="8" t="n">
-        <f aca="false">J79-J78</f>
-        <v>15</v>
-      </c>
-      <c r="K81" s="8" t="n">
-        <f aca="false">K79-K78</f>
-        <v>20</v>
-      </c>
-      <c r="L81" s="42"/>
-      <c r="M81" s="42"/>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="B82" s="8" t="n">
-        <f aca="false">B75-B77*B80</f>
-        <v>10</v>
-      </c>
-      <c r="C82" s="8" t="n">
-        <f aca="false">C75-C77*C80</f>
-        <v>13</v>
-      </c>
-      <c r="D82" s="8" t="n">
-        <f aca="false">D75-D77*D80</f>
-        <v>24</v>
-      </c>
-      <c r="E82" s="8" t="n">
-        <f aca="false">E75-E77*E80</f>
-        <v>9</v>
-      </c>
-      <c r="F82" s="8" t="n">
-        <f aca="false">F75-F77*F80</f>
-        <v>11</v>
-      </c>
-      <c r="G82" s="8" t="n">
-        <f aca="false">G75-G77*G80</f>
-        <v>17</v>
-      </c>
-      <c r="H82" s="8" t="n">
-        <f aca="false">H75-H77*H80</f>
-        <v>10</v>
-      </c>
-      <c r="I82" s="8" t="n">
-        <f aca="false">I75-I77*I80</f>
-        <v>15</v>
-      </c>
-      <c r="J82" s="8" t="n">
-        <f aca="false">J75-J77*J80</f>
-        <v>15</v>
-      </c>
-      <c r="K82" s="8" t="n">
-        <f aca="false">K75-K77*K80</f>
-        <v>20</v>
-      </c>
-      <c r="L82" s="42"/>
-      <c r="M82" s="42"/>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="B83" s="13" t="n">
-        <f aca="false">SUM(B80:K80)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="B85" s="45" t="n">
-        <v>10</v>
-      </c>
-      <c r="C85" s="45" t="n">
-        <v>13</v>
-      </c>
-      <c r="D85" s="45" t="n">
-        <v>24</v>
-      </c>
-      <c r="E85" s="45" t="n">
-        <v>9</v>
-      </c>
-      <c r="F85" s="45" t="n">
-        <v>11</v>
-      </c>
-      <c r="G85" s="45" t="n">
-        <v>17</v>
-      </c>
-      <c r="H85" s="45" t="n">
-        <v>10</v>
-      </c>
-      <c r="I85" s="45" t="n">
-        <v>15</v>
-      </c>
-      <c r="J85" s="45" t="n">
-        <v>15</v>
-      </c>
-      <c r="K85" s="45" t="n">
-        <v>20</v>
-      </c>
-      <c r="L85" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="M85" s="38"/>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B86" s="45" t="n">
-        <v>5</v>
-      </c>
-      <c r="C86" s="45" t="n">
-        <v>9</v>
-      </c>
-      <c r="D86" s="45" t="n">
-        <v>11</v>
-      </c>
-      <c r="E86" s="45" t="n">
-        <v>6</v>
-      </c>
-      <c r="F86" s="45" t="n">
-        <v>9</v>
-      </c>
-      <c r="G86" s="45" t="n">
-        <v>12</v>
-      </c>
-      <c r="H86" s="45" t="n">
-        <v>7</v>
-      </c>
-      <c r="I86" s="45" t="n">
-        <v>13</v>
-      </c>
-      <c r="J86" s="45" t="n">
-        <v>13</v>
-      </c>
-      <c r="K86" s="45" t="n">
-        <v>15</v>
-      </c>
-      <c r="L86" s="38"/>
-      <c r="M86" s="38"/>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B87" s="45" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="C87" s="45" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D87" s="45" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E87" s="45" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F87" s="45" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G87" s="45" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H87" s="45" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I87" s="45" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J87" s="45" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K87" s="45" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L87" s="42" t="n">
-        <v>56</v>
-      </c>
-      <c r="M87" s="42"/>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="B88" s="45" t="n">
-        <v>10</v>
-      </c>
-      <c r="C88" s="45" t="n">
-        <v>9</v>
-      </c>
-      <c r="D88" s="45" t="n">
-        <v>24</v>
-      </c>
-      <c r="E88" s="45" t="n">
-        <v>24</v>
-      </c>
-      <c r="F88" s="45" t="n">
-        <v>39</v>
-      </c>
-      <c r="G88" s="45" t="n">
-        <v>24</v>
-      </c>
-      <c r="H88" s="45" t="n">
-        <v>19</v>
-      </c>
-      <c r="I88" s="45" t="n">
-        <v>39</v>
-      </c>
-      <c r="J88" s="45" t="n">
-        <v>39</v>
-      </c>
-      <c r="K88" s="45" t="n">
-        <v>56</v>
-      </c>
-      <c r="L88" s="42"/>
-      <c r="M88" s="42"/>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="B89" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="C89" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" s="45" t="n">
-        <v>15</v>
-      </c>
-      <c r="F89" s="45" t="n">
-        <v>28</v>
-      </c>
-      <c r="G89" s="45" t="n">
-        <v>9</v>
-      </c>
-      <c r="H89" s="45" t="n">
-        <v>9</v>
-      </c>
-      <c r="I89" s="45" t="n">
-        <v>24</v>
-      </c>
-      <c r="J89" s="45" t="n">
-        <v>24</v>
-      </c>
-      <c r="K89" s="45" t="n">
-        <v>39</v>
-      </c>
-      <c r="L89" s="42"/>
-      <c r="M89" s="42"/>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="B90" s="45" t="n">
+      <c r="B90" s="39" t="n">
         <f aca="false">B88-B89</f>
-        <v>10</v>
-      </c>
-      <c r="C90" s="45" t="n">
+        <v>16</v>
+      </c>
+      <c r="C90" s="39" t="n">
         <f aca="false">C88-C89</f>
         <v>9</v>
       </c>
-      <c r="D90" s="45" t="n">
+      <c r="D90" s="39" t="n">
         <f aca="false">D88-D89</f>
         <v>24</v>
       </c>
-      <c r="E90" s="45" t="n">
+      <c r="E90" s="39" t="n">
         <f aca="false">E88-E89</f>
         <v>9</v>
       </c>
-      <c r="F90" s="45" t="n">
+      <c r="F90" s="39" t="n">
         <f aca="false">F88-F89</f>
         <v>11</v>
       </c>
-      <c r="G90" s="45" t="n">
+      <c r="G90" s="39" t="n">
         <f aca="false">G88-G89</f>
         <v>15</v>
       </c>
-      <c r="H90" s="45" t="n">
+      <c r="H90" s="39" t="n">
         <f aca="false">H88-H89</f>
         <v>10</v>
       </c>
-      <c r="I90" s="45" t="n">
+      <c r="I90" s="39" t="n">
         <f aca="false">I88-I89</f>
         <v>15</v>
       </c>
-      <c r="J90" s="45" t="n">
+      <c r="J90" s="39" t="n">
         <f aca="false">J88-J89</f>
         <v>15</v>
       </c>
-      <c r="K90" s="45" t="n">
+      <c r="K90" s="39" t="n">
         <f aca="false">K88-K89</f>
         <v>17</v>
       </c>
-      <c r="L90" s="42"/>
-      <c r="M90" s="42"/>
+      <c r="L90" s="41"/>
+      <c r="M90" s="41"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="B91" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="C91" s="45" t="n">
+      <c r="A91" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B91" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" s="39" t="n">
         <v>16</v>
       </c>
-      <c r="D91" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" s="45" t="n">
+      <c r="D91" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" s="39" t="n">
         <v>10</v>
       </c>
-      <c r="H91" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" s="45" t="n">
+      <c r="H91" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" s="39" t="n">
         <v>29.9999999999996</v>
       </c>
-      <c r="L91" s="42"/>
-      <c r="M91" s="42"/>
+      <c r="L91" s="41"/>
+      <c r="M91" s="41"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="B92" s="45" t="n">
+      <c r="A92" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B92" s="39" t="n">
         <f aca="false">10-0.08*B91</f>
         <v>10</v>
       </c>
-      <c r="C92" s="45" t="n">
+      <c r="C92" s="39" t="n">
         <f aca="false">13-0.25*C91</f>
         <v>9</v>
       </c>
-      <c r="D92" s="45" t="n">
+      <c r="D92" s="39" t="n">
         <f aca="false">24-0.1*D91</f>
         <v>24</v>
       </c>
-      <c r="E92" s="45" t="n">
+      <c r="E92" s="39" t="n">
         <f aca="false">9-0.15*E91</f>
         <v>9</v>
       </c>
-      <c r="F92" s="45" t="n">
+      <c r="F92" s="39" t="n">
         <f aca="false">11-0.3*F91</f>
         <v>11</v>
       </c>
-      <c r="G92" s="45" t="n">
+      <c r="G92" s="39" t="n">
         <f aca="false">17-0.2*G91</f>
         <v>15</v>
       </c>
-      <c r="H92" s="45" t="n">
+      <c r="H92" s="39" t="n">
         <f aca="false">10-0.08*H91</f>
         <v>10</v>
       </c>
-      <c r="I92" s="45" t="n">
+      <c r="I92" s="39" t="n">
         <f aca="false">15-0.04*I91</f>
         <v>15</v>
       </c>
-      <c r="J92" s="45" t="n">
+      <c r="J92" s="39" t="n">
         <f aca="false">15-0.2*J91</f>
         <v>15</v>
       </c>
-      <c r="K92" s="45" t="n">
+      <c r="K92" s="39" t="n">
         <f aca="false">20-0.1*K91</f>
         <v>17</v>
       </c>
-      <c r="L92" s="42"/>
-      <c r="M92" s="42"/>
+      <c r="L92" s="41"/>
+      <c r="M92" s="41"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="B93" s="45" t="n">
+      <c r="A93" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="B93" s="39" t="n">
         <f aca="false">B90</f>
-        <v>10</v>
-      </c>
-      <c r="C93" s="45" t="n">
+        <v>16</v>
+      </c>
+      <c r="C93" s="39" t="n">
         <f aca="false">C90</f>
         <v>9</v>
       </c>
-      <c r="D93" s="45" t="n">
+      <c r="D93" s="39" t="n">
         <f aca="false">D90</f>
         <v>24</v>
       </c>
-      <c r="E93" s="45" t="n">
+      <c r="E93" s="39" t="n">
         <f aca="false">E90</f>
         <v>9</v>
       </c>
-      <c r="F93" s="45" t="n">
+      <c r="F93" s="39" t="n">
         <f aca="false">F90</f>
         <v>11</v>
       </c>
-      <c r="G93" s="45" t="n">
+      <c r="G93" s="39" t="n">
         <f aca="false">G90</f>
         <v>15</v>
       </c>
-      <c r="H93" s="45" t="n">
+      <c r="H93" s="39" t="n">
         <f aca="false">H90</f>
         <v>10</v>
       </c>
-      <c r="I93" s="45" t="n">
+      <c r="I93" s="39" t="n">
         <f aca="false">I90</f>
         <v>15</v>
       </c>
-      <c r="J93" s="45" t="n">
+      <c r="J93" s="39" t="n">
         <f aca="false">J90</f>
         <v>15</v>
       </c>
-      <c r="K93" s="45" t="n">
+      <c r="K93" s="39" t="n">
         <f aca="false">K90</f>
         <v>17</v>
       </c>
-      <c r="L93" s="42"/>
-      <c r="M93" s="42"/>
+      <c r="L93" s="41"/>
+      <c r="M93" s="41"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="B94" s="46" t="n">
+      <c r="A94" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B94" s="42" t="n">
         <f aca="false">SUM(B91:K91)</f>
         <v>55.9999999999996</v>
       </c>
-      <c r="C94" s="47"/>
-      <c r="D94" s="47"/>
-      <c r="E94" s="47"/>
-      <c r="F94" s="47"/>
-      <c r="G94" s="47"/>
-      <c r="H94" s="47"/>
-      <c r="I94" s="47"/>
-      <c r="J94" s="47"/>
-      <c r="K94" s="47"/>
-      <c r="L94" s="42"/>
-      <c r="M94" s="42"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="43"/>
+      <c r="I94" s="43"/>
+      <c r="J94" s="43"/>
+      <c r="K94" s="43"/>
+      <c r="L94" s="41"/>
+      <c r="M94" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="33">
     <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A9:C10"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="L13:M14"/>
@@ -5818,14 +5940,7 @@
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:K62"/>
-    <mergeCell ref="L62:M63"/>
-    <mergeCell ref="L64:M66"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:K73"/>
-    <mergeCell ref="L73:M74"/>
-    <mergeCell ref="L75:M82"/>
+    <mergeCell ref="A62:N82"/>
     <mergeCell ref="L85:M86"/>
     <mergeCell ref="L87:M94"/>
   </mergeCells>
@@ -5838,4 +5953,2065 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A5:AB94"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S86" activeCellId="0" sqref="S86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="1" style="0" width="8.68"/>
+  </cols>
+  <sheetData>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="18"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="18"/>
+      <c r="B14" s="20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C14" s="20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D14" s="20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E14" s="20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F14" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G14" s="20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H14" s="20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I14" s="20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J14" s="20" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K14" s="20" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C15" s="21" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" s="21" t="n">
+        <v>35</v>
+      </c>
+      <c r="E15" s="21" t="n">
+        <v>18</v>
+      </c>
+      <c r="F15" s="21" t="n">
+        <v>20</v>
+      </c>
+      <c r="G15" s="21" t="n">
+        <v>9</v>
+      </c>
+      <c r="H15" s="21" t="n">
+        <v>22</v>
+      </c>
+      <c r="I15" s="21" t="n">
+        <v>17</v>
+      </c>
+      <c r="J15" s="21" t="n">
+        <v>20</v>
+      </c>
+      <c r="K15" s="21" t="n">
+        <v>18</v>
+      </c>
+      <c r="L15" s="22" t="n">
+        <v>56</v>
+      </c>
+      <c r="M15" s="22"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="21" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" s="21" t="n">
+        <v>25</v>
+      </c>
+      <c r="E16" s="21" t="n">
+        <v>13</v>
+      </c>
+      <c r="F16" s="21" t="n">
+        <v>15</v>
+      </c>
+      <c r="G16" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" s="21" t="n">
+        <v>17</v>
+      </c>
+      <c r="I16" s="21" t="n">
+        <v>13</v>
+      </c>
+      <c r="J16" s="21" t="n">
+        <v>16</v>
+      </c>
+      <c r="K16" s="21" t="n">
+        <v>14</v>
+      </c>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="21" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C17" s="21" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="D17" s="21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="21" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G17" s="21" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H17" s="21" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I17" s="21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J17" s="21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K17" s="21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="M20" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="N20" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="23" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="24" t="n">
+        <f aca="false">$B$43-J42</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="24" t="n">
+        <f aca="false">E21-D21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="25" t="n">
+        <f aca="false">D21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="25" t="n">
+        <f aca="false">B21+G21</f>
+        <v>19</v>
+      </c>
+      <c r="I21" s="25" t="n">
+        <f aca="false">E22</f>
+        <v>19</v>
+      </c>
+      <c r="J21" s="25" t="n">
+        <f aca="false">I21-B21</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="25" t="n">
+        <f aca="false">I21-G21-B21</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="25" t="n">
+        <f aca="false">D22-E21-B21</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="25" t="n">
+        <f aca="false">E22-E21-B21</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="25" t="n">
+        <f aca="false">D22-D21-B21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" s="24" t="n">
+        <f aca="false">B21</f>
+        <v>19</v>
+      </c>
+      <c r="E22" s="24" t="n">
+        <f aca="false">$B$43-MAX(L42:P42)</f>
+        <v>19</v>
+      </c>
+      <c r="F22" s="24" t="n">
+        <f aca="false">E22-D22</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="25" t="n">
+        <f aca="false">D21</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="25" t="n">
+        <f aca="false">B22+G22</f>
+        <v>10</v>
+      </c>
+      <c r="I22" s="25" t="n">
+        <f aca="false">E23</f>
+        <v>28</v>
+      </c>
+      <c r="J22" s="25" t="n">
+        <f aca="false">I22-B22</f>
+        <v>18</v>
+      </c>
+      <c r="K22" s="25" t="n">
+        <f aca="false">I22-G22-B22</f>
+        <v>18</v>
+      </c>
+      <c r="L22" s="25" t="n">
+        <f aca="false">D23-E21-B22</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="25" t="n">
+        <f aca="false">E23-E21-B22</f>
+        <v>18</v>
+      </c>
+      <c r="N22" s="25" t="n">
+        <f aca="false">D23-D21-B22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="23" t="n">
+        <v>35</v>
+      </c>
+      <c r="C23" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" s="24" t="n">
+        <f aca="false">B22</f>
+        <v>10</v>
+      </c>
+      <c r="E23" s="24" t="n">
+        <f aca="false">$B$43-MAX(R42:V42)</f>
+        <v>28</v>
+      </c>
+      <c r="F23" s="24" t="n">
+        <f aca="false">E23-D23</f>
+        <v>18</v>
+      </c>
+      <c r="G23" s="25" t="n">
+        <f aca="false">D21</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="25" t="n">
+        <f aca="false">B23+G23</f>
+        <v>35</v>
+      </c>
+      <c r="I23" s="25" t="n">
+        <f aca="false">E24</f>
+        <v>37</v>
+      </c>
+      <c r="J23" s="25" t="n">
+        <f aca="false">I23-B23</f>
+        <v>2</v>
+      </c>
+      <c r="K23" s="25" t="n">
+        <f aca="false">I23-G23-B23</f>
+        <v>2</v>
+      </c>
+      <c r="L23" s="25" t="n">
+        <f aca="false">D24-E21-B23</f>
+        <v>2</v>
+      </c>
+      <c r="M23" s="25" t="n">
+        <f aca="false">E24-E21-B23</f>
+        <v>2</v>
+      </c>
+      <c r="N23" s="25" t="n">
+        <f aca="false">D24-D21-B23</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="23" t="n">
+        <v>18</v>
+      </c>
+      <c r="C24" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="E24" s="24" t="n">
+        <f aca="false">$B$43-MAX(X42:Z42)</f>
+        <v>37</v>
+      </c>
+      <c r="F24" s="24" t="n">
+        <f aca="false">E24-D24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="25" t="n">
+        <f aca="false">D22</f>
+        <v>19</v>
+      </c>
+      <c r="H24" s="25" t="n">
+        <f aca="false">B24+G24</f>
+        <v>37</v>
+      </c>
+      <c r="I24" s="25" t="n">
+        <f aca="false">E24</f>
+        <v>37</v>
+      </c>
+      <c r="J24" s="25" t="n">
+        <f aca="false">I24-B24</f>
+        <v>19</v>
+      </c>
+      <c r="K24" s="25" t="n">
+        <f aca="false">I24-G24-B24</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="25" t="n">
+        <f aca="false">D24-E22-B24</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="25" t="n">
+        <f aca="false">E24-E22-B24</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="25" t="n">
+        <f aca="false">D24-D22-B24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="23" t="n">
+        <v>20</v>
+      </c>
+      <c r="C25" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" s="24" t="n">
+        <v>54</v>
+      </c>
+      <c r="E25" s="24" t="n">
+        <f aca="false">$B$43-AB42</f>
+        <v>54</v>
+      </c>
+      <c r="F25" s="24" t="n">
+        <f aca="false">E25-D25</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="25" t="n">
+        <f aca="false">D22</f>
+        <v>19</v>
+      </c>
+      <c r="H25" s="25" t="n">
+        <f aca="false">B25+G25</f>
+        <v>39</v>
+      </c>
+      <c r="I25" s="25" t="n">
+        <f aca="false">E25</f>
+        <v>54</v>
+      </c>
+      <c r="J25" s="25" t="n">
+        <f aca="false">I25-B25</f>
+        <v>34</v>
+      </c>
+      <c r="K25" s="25" t="n">
+        <f aca="false">I25-G25-B25</f>
+        <v>15</v>
+      </c>
+      <c r="L25" s="25" t="n">
+        <f aca="false">D25-E22-B25</f>
+        <v>15</v>
+      </c>
+      <c r="M25" s="25" t="n">
+        <f aca="false">E25-E22-B25</f>
+        <v>15</v>
+      </c>
+      <c r="N25" s="25" t="n">
+        <f aca="false">D25-D22-B25</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="23" t="n">
+        <v>9</v>
+      </c>
+      <c r="C26" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="D26" s="24" t="n">
+        <v>72</v>
+      </c>
+      <c r="E26" s="24" t="n">
+        <f aca="false">$B$43</f>
+        <v>72</v>
+      </c>
+      <c r="F26" s="24" t="n">
+        <f aca="false">E26-D26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="25" t="n">
+        <f aca="false">D23</f>
+        <v>10</v>
+      </c>
+      <c r="H26" s="25" t="n">
+        <f aca="false">B26+G26</f>
+        <v>19</v>
+      </c>
+      <c r="I26" s="25" t="n">
+        <f aca="false">E24</f>
+        <v>37</v>
+      </c>
+      <c r="J26" s="25" t="n">
+        <f aca="false">I26-B26</f>
+        <v>28</v>
+      </c>
+      <c r="K26" s="25" t="n">
+        <f aca="false">I26-G26-B26</f>
+        <v>18</v>
+      </c>
+      <c r="L26" s="25" t="n">
+        <f aca="false">D24-E23-B26</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="25" t="n">
+        <f aca="false">E24-E23-B26</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="25" t="n">
+        <f aca="false">D24-D23-B26</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="25" t="n">
+        <f aca="false">D23</f>
+        <v>10</v>
+      </c>
+      <c r="H27" s="25" t="n">
+        <f aca="false">B27+G27</f>
+        <v>32</v>
+      </c>
+      <c r="I27" s="25" t="n">
+        <f aca="false">E26</f>
+        <v>72</v>
+      </c>
+      <c r="J27" s="25" t="n">
+        <f aca="false">I27-B27</f>
+        <v>50</v>
+      </c>
+      <c r="K27" s="25" t="n">
+        <f aca="false">I27-G27-B27</f>
+        <v>40</v>
+      </c>
+      <c r="L27" s="25" t="n">
+        <f aca="false">D26-E23-B27</f>
+        <v>22</v>
+      </c>
+      <c r="M27" s="25" t="n">
+        <f aca="false">E26-E23-B27</f>
+        <v>22</v>
+      </c>
+      <c r="N27" s="25" t="n">
+        <f aca="false">D26-D23-B27</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="23" t="n">
+        <v>17</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="25" t="n">
+        <f aca="false">D24</f>
+        <v>37</v>
+      </c>
+      <c r="H28" s="25" t="n">
+        <f aca="false">B28+G28</f>
+        <v>54</v>
+      </c>
+      <c r="I28" s="25" t="n">
+        <f aca="false">E25</f>
+        <v>54</v>
+      </c>
+      <c r="J28" s="25" t="n">
+        <f aca="false">I28-B28</f>
+        <v>37</v>
+      </c>
+      <c r="K28" s="25" t="n">
+        <f aca="false">I28-G28-B28</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="25" t="n">
+        <f aca="false">D25-E24-B28</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="25" t="n">
+        <f aca="false">E25-E24-B28</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="25" t="n">
+        <f aca="false">D25-D24-B28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="23" t="n">
+        <v>20</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="25" t="n">
+        <f aca="false">D24</f>
+        <v>37</v>
+      </c>
+      <c r="H29" s="25" t="n">
+        <f aca="false">B29+G29</f>
+        <v>57</v>
+      </c>
+      <c r="I29" s="25" t="n">
+        <f aca="false">E26</f>
+        <v>72</v>
+      </c>
+      <c r="J29" s="25" t="n">
+        <f aca="false">I29-B29</f>
+        <v>52</v>
+      </c>
+      <c r="K29" s="25" t="n">
+        <f aca="false">I29-G29-B29</f>
+        <v>15</v>
+      </c>
+      <c r="L29" s="25" t="n">
+        <f aca="false">D26-E24-B29</f>
+        <v>15</v>
+      </c>
+      <c r="M29" s="25" t="n">
+        <f aca="false">E26-E24-B29</f>
+        <v>15</v>
+      </c>
+      <c r="N29" s="25" t="n">
+        <f aca="false">D26-D24-B29</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="23" t="n">
+        <v>18</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="25" t="n">
+        <f aca="false">D25</f>
+        <v>54</v>
+      </c>
+      <c r="H30" s="25" t="n">
+        <f aca="false">B30+G30</f>
+        <v>72</v>
+      </c>
+      <c r="I30" s="25" t="n">
+        <f aca="false">E26</f>
+        <v>72</v>
+      </c>
+      <c r="J30" s="25" t="n">
+        <f aca="false">I30-B30</f>
+        <v>54</v>
+      </c>
+      <c r="K30" s="25" t="n">
+        <f aca="false">I30-G30-B30</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="25" t="n">
+        <f aca="false">D26-E25-B30</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="25" t="n">
+        <f aca="false">E26-E25-B30</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="25" t="n">
+        <f aca="false">D26-D25-B30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB32" s="11"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="9" t="n">
+        <f aca="false">B21</f>
+        <v>19</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <f aca="false">B22</f>
+        <v>10</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <f aca="false">B23</f>
+        <v>35</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <f aca="false">B21+B25</f>
+        <v>39</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <f aca="false">B22+B27</f>
+        <v>32</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L33" s="9" t="n">
+        <f aca="false">B24</f>
+        <v>18</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="N33" s="9" t="n">
+        <f aca="false">B25</f>
+        <v>20</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P33" s="9" t="n">
+        <f aca="false">B24+B29</f>
+        <v>38</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="R33" s="9" t="n">
+        <f aca="false">B26</f>
+        <v>9</v>
+      </c>
+      <c r="S33" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T33" s="9" t="n">
+        <f aca="false">B26+B28</f>
+        <v>26</v>
+      </c>
+      <c r="U33" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="V33" s="9" t="n">
+        <f aca="false">B27</f>
+        <v>22</v>
+      </c>
+      <c r="W33" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X33" s="9" t="n">
+        <f aca="false">B28</f>
+        <v>17</v>
+      </c>
+      <c r="Y33" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z33" s="9" t="n">
+        <f aca="false">B29</f>
+        <v>20</v>
+      </c>
+      <c r="AA33" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB33" s="9" t="n">
+        <f aca="false">B30</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <f aca="false">B21+B24</f>
+        <v>37</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <f aca="false">B23+B28</f>
+        <v>52</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <f aca="false">B23+B29</f>
+        <v>55</v>
+      </c>
+      <c r="M34" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="N34" s="9" t="n">
+        <f aca="false">B24+B28</f>
+        <v>35</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P34" s="9" t="n">
+        <f aca="false">B25+B30</f>
+        <v>38</v>
+      </c>
+      <c r="U34" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="V34" s="9" t="n">
+        <f aca="false">B26+B29</f>
+        <v>29</v>
+      </c>
+      <c r="Y34" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z34" s="9" t="n">
+        <f aca="false">B28+B30</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <f aca="false">B22+B26</f>
+        <v>19</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <f aca="false">B21+B24+B28</f>
+        <v>54</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <f aca="false">B21+B24+B29</f>
+        <v>57</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="P35" s="9" t="n">
+        <f aca="false">B24+B28+B30</f>
+        <v>53</v>
+      </c>
+      <c r="U35" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="V35" s="9" t="n">
+        <f aca="false">B26+B28+B30</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G36" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <f aca="false">B22+B26+B28</f>
+        <v>36</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <f aca="false">B22+B26+B29</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I37" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <f aca="false">B21+B25+B30</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I38" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <f aca="false">B23+B28+B30</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I39" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <f aca="false">B21+B24+B28+B30</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I40" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <f aca="false">B22+B26+B28+B30</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="13" t="n">
+        <f aca="false">MAX(B33)</f>
+        <v>19</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="13" t="n">
+        <f aca="false">MAX(D33)</f>
+        <v>10</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="13" t="n">
+        <f aca="false">MAX(F33:F35)</f>
+        <v>37</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="H42" s="13" t="n">
+        <f aca="false">MAX(H33:H36)</f>
+        <v>54</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="13" t="n">
+        <f aca="false">MAX(J33:J40)</f>
+        <v>72</v>
+      </c>
+      <c r="K42" s="9"/>
+      <c r="L42" s="13" t="n">
+        <f aca="false">MAX(L33:L40)</f>
+        <v>18</v>
+      </c>
+      <c r="M42" s="9"/>
+      <c r="N42" s="13" t="n">
+        <f aca="false">MAX(N33:N40)</f>
+        <v>35</v>
+      </c>
+      <c r="O42" s="9"/>
+      <c r="P42" s="13" t="n">
+        <f aca="false">MAX(P33:P40)</f>
+        <v>53</v>
+      </c>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="13" t="n">
+        <f aca="false">MAX(R33:R40)</f>
+        <v>9</v>
+      </c>
+      <c r="S42" s="9"/>
+      <c r="T42" s="13" t="n">
+        <f aca="false">MAX(T33:T40)</f>
+        <v>26</v>
+      </c>
+      <c r="U42" s="9"/>
+      <c r="V42" s="13" t="n">
+        <f aca="false">MAX(V33:V40)</f>
+        <v>44</v>
+      </c>
+      <c r="W42" s="9"/>
+      <c r="X42" s="13" t="n">
+        <f aca="false">MAX(X33:X40)</f>
+        <v>17</v>
+      </c>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="13" t="n">
+        <f aca="false">MAX(Z33:Z40)</f>
+        <v>35</v>
+      </c>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="13" t="n">
+        <f aca="false">MAX(AB33:AB40)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="14" t="n">
+        <f aca="false">MAX(B42:AB42)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="B48" s="33" t="n">
+        <v>19</v>
+      </c>
+      <c r="C48" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" s="34"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="B49" s="33" t="n">
+        <v>10</v>
+      </c>
+      <c r="C49" s="30" t="n">
+        <v>18</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="E49" s="34"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" s="33" t="n">
+        <v>35</v>
+      </c>
+      <c r="C50" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="34"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="32" t="n">
+        <v>19</v>
+      </c>
+      <c r="B51" s="33" t="n">
+        <v>18</v>
+      </c>
+      <c r="C51" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E51" s="34"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="32" t="n">
+        <v>19</v>
+      </c>
+      <c r="B52" s="33" t="n">
+        <v>20</v>
+      </c>
+      <c r="C52" s="30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52" s="34"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="B53" s="33" t="n">
+        <v>9</v>
+      </c>
+      <c r="C53" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" s="34"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="B54" s="33" t="n">
+        <v>22</v>
+      </c>
+      <c r="C54" s="30" t="n">
+        <v>22</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="E54" s="34"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="32" t="n">
+        <v>37</v>
+      </c>
+      <c r="B55" s="33" t="n">
+        <v>17</v>
+      </c>
+      <c r="C55" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" s="34"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="32" t="n">
+        <v>37</v>
+      </c>
+      <c r="B56" s="33" t="n">
+        <v>20</v>
+      </c>
+      <c r="C56" s="30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="E56" s="34"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="32" t="n">
+        <v>54</v>
+      </c>
+      <c r="B57" s="33" t="n">
+        <v>18</v>
+      </c>
+      <c r="C57" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" s="34"/>
+    </row>
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="35"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="35"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="35"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="35"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="35"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="35"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="35"/>
+      <c r="N72" s="35"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="35"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="35"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="35"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="35"/>
+      <c r="N74" s="35"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="35"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="35"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="35"/>
+      <c r="M76" s="35"/>
+      <c r="N76" s="35"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="35"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="35"/>
+      <c r="N77" s="35"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="35"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="35"/>
+      <c r="M78" s="35"/>
+      <c r="N78" s="35"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="35"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="35"/>
+      <c r="M79" s="35"/>
+      <c r="N79" s="35"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="35"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="35"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="35"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="35"/>
+      <c r="M81" s="35"/>
+      <c r="N81" s="35"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="35"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="44"/>
+      <c r="B83" s="14"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B85" s="45" t="n">
+        <v>10</v>
+      </c>
+      <c r="C85" s="45" t="n">
+        <v>13</v>
+      </c>
+      <c r="D85" s="45" t="n">
+        <v>24</v>
+      </c>
+      <c r="E85" s="45" t="n">
+        <v>9</v>
+      </c>
+      <c r="F85" s="45" t="n">
+        <v>11</v>
+      </c>
+      <c r="G85" s="45" t="n">
+        <v>17</v>
+      </c>
+      <c r="H85" s="45" t="n">
+        <v>10</v>
+      </c>
+      <c r="I85" s="45" t="n">
+        <v>15</v>
+      </c>
+      <c r="J85" s="45" t="n">
+        <v>15</v>
+      </c>
+      <c r="K85" s="45" t="n">
+        <v>20</v>
+      </c>
+      <c r="L85" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="M85" s="46"/>
+      <c r="N85" s="47"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86" s="45" t="n">
+        <v>16</v>
+      </c>
+      <c r="C86" s="45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D86" s="45" t="n">
+        <v>25</v>
+      </c>
+      <c r="E86" s="45" t="n">
+        <v>13</v>
+      </c>
+      <c r="F86" s="45" t="n">
+        <v>15</v>
+      </c>
+      <c r="G86" s="45" t="n">
+        <v>6</v>
+      </c>
+      <c r="H86" s="45" t="n">
+        <v>17</v>
+      </c>
+      <c r="I86" s="45" t="n">
+        <v>13</v>
+      </c>
+      <c r="J86" s="45" t="n">
+        <v>16</v>
+      </c>
+      <c r="K86" s="45" t="n">
+        <v>14</v>
+      </c>
+      <c r="L86" s="46"/>
+      <c r="M86" s="46"/>
+      <c r="N86" s="47"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87" s="45" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C87" s="45" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D87" s="45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E87" s="45" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F87" s="45" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G87" s="45" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H87" s="45" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I87" s="45" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J87" s="45" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K87" s="45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L87" s="48" t="n">
+        <v>147</v>
+      </c>
+      <c r="M87" s="48"/>
+      <c r="N87" s="47"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B88" s="45" t="n">
+        <v>16</v>
+      </c>
+      <c r="C88" s="45" t="n">
+        <v>9</v>
+      </c>
+      <c r="D88" s="45" t="n">
+        <v>24</v>
+      </c>
+      <c r="E88" s="45" t="n">
+        <v>24</v>
+      </c>
+      <c r="F88" s="45" t="n">
+        <v>39</v>
+      </c>
+      <c r="G88" s="45" t="n">
+        <v>24</v>
+      </c>
+      <c r="H88" s="45" t="n">
+        <v>19</v>
+      </c>
+      <c r="I88" s="45" t="n">
+        <v>39</v>
+      </c>
+      <c r="J88" s="45" t="n">
+        <v>39</v>
+      </c>
+      <c r="K88" s="45" t="n">
+        <v>56</v>
+      </c>
+      <c r="L88" s="48"/>
+      <c r="M88" s="48"/>
+      <c r="N88" s="47"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B89" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" s="45" t="n">
+        <v>15</v>
+      </c>
+      <c r="F89" s="45" t="n">
+        <v>28</v>
+      </c>
+      <c r="G89" s="45" t="n">
+        <v>9</v>
+      </c>
+      <c r="H89" s="45" t="n">
+        <v>9</v>
+      </c>
+      <c r="I89" s="45" t="n">
+        <v>24</v>
+      </c>
+      <c r="J89" s="45" t="n">
+        <v>24</v>
+      </c>
+      <c r="K89" s="45" t="n">
+        <v>39</v>
+      </c>
+      <c r="L89" s="48"/>
+      <c r="M89" s="48"/>
+      <c r="N89" s="47"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="B90" s="45" t="n">
+        <f aca="false">B88-B89</f>
+        <v>16</v>
+      </c>
+      <c r="C90" s="45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D90" s="45" t="n">
+        <v>29</v>
+      </c>
+      <c r="E90" s="45" t="n">
+        <v>13</v>
+      </c>
+      <c r="F90" s="45" t="n">
+        <v>20</v>
+      </c>
+      <c r="G90" s="45" t="n">
+        <v>9</v>
+      </c>
+      <c r="H90" s="45" t="n">
+        <v>22</v>
+      </c>
+      <c r="I90" s="45" t="n">
+        <v>13</v>
+      </c>
+      <c r="J90" s="45" t="n">
+        <v>20</v>
+      </c>
+      <c r="K90" s="45" t="n">
+        <v>14</v>
+      </c>
+      <c r="L90" s="48"/>
+      <c r="M90" s="48"/>
+      <c r="N90" s="47"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B91" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" s="45" t="n">
+        <v>16</v>
+      </c>
+      <c r="D91" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" s="45" t="n">
+        <v>10</v>
+      </c>
+      <c r="H91" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" s="45" t="n">
+        <v>29.9999999999996</v>
+      </c>
+      <c r="L91" s="48"/>
+      <c r="M91" s="48"/>
+      <c r="N91" s="47"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="B92" s="45" t="n">
+        <v>16</v>
+      </c>
+      <c r="C92" s="45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D92" s="45" t="n">
+        <v>29</v>
+      </c>
+      <c r="E92" s="45" t="n">
+        <v>13</v>
+      </c>
+      <c r="F92" s="45" t="n">
+        <v>20</v>
+      </c>
+      <c r="G92" s="45" t="n">
+        <v>9</v>
+      </c>
+      <c r="H92" s="45" t="n">
+        <v>22</v>
+      </c>
+      <c r="I92" s="45" t="n">
+        <v>13</v>
+      </c>
+      <c r="J92" s="45" t="n">
+        <v>20</v>
+      </c>
+      <c r="K92" s="45" t="n">
+        <v>14</v>
+      </c>
+      <c r="L92" s="48"/>
+      <c r="M92" s="48"/>
+      <c r="N92" s="47"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B93" s="45" t="n">
+        <f aca="false">B90</f>
+        <v>16</v>
+      </c>
+      <c r="C93" s="45" t="n">
+        <f aca="false">C90</f>
+        <v>10</v>
+      </c>
+      <c r="D93" s="45" t="n">
+        <f aca="false">D90</f>
+        <v>29</v>
+      </c>
+      <c r="E93" s="45" t="n">
+        <f aca="false">E90</f>
+        <v>13</v>
+      </c>
+      <c r="F93" s="45" t="n">
+        <f aca="false">F90</f>
+        <v>20</v>
+      </c>
+      <c r="G93" s="45" t="n">
+        <f aca="false">G90</f>
+        <v>9</v>
+      </c>
+      <c r="H93" s="45" t="n">
+        <f aca="false">H90</f>
+        <v>22</v>
+      </c>
+      <c r="I93" s="45" t="n">
+        <f aca="false">I90</f>
+        <v>13</v>
+      </c>
+      <c r="J93" s="45" t="n">
+        <f aca="false">J90</f>
+        <v>20</v>
+      </c>
+      <c r="K93" s="45" t="n">
+        <f aca="false">K90</f>
+        <v>14</v>
+      </c>
+      <c r="L93" s="48"/>
+      <c r="M93" s="48"/>
+      <c r="N93" s="47"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="B94" s="49" t="n">
+        <v>147</v>
+      </c>
+      <c r="C94" s="50"/>
+      <c r="D94" s="50"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50"/>
+      <c r="H94" s="50"/>
+      <c r="I94" s="50"/>
+      <c r="J94" s="50"/>
+      <c r="K94" s="50"/>
+      <c r="L94" s="48"/>
+      <c r="M94" s="48"/>
+      <c r="N94" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="L13:M14"/>
+    <mergeCell ref="L15:M17"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A62:N82"/>
+    <mergeCell ref="L85:M86"/>
+    <mergeCell ref="L87:M94"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/MOptim/lab3/МОл3.xlsx
+++ b/MOptim/lab3/МОл3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task1" sheetId="1" state="visible" r:id="rId2"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="98">
   <si>
     <t xml:space="preserve">Коефициенты</t>
   </si>
@@ -642,7 +642,7 @@
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -710,12 +710,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="26"/>
@@ -899,6 +893,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -991,11 +989,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1029,10 +1027,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1138,7 +1132,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1575,11 +1569,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62989225"/>
-        <c:axId val="71861100"/>
+        <c:axId val="8868259"/>
+        <c:axId val="40205338"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62989225"/>
+        <c:axId val="8868259"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1645,7 +1639,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71861100"/>
+        <c:crossAx val="40205338"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1653,7 +1647,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71861100"/>
+        <c:axId val="40205338"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1726,7 +1720,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62989225"/>
+        <c:crossAx val="8868259"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1778,7 +1772,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2182,11 +2176,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="84173514"/>
-        <c:axId val="80089161"/>
+        <c:axId val="13197116"/>
+        <c:axId val="249077"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84173514"/>
+        <c:axId val="13197116"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2252,7 +2246,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80089161"/>
+        <c:crossAx val="249077"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2260,7 +2254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80089161"/>
+        <c:axId val="249077"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2333,7 +2327,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84173514"/>
+        <c:crossAx val="13197116"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2391,14 +2385,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>426600</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>2221920</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>111600</xdr:rowOff>
+      <xdr:colOff>2221560</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2406,8 +2400,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4095720" y="7822440"/>
-        <a:ext cx="6075720" cy="2810520"/>
+        <a:off x="4095720" y="7686720"/>
+        <a:ext cx="6075360" cy="2810160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2415,6 +2409,43 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9000</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>165960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>767160</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>164160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7347240" y="19455840"/>
+          <a:ext cx="4087800" cy="2802600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2431,18 +2462,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>564840</xdr:colOff>
+      <xdr:colOff>564480</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Диаграмма 6"/>
+        <xdr:cNvPr id="2" name="Диаграмма 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4273200" y="7588440"/>
-        <a:ext cx="6075720" cy="2810520"/>
+        <a:ext cx="6075360" cy="2810160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2468,144 +2499,144 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.38"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.0185181016965982</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0" t="n">
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
         <v>0.0144031614303669</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <f aca="false">SUMPRODUCT(D2:G2,D3:G3)</f>
         <v>0.0329212631269651</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0" t="n">
+      <c r="G4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="n">
         <f aca="false">SUMPRODUCT(D4:G4,D$3:G$3)</f>
         <v>0.999977491616305</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <f aca="false">SUMPRODUCT(D5:G5,D$3:G$3)</f>
         <v>0.999980973610533</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <f aca="false">SUMPRODUCT(D6:G6,D$3:G$3)</f>
         <v>0.999984455604762</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <f aca="false">SUMPRODUCT(D7:G7,D$3:G$3)</f>
         <v>0.999987937598991</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2625,2035 +2656,2717 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A5:AB94"/>
+  <dimension ref="A5:AB126"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B92" activeCellId="0" sqref="B92"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J111" activeCellId="0" sqref="J111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="38.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="32.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="38.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="32.73"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="3" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5" t="n">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6" t="n">
         <v>1.2</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="6" t="n">
         <v>1.3</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="6" t="n">
         <v>1.4</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="E14" s="6" t="n">
         <v>2.4</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="6" t="n">
         <v>2.5</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="6" t="n">
         <v>3.4</v>
       </c>
-      <c r="H14" s="5" t="n">
+      <c r="H14" s="6" t="n">
         <v>3.6</v>
       </c>
-      <c r="I14" s="5" t="n">
+      <c r="I14" s="6" t="n">
         <v>4.5</v>
       </c>
-      <c r="J14" s="5" t="n">
+      <c r="J14" s="6" t="n">
         <v>4.6</v>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="K14" s="6" t="n">
         <v>5.6</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="6" t="n">
+      <c r="B15" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="G15" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="H15" s="6" t="n">
+      <c r="H15" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="I15" s="6" t="n">
+      <c r="I15" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="J15" s="6" t="n">
+      <c r="J15" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="K15" s="6" t="n">
+      <c r="K15" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="L15" s="7" t="n">
+      <c r="L15" s="8" t="n">
         <v>60</v>
       </c>
-      <c r="M15" s="7"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="6" t="n">
+      <c r="B16" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C16" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="F16" s="6" t="n">
+      <c r="F16" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="6" t="n">
+      <c r="G16" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="H16" s="6" t="n">
+      <c r="H16" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="I16" s="6" t="n">
+      <c r="I16" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="J16" s="6" t="n">
+      <c r="J16" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="K16" s="6" t="n">
+      <c r="K16" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="6" t="n">
+      <c r="B17" s="7" t="n">
         <v>0.25</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="C17" s="7" t="n">
         <v>0.07</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="7" t="n">
         <v>0.1</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="7" t="n">
         <v>0.2</v>
       </c>
-      <c r="F17" s="6" t="n">
+      <c r="F17" s="7" t="n">
         <v>0.13</v>
       </c>
-      <c r="G17" s="6" t="n">
+      <c r="G17" s="7" t="n">
         <v>0.15</v>
       </c>
-      <c r="H17" s="6" t="n">
+      <c r="H17" s="7" t="n">
         <v>0.06</v>
       </c>
-      <c r="I17" s="6" t="n">
+      <c r="I17" s="7" t="n">
         <v>0.4</v>
       </c>
-      <c r="J17" s="6" t="n">
+      <c r="J17" s="7" t="n">
         <v>0.2</v>
       </c>
-      <c r="K17" s="6" t="n">
+      <c r="K17" s="7" t="n">
         <v>0.1</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="L20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N20" s="10" t="s">
+      <c r="N20" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="8" t="n">
+      <c r="B21" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9" t="n">
+      <c r="D21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10" t="n">
         <f aca="false">$B$43-J42</f>
         <v>0</v>
       </c>
-      <c r="F21" s="9" t="n">
+      <c r="F21" s="10" t="n">
         <f aca="false">E21-D21</f>
         <v>0</v>
       </c>
-      <c r="G21" s="10" t="n">
+      <c r="G21" s="11" t="n">
         <f aca="false">D21</f>
         <v>0</v>
       </c>
-      <c r="H21" s="10" t="n">
+      <c r="H21" s="11" t="n">
         <f aca="false">B21+G21</f>
         <v>19</v>
       </c>
-      <c r="I21" s="10" t="n">
+      <c r="I21" s="11" t="n">
         <f aca="false">E22</f>
         <v>19</v>
       </c>
-      <c r="J21" s="10" t="n">
+      <c r="J21" s="11" t="n">
         <f aca="false">I21-B21</f>
         <v>0</v>
       </c>
-      <c r="K21" s="10" t="n">
+      <c r="K21" s="11" t="n">
         <f aca="false">I21-G21-B21</f>
         <v>0</v>
       </c>
-      <c r="L21" s="10" t="n">
+      <c r="L21" s="11" t="n">
         <f aca="false">D22-E21-B21</f>
         <v>0</v>
       </c>
-      <c r="M21" s="10" t="n">
+      <c r="M21" s="11" t="n">
         <f aca="false">E22-E21-B21</f>
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n">
+      <c r="N21" s="11" t="n">
         <f aca="false">J21-G21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="8" t="n">
+      <c r="B22" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="10" t="n">
         <f aca="false">B21</f>
         <v>19</v>
       </c>
-      <c r="E22" s="9" t="n">
+      <c r="E22" s="10" t="n">
         <f aca="false">$B$43-MAX(L42:P42)</f>
         <v>19</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F22" s="10" t="n">
         <f aca="false">E22-D22</f>
         <v>0</v>
       </c>
-      <c r="G22" s="10" t="n">
+      <c r="G22" s="11" t="n">
         <f aca="false">D21</f>
         <v>0</v>
       </c>
-      <c r="H22" s="10" t="n">
+      <c r="H22" s="11" t="n">
         <f aca="false">B22+G22</f>
         <v>10</v>
       </c>
-      <c r="I22" s="10" t="n">
+      <c r="I22" s="11" t="n">
         <f aca="false">E23</f>
         <v>28</v>
       </c>
-      <c r="J22" s="10" t="n">
+      <c r="J22" s="11" t="n">
         <f aca="false">I22-B22</f>
         <v>18</v>
       </c>
-      <c r="K22" s="10" t="n">
+      <c r="K22" s="11" t="n">
         <f aca="false">I22-G22-B22</f>
         <v>18</v>
       </c>
-      <c r="L22" s="10" t="n">
+      <c r="L22" s="11" t="n">
         <f aca="false">D23-E21-B22</f>
         <v>0</v>
       </c>
-      <c r="M22" s="10" t="n">
+      <c r="M22" s="11" t="n">
         <f aca="false">E23-E21-B22</f>
         <v>18</v>
       </c>
-      <c r="N22" s="10" t="n">
+      <c r="N22" s="11" t="n">
         <f aca="false">J22-G22</f>
         <v>18</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="8" t="n">
+      <c r="B23" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="C23" s="9" t="n">
+      <c r="C23" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="D23" s="9" t="n">
+      <c r="D23" s="10" t="n">
         <f aca="false">B22</f>
         <v>10</v>
       </c>
-      <c r="E23" s="9" t="n">
+      <c r="E23" s="10" t="n">
         <f aca="false">$B$43-MAX(R42:V42)</f>
         <v>28</v>
       </c>
-      <c r="F23" s="9" t="n">
+      <c r="F23" s="10" t="n">
         <f aca="false">E23-D23</f>
         <v>18</v>
       </c>
-      <c r="G23" s="10" t="n">
+      <c r="G23" s="11" t="n">
         <f aca="false">D21</f>
         <v>0</v>
       </c>
-      <c r="H23" s="10" t="n">
+      <c r="H23" s="11" t="n">
         <f aca="false">B23+G23</f>
         <v>35</v>
       </c>
-      <c r="I23" s="10" t="n">
+      <c r="I23" s="11" t="n">
         <f aca="false">E24</f>
         <v>37</v>
       </c>
-      <c r="J23" s="10" t="n">
+      <c r="J23" s="11" t="n">
         <f aca="false">I23-B23</f>
         <v>2</v>
       </c>
-      <c r="K23" s="10" t="n">
+      <c r="K23" s="11" t="n">
         <f aca="false">I23-G23-B23</f>
         <v>2</v>
       </c>
-      <c r="L23" s="10" t="n">
+      <c r="L23" s="11" t="n">
         <f aca="false">D24-E21-B23</f>
         <v>2</v>
       </c>
-      <c r="M23" s="10" t="n">
+      <c r="M23" s="11" t="n">
         <f aca="false">E24-E21-B23</f>
         <v>2</v>
       </c>
-      <c r="N23" s="10" t="n">
+      <c r="N23" s="11" t="n">
         <f aca="false">J23-G23</f>
         <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="8" t="n">
+      <c r="B24" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="C24" s="9" t="n">
+      <c r="C24" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="D24" s="9" t="n">
+      <c r="D24" s="10" t="n">
         <v>37</v>
       </c>
-      <c r="E24" s="9" t="n">
+      <c r="E24" s="10" t="n">
         <f aca="false">$B$43-MAX(X42:Z42)</f>
         <v>37</v>
       </c>
-      <c r="F24" s="9" t="n">
+      <c r="F24" s="10" t="n">
         <f aca="false">E24-D24</f>
         <v>0</v>
       </c>
-      <c r="G24" s="10" t="n">
+      <c r="G24" s="11" t="n">
         <f aca="false">D22</f>
         <v>19</v>
       </c>
-      <c r="H24" s="10" t="n">
+      <c r="H24" s="11" t="n">
         <f aca="false">B24+G24</f>
         <v>37</v>
       </c>
-      <c r="I24" s="10" t="n">
+      <c r="I24" s="11" t="n">
         <f aca="false">E24</f>
         <v>37</v>
       </c>
-      <c r="J24" s="10" t="n">
+      <c r="J24" s="11" t="n">
         <f aca="false">I24-B24</f>
         <v>19</v>
       </c>
-      <c r="K24" s="10" t="n">
+      <c r="K24" s="11" t="n">
         <f aca="false">I24-G24-B24</f>
         <v>0</v>
       </c>
-      <c r="L24" s="10" t="n">
+      <c r="L24" s="11" t="n">
         <f aca="false">D24-E22-B24</f>
         <v>0</v>
       </c>
-      <c r="M24" s="10" t="n">
+      <c r="M24" s="11" t="n">
         <f aca="false">E24-E22-B24</f>
         <v>0</v>
       </c>
-      <c r="N24" s="10" t="n">
+      <c r="N24" s="11" t="n">
         <f aca="false">J24-G24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="8" t="n">
+      <c r="B25" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="C25" s="9" t="n">
+      <c r="C25" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="D25" s="9" t="n">
+      <c r="D25" s="10" t="n">
         <v>54</v>
       </c>
-      <c r="E25" s="9" t="n">
+      <c r="E25" s="10" t="n">
         <f aca="false">$B$43-AB42</f>
         <v>54</v>
       </c>
-      <c r="F25" s="9" t="n">
+      <c r="F25" s="10" t="n">
         <f aca="false">E25-D25</f>
         <v>0</v>
       </c>
-      <c r="G25" s="10" t="n">
+      <c r="G25" s="11" t="n">
         <f aca="false">D22</f>
         <v>19</v>
       </c>
-      <c r="H25" s="10" t="n">
+      <c r="H25" s="11" t="n">
         <f aca="false">B25+G25</f>
         <v>39</v>
       </c>
-      <c r="I25" s="10" t="n">
+      <c r="I25" s="11" t="n">
         <f aca="false">E25</f>
         <v>54</v>
       </c>
-      <c r="J25" s="10" t="n">
+      <c r="J25" s="11" t="n">
         <f aca="false">I25-B25</f>
         <v>34</v>
       </c>
-      <c r="K25" s="10" t="n">
+      <c r="K25" s="11" t="n">
         <f aca="false">I25-G25-B25</f>
         <v>15</v>
       </c>
-      <c r="L25" s="10" t="n">
+      <c r="L25" s="11" t="n">
         <f aca="false">D25-E22-B25</f>
         <v>15</v>
       </c>
-      <c r="M25" s="10" t="n">
+      <c r="M25" s="11" t="n">
         <f aca="false">E25-E22-B25</f>
         <v>15</v>
       </c>
-      <c r="N25" s="10" t="n">
+      <c r="N25" s="11" t="n">
         <f aca="false">J25-G25</f>
         <v>15</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="8" t="n">
+      <c r="B26" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="C26" s="9" t="n">
+      <c r="C26" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="D26" s="9" t="n">
+      <c r="D26" s="10" t="n">
         <v>72</v>
       </c>
-      <c r="E26" s="9" t="n">
+      <c r="E26" s="10" t="n">
         <f aca="false">$B$43</f>
         <v>72</v>
       </c>
-      <c r="F26" s="9" t="n">
+      <c r="F26" s="10" t="n">
         <f aca="false">E26-D26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="10" t="n">
+      <c r="G26" s="11" t="n">
         <f aca="false">D23</f>
         <v>10</v>
       </c>
-      <c r="H26" s="10" t="n">
+      <c r="H26" s="11" t="n">
         <f aca="false">B26+G26</f>
         <v>19</v>
       </c>
-      <c r="I26" s="10" t="n">
+      <c r="I26" s="11" t="n">
         <f aca="false">E24</f>
         <v>37</v>
       </c>
-      <c r="J26" s="10" t="n">
+      <c r="J26" s="11" t="n">
         <f aca="false">I26-B26</f>
         <v>28</v>
       </c>
-      <c r="K26" s="10" t="n">
+      <c r="K26" s="11" t="n">
         <f aca="false">I26-G26-B26</f>
         <v>18</v>
       </c>
-      <c r="L26" s="10" t="n">
+      <c r="L26" s="11" t="n">
         <f aca="false">D24-E23-B26</f>
         <v>0</v>
       </c>
-      <c r="M26" s="10" t="n">
+      <c r="M26" s="11" t="n">
         <f aca="false">E24-E23-B26</f>
         <v>0</v>
       </c>
-      <c r="N26" s="10" t="n">
+      <c r="N26" s="11" t="n">
         <f aca="false">J26-G26</f>
         <v>18</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="8" t="n">
+      <c r="B27" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="10" t="n">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="11" t="n">
         <f aca="false">D23</f>
         <v>10</v>
       </c>
-      <c r="H27" s="10" t="n">
+      <c r="H27" s="11" t="n">
         <f aca="false">B27+G27</f>
         <v>32</v>
       </c>
-      <c r="I27" s="10" t="n">
+      <c r="I27" s="11" t="n">
         <f aca="false">E26</f>
         <v>72</v>
       </c>
-      <c r="J27" s="10" t="n">
+      <c r="J27" s="11" t="n">
         <f aca="false">I27-B27</f>
         <v>50</v>
       </c>
-      <c r="K27" s="10" t="n">
+      <c r="K27" s="11" t="n">
         <f aca="false">I27-G27-B27</f>
         <v>40</v>
       </c>
-      <c r="L27" s="10" t="n">
+      <c r="L27" s="11" t="n">
         <f aca="false">D26-E23-B27</f>
         <v>22</v>
       </c>
-      <c r="M27" s="10" t="n">
+      <c r="M27" s="11" t="n">
         <f aca="false">E26-E23-B27</f>
         <v>22</v>
       </c>
-      <c r="N27" s="10" t="n">
+      <c r="N27" s="11" t="n">
         <f aca="false">J27-G27</f>
         <v>40</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="8" t="n">
+      <c r="B28" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="10" t="n">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="11" t="n">
         <f aca="false">D24</f>
         <v>37</v>
       </c>
-      <c r="H28" s="10" t="n">
+      <c r="H28" s="11" t="n">
         <f aca="false">B28+G28</f>
         <v>54</v>
       </c>
-      <c r="I28" s="10" t="n">
+      <c r="I28" s="11" t="n">
         <f aca="false">E25</f>
         <v>54</v>
       </c>
-      <c r="J28" s="10" t="n">
+      <c r="J28" s="11" t="n">
         <f aca="false">I28-B28</f>
         <v>37</v>
       </c>
-      <c r="K28" s="10" t="n">
+      <c r="K28" s="11" t="n">
         <f aca="false">I28-G28-B28</f>
         <v>0</v>
       </c>
-      <c r="L28" s="10" t="n">
+      <c r="L28" s="11" t="n">
         <f aca="false">D25-E24-B28</f>
         <v>0</v>
       </c>
-      <c r="M28" s="10" t="n">
+      <c r="M28" s="11" t="n">
         <f aca="false">E25-E24-B28</f>
         <v>0</v>
       </c>
-      <c r="N28" s="10" t="n">
+      <c r="N28" s="11" t="n">
         <f aca="false">J28-G28</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="8" t="n">
+      <c r="B29" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="10" t="n">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="11" t="n">
         <f aca="false">D24</f>
         <v>37</v>
       </c>
-      <c r="H29" s="10" t="n">
+      <c r="H29" s="11" t="n">
         <f aca="false">B29+G29</f>
         <v>57</v>
       </c>
-      <c r="I29" s="10" t="n">
+      <c r="I29" s="11" t="n">
         <f aca="false">E26</f>
         <v>72</v>
       </c>
-      <c r="J29" s="10" t="n">
+      <c r="J29" s="11" t="n">
         <f aca="false">I29-B29</f>
         <v>52</v>
       </c>
-      <c r="K29" s="10" t="n">
+      <c r="K29" s="11" t="n">
         <f aca="false">I29-G29-B29</f>
         <v>15</v>
       </c>
-      <c r="L29" s="10" t="n">
+      <c r="L29" s="11" t="n">
         <f aca="false">D26-E24-B29</f>
         <v>15</v>
       </c>
-      <c r="M29" s="10" t="n">
+      <c r="M29" s="11" t="n">
         <f aca="false">E26-E24-B29</f>
         <v>15</v>
       </c>
-      <c r="N29" s="10" t="n">
+      <c r="N29" s="11" t="n">
         <f aca="false">J29-G29</f>
         <v>15</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="8" t="n">
+      <c r="B30" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="10" t="n">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="11" t="n">
         <f aca="false">D25</f>
         <v>54</v>
       </c>
-      <c r="H30" s="10" t="n">
+      <c r="H30" s="11" t="n">
         <f aca="false">B30+G30</f>
         <v>72</v>
       </c>
-      <c r="I30" s="10" t="n">
+      <c r="I30" s="11" t="n">
         <f aca="false">E26</f>
         <v>72</v>
       </c>
-      <c r="J30" s="10" t="n">
+      <c r="J30" s="11" t="n">
         <f aca="false">I30-B30</f>
         <v>54</v>
       </c>
-      <c r="K30" s="10" t="n">
+      <c r="K30" s="11" t="n">
         <f aca="false">I30-G30-B30</f>
         <v>0</v>
       </c>
-      <c r="L30" s="10" t="n">
+      <c r="L30" s="11" t="n">
         <f aca="false">D26-E25-B30</f>
         <v>0</v>
       </c>
-      <c r="M30" s="10" t="n">
+      <c r="M30" s="11" t="n">
         <f aca="false">E26-E25-B30</f>
         <v>0</v>
       </c>
-      <c r="N30" s="10" t="n">
+      <c r="N30" s="11" t="n">
         <f aca="false">J30-G30</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13" t="s">
+      <c r="D32" s="14"/>
+      <c r="E32" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13" t="s">
+      <c r="F32" s="14"/>
+      <c r="G32" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13" t="s">
+      <c r="H32" s="14"/>
+      <c r="I32" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13" t="s">
+      <c r="J32" s="14"/>
+      <c r="K32" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13" t="s">
+      <c r="L32" s="14"/>
+      <c r="M32" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13" t="s">
+      <c r="N32" s="14"/>
+      <c r="O32" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13" t="s">
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13" t="s">
+      <c r="R32" s="14"/>
+      <c r="S32" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13" t="s">
+      <c r="T32" s="14"/>
+      <c r="U32" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13" t="s">
+      <c r="V32" s="14"/>
+      <c r="W32" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13" t="s">
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="13" t="s">
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="AB32" s="13"/>
+      <c r="AB32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="15" t="n">
+      <c r="B33" s="16" t="n">
         <f aca="false">B21</f>
         <v>19</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="15" t="n">
+      <c r="D33" s="16" t="n">
         <f aca="false">B22</f>
         <v>10</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="15" t="n">
+      <c r="F33" s="16" t="n">
         <f aca="false">B23</f>
         <v>35</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H33" s="15" t="n">
+      <c r="H33" s="16" t="n">
         <f aca="false">B21+B25</f>
         <v>39</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="I33" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J33" s="15" t="n">
+      <c r="J33" s="16" t="n">
         <f aca="false">B22+B27</f>
         <v>32</v>
       </c>
-      <c r="K33" s="15" t="s">
+      <c r="K33" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="L33" s="15" t="n">
+      <c r="L33" s="16" t="n">
         <f aca="false">B24</f>
         <v>18</v>
       </c>
-      <c r="M33" s="15" t="s">
+      <c r="M33" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="N33" s="15" t="n">
+      <c r="N33" s="16" t="n">
         <f aca="false">B25</f>
         <v>20</v>
       </c>
-      <c r="O33" s="15" t="s">
+      <c r="O33" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="P33" s="15" t="n">
+      <c r="P33" s="16" t="n">
         <f aca="false">B24+B29</f>
         <v>38</v>
       </c>
-      <c r="Q33" s="15" t="s">
+      <c r="Q33" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="R33" s="15" t="n">
+      <c r="R33" s="16" t="n">
         <f aca="false">B26</f>
         <v>9</v>
       </c>
-      <c r="S33" s="15" t="s">
+      <c r="S33" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="T33" s="15" t="n">
+      <c r="T33" s="16" t="n">
         <f aca="false">B26+B28</f>
         <v>26</v>
       </c>
-      <c r="U33" s="15" t="s">
+      <c r="U33" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="V33" s="15" t="n">
+      <c r="V33" s="16" t="n">
         <f aca="false">B27</f>
         <v>22</v>
       </c>
-      <c r="W33" s="15" t="s">
+      <c r="W33" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="X33" s="15" t="n">
+      <c r="X33" s="16" t="n">
         <f aca="false">B28</f>
         <v>17</v>
       </c>
-      <c r="Y33" s="15" t="s">
+      <c r="Y33" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Z33" s="15" t="n">
+      <c r="Z33" s="16" t="n">
         <f aca="false">B29</f>
         <v>20</v>
       </c>
-      <c r="AA33" s="15" t="s">
+      <c r="AA33" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AB33" s="15" t="n">
+      <c r="AB33" s="16" t="n">
         <f aca="false">B30</f>
         <v>18</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="15" t="n">
+      <c r="F34" s="16" t="n">
         <f aca="false">B21+B24</f>
         <v>37</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="H34" s="15" t="n">
+      <c r="H34" s="16" t="n">
         <f aca="false">B23+B28</f>
         <v>52</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="I34" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J34" s="15" t="n">
+      <c r="J34" s="16" t="n">
         <f aca="false">B23+B29</f>
         <v>55</v>
       </c>
-      <c r="M34" s="16" t="s">
+      <c r="M34" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="N34" s="15" t="n">
+      <c r="N34" s="16" t="n">
         <f aca="false">B24+B28</f>
         <v>35</v>
       </c>
-      <c r="O34" s="15" t="s">
+      <c r="O34" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="P34" s="15" t="n">
+      <c r="P34" s="16" t="n">
         <f aca="false">B25+B30</f>
         <v>38</v>
       </c>
-      <c r="U34" s="15" t="s">
+      <c r="U34" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="V34" s="15" t="n">
+      <c r="V34" s="16" t="n">
         <f aca="false">B26+B29</f>
         <v>29</v>
       </c>
-      <c r="Y34" s="15" t="s">
+      <c r="Y34" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="Z34" s="15" t="n">
+      <c r="Z34" s="16" t="n">
         <f aca="false">B28+B30</f>
         <v>35</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="15" t="n">
+      <c r="F35" s="16" t="n">
         <f aca="false">B22+B26</f>
         <v>19</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H35" s="15" t="n">
+      <c r="H35" s="16" t="n">
         <f aca="false">B21+B24+B28</f>
         <v>54</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="I35" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J35" s="15" t="n">
+      <c r="J35" s="16" t="n">
         <f aca="false">B21+B24+B29</f>
         <v>57</v>
       </c>
-      <c r="O35" s="15" t="s">
+      <c r="O35" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="P35" s="15" t="n">
+      <c r="P35" s="16" t="n">
         <f aca="false">B24+B28+B30</f>
         <v>53</v>
       </c>
-      <c r="U35" s="15" t="s">
+      <c r="U35" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="V35" s="15" t="n">
+      <c r="V35" s="16" t="n">
         <f aca="false">B26+B28+B30</f>
         <v>44</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="H36" s="15" t="n">
+      <c r="H36" s="16" t="n">
         <f aca="false">B22+B26+B28</f>
         <v>36</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I36" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J36" s="15" t="n">
+      <c r="J36" s="16" t="n">
         <f aca="false">B22+B26+B29</f>
         <v>39</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I37" s="15" t="s">
+      <c r="I37" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="J37" s="15" t="n">
+      <c r="J37" s="16" t="n">
         <f aca="false">B21+B25+B30</f>
         <v>57</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I38" s="15" t="s">
+      <c r="I38" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="J38" s="15" t="n">
+      <c r="J38" s="16" t="n">
         <f aca="false">B23+B28+B30</f>
         <v>70</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I39" s="15" t="s">
+      <c r="I39" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="J39" s="15" t="n">
+      <c r="J39" s="16" t="n">
         <f aca="false">B21+B24+B28+B30</f>
         <v>72</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I40" s="15" t="s">
+      <c r="I40" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="J40" s="15" t="n">
+      <c r="J40" s="16" t="n">
         <f aca="false">B22+B26+B28+B30</f>
         <v>54</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="17" t="n">
+      <c r="B42" s="18" t="n">
         <f aca="false">MAX(B33)</f>
         <v>19</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="17" t="n">
+      <c r="C42" s="16"/>
+      <c r="D42" s="18" t="n">
         <f aca="false">MAX(D33)</f>
         <v>10</v>
       </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="17" t="n">
+      <c r="E42" s="16"/>
+      <c r="F42" s="18" t="n">
         <f aca="false">MAX(F33:F35)</f>
         <v>37</v>
       </c>
-      <c r="G42" s="15"/>
-      <c r="H42" s="17" t="n">
+      <c r="G42" s="16"/>
+      <c r="H42" s="18" t="n">
         <f aca="false">MAX(H33:H36)</f>
         <v>54</v>
       </c>
-      <c r="I42" s="15"/>
-      <c r="J42" s="17" t="n">
+      <c r="I42" s="16"/>
+      <c r="J42" s="18" t="n">
         <f aca="false">MAX(J33:J40)</f>
         <v>72</v>
       </c>
-      <c r="K42" s="15"/>
-      <c r="L42" s="17" t="n">
+      <c r="K42" s="16"/>
+      <c r="L42" s="18" t="n">
         <f aca="false">MAX(L33:L40)</f>
         <v>18</v>
       </c>
-      <c r="M42" s="15"/>
-      <c r="N42" s="17" t="n">
+      <c r="M42" s="16"/>
+      <c r="N42" s="18" t="n">
         <f aca="false">MAX(N33:N40)</f>
         <v>35</v>
       </c>
-      <c r="O42" s="15"/>
-      <c r="P42" s="17" t="n">
+      <c r="O42" s="16"/>
+      <c r="P42" s="18" t="n">
         <f aca="false">MAX(P33:P40)</f>
         <v>53</v>
       </c>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="17" t="n">
+      <c r="Q42" s="16"/>
+      <c r="R42" s="18" t="n">
         <f aca="false">MAX(R33:R40)</f>
         <v>9</v>
       </c>
-      <c r="S42" s="15"/>
-      <c r="T42" s="17" t="n">
+      <c r="S42" s="16"/>
+      <c r="T42" s="18" t="n">
         <f aca="false">MAX(T33:T40)</f>
         <v>26</v>
       </c>
-      <c r="U42" s="15"/>
-      <c r="V42" s="17" t="n">
+      <c r="U42" s="16"/>
+      <c r="V42" s="18" t="n">
         <f aca="false">MAX(V33:V40)</f>
         <v>44</v>
       </c>
-      <c r="W42" s="15"/>
-      <c r="X42" s="17" t="n">
+      <c r="W42" s="16"/>
+      <c r="X42" s="18" t="n">
         <f aca="false">MAX(X33:X40)</f>
         <v>17</v>
       </c>
-      <c r="Y42" s="15"/>
-      <c r="Z42" s="17" t="n">
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="18" t="n">
         <f aca="false">MAX(Z33:Z40)</f>
         <v>35</v>
       </c>
-      <c r="AA42" s="15"/>
-      <c r="AB42" s="17" t="n">
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="18" t="n">
         <f aca="false">MAX(AB33:AB40)</f>
         <v>18</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="18" t="n">
+      <c r="B43" s="19" t="n">
         <f aca="false">MAX(B42:AB42)</f>
         <v>72</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="B48" s="22" t="n">
+      <c r="A48" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="B48" s="23" t="n">
         <v>19</v>
       </c>
-      <c r="C48" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" s="23" t="s">
+      <c r="C48" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="23"/>
+      <c r="E48" s="24"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="B49" s="22" t="n">
+      <c r="A49" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="B49" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="C49" s="19" t="n">
+      <c r="C49" s="20" t="n">
         <v>18</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E49" s="23"/>
+      <c r="E49" s="24"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="B50" s="22" t="n">
+      <c r="A50" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" s="23" t="n">
         <v>35</v>
       </c>
-      <c r="C50" s="19" t="n">
+      <c r="C50" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E50" s="23"/>
+      <c r="E50" s="24"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="21" t="n">
+      <c r="A51" s="22" t="n">
         <v>19</v>
       </c>
-      <c r="B51" s="22" t="n">
+      <c r="B51" s="23" t="n">
         <v>18</v>
       </c>
-      <c r="C51" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="23" t="s">
+      <c r="C51" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E51" s="23"/>
-      <c r="O51" s="0" t="s">
+      <c r="E51" s="24"/>
+      <c r="O51" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="21" t="n">
+      <c r="A52" s="22" t="n">
         <v>19</v>
       </c>
-      <c r="B52" s="22" t="n">
+      <c r="B52" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="C52" s="19" t="n">
+      <c r="C52" s="20" t="n">
         <v>15</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E52" s="23"/>
-      <c r="O52" s="24" t="s">
+      <c r="E52" s="24"/>
+      <c r="O52" s="25" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="21" t="n">
+      <c r="A53" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="B53" s="22" t="n">
+      <c r="B53" s="23" t="n">
         <v>9</v>
       </c>
-      <c r="C53" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" s="23" t="s">
+      <c r="C53" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E53" s="23"/>
-      <c r="O53" s="24" t="s">
+      <c r="E53" s="24"/>
+      <c r="O53" s="25" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="21" t="n">
+      <c r="A54" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="B54" s="22" t="n">
+      <c r="B54" s="23" t="n">
         <v>22</v>
       </c>
-      <c r="C54" s="19" t="n">
+      <c r="C54" s="20" t="n">
         <v>22</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E54" s="23"/>
+      <c r="E54" s="24"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="21" t="n">
+      <c r="A55" s="22" t="n">
         <v>37</v>
       </c>
-      <c r="B55" s="22" t="n">
+      <c r="B55" s="23" t="n">
         <v>17</v>
       </c>
-      <c r="C55" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" s="23" t="s">
+      <c r="C55" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E55" s="23"/>
+      <c r="E55" s="24"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="21" t="n">
+      <c r="A56" s="22" t="n">
         <v>37</v>
       </c>
-      <c r="B56" s="22" t="n">
+      <c r="B56" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="C56" s="19" t="n">
+      <c r="C56" s="20" t="n">
         <v>15</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E56" s="23"/>
+      <c r="E56" s="24"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="21" t="n">
+      <c r="A57" s="22" t="n">
         <v>54</v>
       </c>
-      <c r="B57" s="22" t="n">
+      <c r="B57" s="23" t="n">
         <v>18</v>
       </c>
-      <c r="C57" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" s="23" t="s">
+      <c r="C57" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E57" s="23"/>
+      <c r="E57" s="24"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="26"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="25"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="26"/>
+      <c r="N63" s="26"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="25"/>
+      <c r="A64" s="26"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="26"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="25"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="26"/>
+      <c r="N65" s="26"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="25"/>
+      <c r="A66" s="26"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="26"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="25"/>
+      <c r="A67" s="26"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="26"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="25"/>
-      <c r="N68" s="25"/>
+      <c r="A68" s="26"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="25"/>
-      <c r="N69" s="25"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="26"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="25"/>
-      <c r="L70" s="25"/>
-      <c r="M70" s="25"/>
-      <c r="N70" s="25"/>
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="26"/>
+      <c r="N70" s="26"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="25"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="25"/>
-      <c r="M71" s="25"/>
-      <c r="N71" s="25"/>
+      <c r="A71" s="26"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="26"/>
+      <c r="N71" s="26"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="25"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="25"/>
-      <c r="M72" s="25"/>
-      <c r="N72" s="25"/>
+      <c r="A72" s="26"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="26"/>
+      <c r="N72" s="26"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="25"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="25"/>
-      <c r="M73" s="25"/>
-      <c r="N73" s="25"/>
+      <c r="A73" s="26"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="25"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="25"/>
-      <c r="M74" s="25"/>
-      <c r="N74" s="25"/>
+      <c r="A74" s="26"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="26"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="25"/>
-      <c r="N75" s="25"/>
+      <c r="A75" s="26"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="26"/>
+      <c r="N75" s="26"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="25"/>
-      <c r="M76" s="25"/>
-      <c r="N76" s="25"/>
+      <c r="A76" s="26"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="26"/>
+      <c r="N76" s="26"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="25"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
-      <c r="L77" s="25"/>
-      <c r="M77" s="25"/>
-      <c r="N77" s="25"/>
+      <c r="A77" s="26"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="25"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="25"/>
-      <c r="L78" s="25"/>
-      <c r="M78" s="25"/>
-      <c r="N78" s="25"/>
+      <c r="A78" s="26"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="26"/>
+      <c r="N78" s="26"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="25"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="25"/>
-      <c r="K79" s="25"/>
-      <c r="L79" s="25"/>
-      <c r="M79" s="25"/>
-      <c r="N79" s="25"/>
+      <c r="A79" s="26"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="26"/>
+      <c r="N79" s="26"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="25"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="25"/>
-      <c r="L80" s="25"/>
-      <c r="M80" s="25"/>
-      <c r="N80" s="25"/>
+      <c r="A80" s="26"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="26"/>
+      <c r="M80" s="26"/>
+      <c r="N80" s="26"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="25"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="25"/>
-      <c r="K81" s="25"/>
-      <c r="L81" s="25"/>
-      <c r="M81" s="25"/>
-      <c r="N81" s="25"/>
+      <c r="A81" s="26"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="26"/>
+      <c r="N81" s="26"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="25"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="25"/>
-      <c r="L82" s="25"/>
-      <c r="M82" s="25"/>
-      <c r="N82" s="25"/>
+      <c r="A82" s="26"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="26"/>
+      <c r="N82" s="26"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="26"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="28"/>
+      <c r="A83" s="27"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="29"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="29" t="n">
+      <c r="B85" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="C85" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="C85" s="29" t="n">
+      <c r="D85" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="E85" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="F85" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="G85" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="H85" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="I85" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="J85" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="K85" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="L85" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="M85" s="31"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="30" t="n">
+        <v>5</v>
+      </c>
+      <c r="C86" s="30" t="n">
+        <v>9</v>
+      </c>
+      <c r="D86" s="30" t="n">
+        <v>11</v>
+      </c>
+      <c r="E86" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="F86" s="30" t="n">
+        <v>9</v>
+      </c>
+      <c r="G86" s="30" t="n">
+        <v>12</v>
+      </c>
+      <c r="H86" s="30" t="n">
+        <v>7</v>
+      </c>
+      <c r="I86" s="30" t="n">
         <v>13</v>
       </c>
-      <c r="D85" s="29" t="n">
+      <c r="J86" s="30" t="n">
+        <v>13</v>
+      </c>
+      <c r="K86" s="30" t="n">
+        <v>15</v>
+      </c>
+      <c r="L86" s="31"/>
+      <c r="M86" s="31"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="30" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C87" s="30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D87" s="30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E87" s="30" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F87" s="30" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G87" s="30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H87" s="30" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I87" s="30" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J87" s="30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K87" s="30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L87" s="32" t="n">
+        <v>60</v>
+      </c>
+      <c r="M87" s="32"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="30" t="n">
+        <v>16</v>
+      </c>
+      <c r="C88" s="30" t="n">
+        <v>9</v>
+      </c>
+      <c r="D88" s="30" t="n">
         <v>24</v>
       </c>
-      <c r="E85" s="29" t="n">
+      <c r="E88" s="30" t="n">
+        <v>24</v>
+      </c>
+      <c r="F88" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="G88" s="30" t="n">
+        <v>24</v>
+      </c>
+      <c r="H88" s="30" t="n">
+        <v>19</v>
+      </c>
+      <c r="I88" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="J88" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="K88" s="30" t="n">
+        <v>56</v>
+      </c>
+      <c r="L88" s="32"/>
+      <c r="M88" s="32"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" s="30" t="n">
+        <v>15</v>
+      </c>
+      <c r="F89" s="30" t="n">
+        <v>28</v>
+      </c>
+      <c r="G89" s="30" t="n">
         <v>9</v>
       </c>
-      <c r="F85" s="29" t="n">
-        <v>11</v>
-      </c>
-      <c r="G85" s="29" t="n">
-        <v>17</v>
-      </c>
-      <c r="H85" s="29" t="n">
-        <v>10</v>
-      </c>
-      <c r="I85" s="29" t="n">
-        <v>15</v>
-      </c>
-      <c r="J85" s="29" t="n">
-        <v>15</v>
-      </c>
-      <c r="K85" s="29" t="n">
-        <v>20</v>
-      </c>
-      <c r="L85" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="M85" s="30"/>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B86" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="C86" s="29" t="n">
+      <c r="H89" s="30" t="n">
         <v>9</v>
       </c>
-      <c r="D86" s="29" t="n">
-        <v>11</v>
-      </c>
-      <c r="E86" s="29" t="n">
-        <v>6</v>
-      </c>
-      <c r="F86" s="29" t="n">
-        <v>9</v>
-      </c>
-      <c r="G86" s="29" t="n">
-        <v>12</v>
-      </c>
-      <c r="H86" s="29" t="n">
-        <v>7</v>
-      </c>
-      <c r="I86" s="29" t="n">
-        <v>13</v>
-      </c>
-      <c r="J86" s="29" t="n">
-        <v>13</v>
-      </c>
-      <c r="K86" s="29" t="n">
-        <v>15</v>
-      </c>
-      <c r="L86" s="30"/>
-      <c r="M86" s="30"/>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" s="29" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="C87" s="29" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D87" s="29" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E87" s="29" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F87" s="29" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G87" s="29" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H87" s="29" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I87" s="29" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J87" s="29" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K87" s="29" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L87" s="31" t="n">
-        <v>60</v>
-      </c>
-      <c r="M87" s="31"/>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" s="29" t="n">
-        <v>16</v>
-      </c>
-      <c r="C88" s="29" t="n">
-        <v>9</v>
-      </c>
-      <c r="D88" s="29" t="n">
+      <c r="I89" s="30" t="n">
         <v>24</v>
       </c>
-      <c r="E88" s="29" t="n">
+      <c r="J89" s="30" t="n">
         <v>24</v>
       </c>
-      <c r="F88" s="29" t="n">
+      <c r="K89" s="30" t="n">
         <v>39</v>
       </c>
-      <c r="G88" s="29" t="n">
-        <v>24</v>
-      </c>
-      <c r="H88" s="29" t="n">
-        <v>19</v>
-      </c>
-      <c r="I88" s="29" t="n">
-        <v>39</v>
-      </c>
-      <c r="J88" s="29" t="n">
-        <v>39</v>
-      </c>
-      <c r="K88" s="29" t="n">
-        <v>56</v>
-      </c>
-      <c r="L88" s="31"/>
-      <c r="M88" s="31"/>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C89" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" s="29" t="n">
-        <v>15</v>
-      </c>
-      <c r="F89" s="29" t="n">
-        <v>28</v>
-      </c>
-      <c r="G89" s="29" t="n">
-        <v>9</v>
-      </c>
-      <c r="H89" s="29" t="n">
-        <v>9</v>
-      </c>
-      <c r="I89" s="29" t="n">
-        <v>24</v>
-      </c>
-      <c r="J89" s="29" t="n">
-        <v>24</v>
-      </c>
-      <c r="K89" s="29" t="n">
-        <v>39</v>
-      </c>
-      <c r="L89" s="31"/>
-      <c r="M89" s="31"/>
+      <c r="L89" s="32"/>
+      <c r="M89" s="32"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="29" t="s">
+      <c r="A90" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B90" s="29" t="n">
+      <c r="B90" s="30" t="n">
         <f aca="false">B88-B89</f>
         <v>16</v>
       </c>
-      <c r="C90" s="29" t="n">
+      <c r="C90" s="30" t="n">
         <f aca="false">C88-C89</f>
         <v>9</v>
       </c>
-      <c r="D90" s="29" t="n">
+      <c r="D90" s="30" t="n">
         <f aca="false">D88-D89</f>
         <v>24</v>
       </c>
-      <c r="E90" s="29" t="n">
+      <c r="E90" s="30" t="n">
         <f aca="false">E88-E89</f>
         <v>9</v>
       </c>
-      <c r="F90" s="29" t="n">
+      <c r="F90" s="30" t="n">
         <f aca="false">F88-F89</f>
         <v>11</v>
       </c>
-      <c r="G90" s="29" t="n">
+      <c r="G90" s="30" t="n">
         <f aca="false">G88-G89</f>
         <v>15</v>
       </c>
-      <c r="H90" s="29" t="n">
+      <c r="H90" s="30" t="n">
         <f aca="false">H88-H89</f>
         <v>10</v>
       </c>
-      <c r="I90" s="29" t="n">
+      <c r="I90" s="30" t="n">
         <f aca="false">I88-I89</f>
         <v>15</v>
       </c>
-      <c r="J90" s="29" t="n">
+      <c r="J90" s="30" t="n">
         <f aca="false">J88-J89</f>
         <v>15</v>
       </c>
-      <c r="K90" s="29" t="n">
+      <c r="K90" s="30" t="n">
         <f aca="false">K88-K89</f>
         <v>17</v>
       </c>
-      <c r="L90" s="31"/>
-      <c r="M90" s="31"/>
+      <c r="L90" s="32"/>
+      <c r="M90" s="32"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="29" t="s">
+      <c r="A91" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="B91" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C91" s="29" t="n">
+      <c r="B91" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" s="30" t="n">
         <v>16</v>
       </c>
-      <c r="D91" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" s="29" t="n">
+      <c r="D91" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" s="30" t="n">
         <v>10</v>
       </c>
-      <c r="H91" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" s="29" t="n">
+      <c r="H91" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" s="30" t="n">
         <v>29.9999999999996</v>
       </c>
-      <c r="L91" s="31"/>
-      <c r="M91" s="31"/>
+      <c r="L91" s="32"/>
+      <c r="M91" s="32"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="29" t="s">
+      <c r="A92" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B92" s="29" t="n">
+      <c r="B92" s="30" t="n">
         <f aca="false">10-0.08*B91</f>
         <v>10</v>
       </c>
-      <c r="C92" s="29" t="n">
+      <c r="C92" s="30" t="n">
         <f aca="false">13-0.25*C91</f>
         <v>9</v>
       </c>
-      <c r="D92" s="29" t="n">
+      <c r="D92" s="30" t="n">
         <f aca="false">24-0.1*D91</f>
         <v>24</v>
       </c>
-      <c r="E92" s="29" t="n">
+      <c r="E92" s="30" t="n">
         <f aca="false">9-0.15*E91</f>
         <v>9</v>
       </c>
-      <c r="F92" s="29" t="n">
+      <c r="F92" s="30" t="n">
         <f aca="false">11-0.3*F91</f>
         <v>11</v>
       </c>
-      <c r="G92" s="29" t="n">
+      <c r="G92" s="30" t="n">
         <f aca="false">17-0.2*G91</f>
         <v>15</v>
       </c>
-      <c r="H92" s="29" t="n">
+      <c r="H92" s="30" t="n">
         <f aca="false">10-0.08*H91</f>
         <v>10</v>
       </c>
-      <c r="I92" s="29" t="n">
+      <c r="I92" s="30" t="n">
         <f aca="false">15-0.04*I91</f>
         <v>15</v>
       </c>
-      <c r="J92" s="29" t="n">
+      <c r="J92" s="30" t="n">
         <f aca="false">15-0.2*J91</f>
         <v>15</v>
       </c>
-      <c r="K92" s="29" t="n">
+      <c r="K92" s="30" t="n">
         <f aca="false">20-0.1*K91</f>
         <v>17</v>
       </c>
-      <c r="L92" s="31"/>
-      <c r="M92" s="31"/>
+      <c r="L92" s="32"/>
+      <c r="M92" s="32"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="29" t="s">
+      <c r="A93" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B93" s="29" t="n">
+      <c r="B93" s="30" t="n">
         <f aca="false">B90</f>
         <v>16</v>
       </c>
-      <c r="C93" s="29" t="n">
+      <c r="C93" s="30" t="n">
         <f aca="false">C90</f>
         <v>9</v>
       </c>
-      <c r="D93" s="29" t="n">
+      <c r="D93" s="30" t="n">
         <f aca="false">D90</f>
         <v>24</v>
       </c>
-      <c r="E93" s="29" t="n">
+      <c r="E93" s="30" t="n">
         <f aca="false">E90</f>
         <v>9</v>
       </c>
-      <c r="F93" s="29" t="n">
+      <c r="F93" s="30" t="n">
         <f aca="false">F90</f>
         <v>11</v>
       </c>
-      <c r="G93" s="29" t="n">
+      <c r="G93" s="30" t="n">
         <f aca="false">G90</f>
         <v>15</v>
       </c>
-      <c r="H93" s="29" t="n">
+      <c r="H93" s="30" t="n">
         <f aca="false">H90</f>
         <v>10</v>
       </c>
-      <c r="I93" s="29" t="n">
+      <c r="I93" s="30" t="n">
         <f aca="false">I90</f>
         <v>15</v>
       </c>
-      <c r="J93" s="29" t="n">
+      <c r="J93" s="30" t="n">
         <f aca="false">J90</f>
         <v>15</v>
       </c>
-      <c r="K93" s="29" t="n">
+      <c r="K93" s="30" t="n">
         <f aca="false">K90</f>
         <v>17</v>
       </c>
-      <c r="L93" s="31"/>
-      <c r="M93" s="31"/>
+      <c r="L93" s="32"/>
+      <c r="M93" s="32"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="32" t="s">
+      <c r="A94" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B94" s="32" t="n">
+      <c r="B94" s="33" t="n">
         <f aca="false">SUM(B91:K91)</f>
         <v>55.9999999999996</v>
       </c>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="33"/>
-      <c r="I94" s="33"/>
-      <c r="J94" s="33"/>
-      <c r="K94" s="33"/>
-      <c r="L94" s="31"/>
-      <c r="M94" s="31"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="34"/>
+      <c r="K94" s="34"/>
+      <c r="L94" s="32"/>
+      <c r="M94" s="32"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K100" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B101" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C101" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" s="10" t="n">
+        <f aca="false">E101-D101</f>
+        <v>0</v>
+      </c>
+      <c r="G101" s="11" t="n">
+        <f aca="false">D101</f>
+        <v>0</v>
+      </c>
+      <c r="H101" s="11" t="n">
+        <f aca="false">B101+G101</f>
+        <v>10</v>
+      </c>
+      <c r="I101" s="11" t="n">
+        <f aca="false">E102</f>
+        <v>28</v>
+      </c>
+      <c r="J101" s="11" t="n">
+        <f aca="false">I101-B101</f>
+        <v>18</v>
+      </c>
+      <c r="K101" s="11" t="n">
+        <f aca="false">I101-G101-B101</f>
+        <v>18</v>
+      </c>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11" t="n">
+        <f aca="false">J101-G101</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C102" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D102" s="10" t="n">
+        <f aca="false">B101</f>
+        <v>10</v>
+      </c>
+      <c r="E102" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="F102" s="10" t="n">
+        <f aca="false">E102-D102</f>
+        <v>18</v>
+      </c>
+      <c r="G102" s="11" t="n">
+        <f aca="false">D101</f>
+        <v>0</v>
+      </c>
+      <c r="H102" s="11" t="n">
+        <f aca="false">B102+G102</f>
+        <v>9</v>
+      </c>
+      <c r="I102" s="11" t="n">
+        <f aca="false">E103</f>
+        <v>37</v>
+      </c>
+      <c r="J102" s="11" t="n">
+        <f aca="false">I102-B102</f>
+        <v>28</v>
+      </c>
+      <c r="K102" s="11" t="n">
+        <f aca="false">I102-G102-B102</f>
+        <v>28</v>
+      </c>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11" t="n">
+        <f aca="false">J102-G102</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B103" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="C103" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D103" s="10" t="n">
+        <f aca="false">B102</f>
+        <v>9</v>
+      </c>
+      <c r="E103" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="F103" s="10" t="n">
+        <f aca="false">E103-D103</f>
+        <v>28</v>
+      </c>
+      <c r="G103" s="11" t="n">
+        <f aca="false">D101</f>
+        <v>0</v>
+      </c>
+      <c r="H103" s="11" t="n">
+        <f aca="false">B103+G103</f>
+        <v>24</v>
+      </c>
+      <c r="I103" s="11" t="n">
+        <f aca="false">E104</f>
+        <v>24</v>
+      </c>
+      <c r="J103" s="11" t="n">
+        <f aca="false">I103-B103</f>
+        <v>0</v>
+      </c>
+      <c r="K103" s="11" t="n">
+        <f aca="false">I103-G103-B103</f>
+        <v>0</v>
+      </c>
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
+      <c r="N103" s="11" t="n">
+        <f aca="false">J103-G103</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C104" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D104" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="E104" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="F104" s="10" t="n">
+        <f aca="false">E104-D104</f>
+        <v>0</v>
+      </c>
+      <c r="G104" s="11" t="n">
+        <f aca="false">D102</f>
+        <v>10</v>
+      </c>
+      <c r="H104" s="11" t="n">
+        <f aca="false">B104+G104</f>
+        <v>19</v>
+      </c>
+      <c r="I104" s="11" t="n">
+        <f aca="false">E104</f>
+        <v>24</v>
+      </c>
+      <c r="J104" s="11" t="n">
+        <f aca="false">I104-B104</f>
+        <v>15</v>
+      </c>
+      <c r="K104" s="11" t="n">
+        <f aca="false">I104-G104-B104</f>
+        <v>5</v>
+      </c>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11" t="n">
+        <f aca="false">J104-G104</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B105" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C105" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D105" s="10" t="n">
+        <v>39</v>
+      </c>
+      <c r="E105" s="10" t="n">
+        <v>39</v>
+      </c>
+      <c r="F105" s="10" t="n">
+        <f aca="false">E105-D105</f>
+        <v>0</v>
+      </c>
+      <c r="G105" s="11" t="n">
+        <f aca="false">D102</f>
+        <v>10</v>
+      </c>
+      <c r="H105" s="11" t="n">
+        <f aca="false">B105+G105</f>
+        <v>21</v>
+      </c>
+      <c r="I105" s="11" t="n">
+        <f aca="false">E105</f>
+        <v>39</v>
+      </c>
+      <c r="J105" s="11" t="n">
+        <f aca="false">I105-B105</f>
+        <v>28</v>
+      </c>
+      <c r="K105" s="11" t="n">
+        <f aca="false">I105-G105-B105</f>
+        <v>18</v>
+      </c>
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="11" t="n">
+        <f aca="false">J105-G105</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B106" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C106" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D106" s="10" t="n">
+        <v>56</v>
+      </c>
+      <c r="E106" s="10" t="n">
+        <v>56</v>
+      </c>
+      <c r="F106" s="10" t="n">
+        <f aca="false">E106-D106</f>
+        <v>0</v>
+      </c>
+      <c r="G106" s="11" t="n">
+        <f aca="false">D103</f>
+        <v>9</v>
+      </c>
+      <c r="H106" s="11" t="n">
+        <f aca="false">B106+G106</f>
+        <v>24</v>
+      </c>
+      <c r="I106" s="11" t="n">
+        <f aca="false">E104</f>
+        <v>24</v>
+      </c>
+      <c r="J106" s="11" t="n">
+        <f aca="false">I106-B106</f>
+        <v>9</v>
+      </c>
+      <c r="K106" s="11" t="n">
+        <f aca="false">I106-G106-B106</f>
+        <v>0</v>
+      </c>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="11" t="n">
+        <f aca="false">J106-G106</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B107" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="11" t="n">
+        <f aca="false">D103</f>
+        <v>9</v>
+      </c>
+      <c r="H107" s="11" t="n">
+        <f aca="false">B107+G107</f>
+        <v>19</v>
+      </c>
+      <c r="I107" s="11" t="n">
+        <f aca="false">E106</f>
+        <v>56</v>
+      </c>
+      <c r="J107" s="11" t="n">
+        <f aca="false">I107-B107</f>
+        <v>46</v>
+      </c>
+      <c r="K107" s="11" t="n">
+        <f aca="false">I107-G107-B107</f>
+        <v>37</v>
+      </c>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11" t="n">
+        <f aca="false">J107-G107</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B108" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="11" t="n">
+        <f aca="false">D104</f>
+        <v>24</v>
+      </c>
+      <c r="H108" s="11" t="n">
+        <f aca="false">B108+G108</f>
+        <v>39</v>
+      </c>
+      <c r="I108" s="11" t="n">
+        <f aca="false">E105</f>
+        <v>39</v>
+      </c>
+      <c r="J108" s="11" t="n">
+        <f aca="false">I108-B108</f>
+        <v>24</v>
+      </c>
+      <c r="K108" s="11" t="n">
+        <f aca="false">I108-G108-B108</f>
+        <v>0</v>
+      </c>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11" t="n">
+        <f aca="false">J108-G108</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B109" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="11" t="n">
+        <f aca="false">D104</f>
+        <v>24</v>
+      </c>
+      <c r="H109" s="11" t="n">
+        <f aca="false">B109+G109</f>
+        <v>39</v>
+      </c>
+      <c r="I109" s="11" t="n">
+        <f aca="false">E106</f>
+        <v>56</v>
+      </c>
+      <c r="J109" s="11" t="n">
+        <f aca="false">I109-B109</f>
+        <v>41</v>
+      </c>
+      <c r="K109" s="11" t="n">
+        <f aca="false">I109-G109-B109</f>
+        <v>17</v>
+      </c>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
+      <c r="N109" s="11" t="n">
+        <f aca="false">J109-G109</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="11" t="n">
+        <f aca="false">D105</f>
+        <v>39</v>
+      </c>
+      <c r="H110" s="11" t="n">
+        <f aca="false">B110+G110</f>
+        <v>56</v>
+      </c>
+      <c r="I110" s="11" t="n">
+        <f aca="false">E106</f>
+        <v>56</v>
+      </c>
+      <c r="J110" s="11" t="n">
+        <f aca="false">I110-B110</f>
+        <v>39</v>
+      </c>
+      <c r="K110" s="11" t="n">
+        <f aca="false">I110-G110-B110</f>
+        <v>0</v>
+      </c>
+      <c r="L110" s="11"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11" t="n">
+        <f aca="false">J110-G110</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G124" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H124" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I124" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="J124" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="K124" s="0" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G125" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H125" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="I125" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="J125" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="K125" s="0" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="I126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="K126" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -4709,1635 +5422,1635 @@
   </sheetPr>
   <dimension ref="A5:AB94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S86" activeCellId="0" sqref="S86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L95" activeCellId="0" sqref="L95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="1" style="34" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="1" style="1" width="8.68"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="3" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5" t="n">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6" t="n">
         <v>1.2</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="6" t="n">
         <v>1.3</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="6" t="n">
         <v>1.4</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="E14" s="6" t="n">
         <v>2.4</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="6" t="n">
         <v>2.5</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="6" t="n">
         <v>3.4</v>
       </c>
-      <c r="H14" s="5" t="n">
+      <c r="H14" s="6" t="n">
         <v>3.6</v>
       </c>
-      <c r="I14" s="5" t="n">
+      <c r="I14" s="6" t="n">
         <v>4.5</v>
       </c>
-      <c r="J14" s="5" t="n">
+      <c r="J14" s="6" t="n">
         <v>4.6</v>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="K14" s="6" t="n">
         <v>5.6</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="6" t="n">
+      <c r="B15" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="G15" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="H15" s="6" t="n">
+      <c r="H15" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="I15" s="6" t="n">
+      <c r="I15" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="J15" s="6" t="n">
+      <c r="J15" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="K15" s="6" t="n">
+      <c r="K15" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="L15" s="7" t="n">
+      <c r="L15" s="8" t="n">
         <v>56</v>
       </c>
-      <c r="M15" s="7"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="6" t="n">
+      <c r="B16" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C16" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="F16" s="6" t="n">
+      <c r="F16" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="6" t="n">
+      <c r="G16" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="H16" s="6" t="n">
+      <c r="H16" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="I16" s="6" t="n">
+      <c r="I16" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="J16" s="6" t="n">
+      <c r="J16" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="K16" s="6" t="n">
+      <c r="K16" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="6" t="n">
+      <c r="B17" s="7" t="n">
         <v>0.25</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="C17" s="7" t="n">
         <v>0.07</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="7" t="n">
         <v>0.1</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="7" t="n">
         <v>0.2</v>
       </c>
-      <c r="F17" s="6" t="n">
+      <c r="F17" s="7" t="n">
         <v>0.13</v>
       </c>
-      <c r="G17" s="6" t="n">
+      <c r="G17" s="7" t="n">
         <v>0.15</v>
       </c>
-      <c r="H17" s="6" t="n">
+      <c r="H17" s="7" t="n">
         <v>0.06</v>
       </c>
-      <c r="I17" s="6" t="n">
+      <c r="I17" s="7" t="n">
         <v>0.4</v>
       </c>
-      <c r="J17" s="6" t="n">
+      <c r="J17" s="7" t="n">
         <v>0.2</v>
       </c>
-      <c r="K17" s="6" t="n">
+      <c r="K17" s="7" t="n">
         <v>0.1</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="L20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N20" s="10" t="s">
+      <c r="N20" s="11" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="8" t="n">
+      <c r="B21" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9" t="n">
+      <c r="D21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10" t="n">
         <f aca="false">$B$43-J42</f>
         <v>0</v>
       </c>
-      <c r="F21" s="9" t="n">
+      <c r="F21" s="10" t="n">
         <f aca="false">E21-D21</f>
         <v>0</v>
       </c>
-      <c r="G21" s="10" t="n">
+      <c r="G21" s="11" t="n">
         <f aca="false">D21</f>
         <v>0</v>
       </c>
-      <c r="H21" s="10" t="n">
+      <c r="H21" s="11" t="n">
         <f aca="false">B21+G21</f>
         <v>19</v>
       </c>
-      <c r="I21" s="10" t="n">
+      <c r="I21" s="11" t="n">
         <f aca="false">E22</f>
         <v>19</v>
       </c>
-      <c r="J21" s="10" t="n">
+      <c r="J21" s="11" t="n">
         <f aca="false">I21-B21</f>
         <v>0</v>
       </c>
-      <c r="K21" s="10" t="n">
+      <c r="K21" s="11" t="n">
         <f aca="false">I21-G21-B21</f>
         <v>0</v>
       </c>
-      <c r="L21" s="10" t="n">
+      <c r="L21" s="11" t="n">
         <f aca="false">D22-E21-B21</f>
         <v>0</v>
       </c>
-      <c r="M21" s="10" t="n">
+      <c r="M21" s="11" t="n">
         <f aca="false">E22-E21-B21</f>
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n">
+      <c r="N21" s="11" t="n">
         <f aca="false">D22-D21-B21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="8" t="n">
+      <c r="B22" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="10" t="n">
         <f aca="false">B21</f>
         <v>19</v>
       </c>
-      <c r="E22" s="9" t="n">
+      <c r="E22" s="10" t="n">
         <f aca="false">$B$43-MAX(L42:P42)</f>
         <v>19</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F22" s="10" t="n">
         <f aca="false">E22-D22</f>
         <v>0</v>
       </c>
-      <c r="G22" s="10" t="n">
+      <c r="G22" s="11" t="n">
         <f aca="false">D21</f>
         <v>0</v>
       </c>
-      <c r="H22" s="10" t="n">
+      <c r="H22" s="11" t="n">
         <f aca="false">B22+G22</f>
         <v>10</v>
       </c>
-      <c r="I22" s="10" t="n">
+      <c r="I22" s="11" t="n">
         <f aca="false">E23</f>
         <v>28</v>
       </c>
-      <c r="J22" s="10" t="n">
+      <c r="J22" s="11" t="n">
         <f aca="false">I22-B22</f>
         <v>18</v>
       </c>
-      <c r="K22" s="10" t="n">
+      <c r="K22" s="11" t="n">
         <f aca="false">I22-G22-B22</f>
         <v>18</v>
       </c>
-      <c r="L22" s="10" t="n">
+      <c r="L22" s="11" t="n">
         <f aca="false">D23-E21-B22</f>
         <v>0</v>
       </c>
-      <c r="M22" s="10" t="n">
+      <c r="M22" s="11" t="n">
         <f aca="false">E23-E21-B22</f>
         <v>18</v>
       </c>
-      <c r="N22" s="10" t="n">
+      <c r="N22" s="11" t="n">
         <f aca="false">D23-D21-B22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="8" t="n">
+      <c r="B23" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="C23" s="9" t="n">
+      <c r="C23" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="D23" s="9" t="n">
+      <c r="D23" s="10" t="n">
         <f aca="false">B22</f>
         <v>10</v>
       </c>
-      <c r="E23" s="9" t="n">
+      <c r="E23" s="10" t="n">
         <f aca="false">$B$43-MAX(R42:V42)</f>
         <v>28</v>
       </c>
-      <c r="F23" s="9" t="n">
+      <c r="F23" s="10" t="n">
         <f aca="false">E23-D23</f>
         <v>18</v>
       </c>
-      <c r="G23" s="10" t="n">
+      <c r="G23" s="11" t="n">
         <f aca="false">D21</f>
         <v>0</v>
       </c>
-      <c r="H23" s="10" t="n">
+      <c r="H23" s="11" t="n">
         <f aca="false">B23+G23</f>
         <v>35</v>
       </c>
-      <c r="I23" s="10" t="n">
+      <c r="I23" s="11" t="n">
         <f aca="false">E24</f>
         <v>37</v>
       </c>
-      <c r="J23" s="10" t="n">
+      <c r="J23" s="11" t="n">
         <f aca="false">I23-B23</f>
         <v>2</v>
       </c>
-      <c r="K23" s="10" t="n">
+      <c r="K23" s="11" t="n">
         <f aca="false">I23-G23-B23</f>
         <v>2</v>
       </c>
-      <c r="L23" s="10" t="n">
+      <c r="L23" s="11" t="n">
         <f aca="false">D24-E21-B23</f>
         <v>2</v>
       </c>
-      <c r="M23" s="10" t="n">
+      <c r="M23" s="11" t="n">
         <f aca="false">E24-E21-B23</f>
         <v>2</v>
       </c>
-      <c r="N23" s="10" t="n">
+      <c r="N23" s="11" t="n">
         <f aca="false">D24-D21-B23</f>
         <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="8" t="n">
+      <c r="B24" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="C24" s="9" t="n">
+      <c r="C24" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="D24" s="9" t="n">
+      <c r="D24" s="10" t="n">
         <v>37</v>
       </c>
-      <c r="E24" s="9" t="n">
+      <c r="E24" s="10" t="n">
         <f aca="false">$B$43-MAX(X42:Z42)</f>
         <v>37</v>
       </c>
-      <c r="F24" s="9" t="n">
+      <c r="F24" s="10" t="n">
         <f aca="false">E24-D24</f>
         <v>0</v>
       </c>
-      <c r="G24" s="10" t="n">
+      <c r="G24" s="11" t="n">
         <f aca="false">D22</f>
         <v>19</v>
       </c>
-      <c r="H24" s="10" t="n">
+      <c r="H24" s="11" t="n">
         <f aca="false">B24+G24</f>
         <v>37</v>
       </c>
-      <c r="I24" s="10" t="n">
+      <c r="I24" s="11" t="n">
         <f aca="false">E24</f>
         <v>37</v>
       </c>
-      <c r="J24" s="10" t="n">
+      <c r="J24" s="11" t="n">
         <f aca="false">I24-B24</f>
         <v>19</v>
       </c>
-      <c r="K24" s="10" t="n">
+      <c r="K24" s="11" t="n">
         <f aca="false">I24-G24-B24</f>
         <v>0</v>
       </c>
-      <c r="L24" s="10" t="n">
+      <c r="L24" s="11" t="n">
         <f aca="false">D24-E22-B24</f>
         <v>0</v>
       </c>
-      <c r="M24" s="10" t="n">
+      <c r="M24" s="11" t="n">
         <f aca="false">E24-E22-B24</f>
         <v>0</v>
       </c>
-      <c r="N24" s="10" t="n">
+      <c r="N24" s="11" t="n">
         <f aca="false">D24-D22-B24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="8" t="n">
+      <c r="B25" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="C25" s="9" t="n">
+      <c r="C25" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="D25" s="9" t="n">
+      <c r="D25" s="10" t="n">
         <v>54</v>
       </c>
-      <c r="E25" s="9" t="n">
+      <c r="E25" s="10" t="n">
         <f aca="false">$B$43-AB42</f>
         <v>54</v>
       </c>
-      <c r="F25" s="9" t="n">
+      <c r="F25" s="10" t="n">
         <f aca="false">E25-D25</f>
         <v>0</v>
       </c>
-      <c r="G25" s="10" t="n">
+      <c r="G25" s="11" t="n">
         <f aca="false">D22</f>
         <v>19</v>
       </c>
-      <c r="H25" s="10" t="n">
+      <c r="H25" s="11" t="n">
         <f aca="false">B25+G25</f>
         <v>39</v>
       </c>
-      <c r="I25" s="10" t="n">
+      <c r="I25" s="11" t="n">
         <f aca="false">E25</f>
         <v>54</v>
       </c>
-      <c r="J25" s="10" t="n">
+      <c r="J25" s="11" t="n">
         <f aca="false">I25-B25</f>
         <v>34</v>
       </c>
-      <c r="K25" s="10" t="n">
+      <c r="K25" s="11" t="n">
         <f aca="false">I25-G25-B25</f>
         <v>15</v>
       </c>
-      <c r="L25" s="10" t="n">
+      <c r="L25" s="11" t="n">
         <f aca="false">D25-E22-B25</f>
         <v>15</v>
       </c>
-      <c r="M25" s="10" t="n">
+      <c r="M25" s="11" t="n">
         <f aca="false">E25-E22-B25</f>
         <v>15</v>
       </c>
-      <c r="N25" s="10" t="n">
+      <c r="N25" s="11" t="n">
         <f aca="false">D25-D22-B25</f>
         <v>15</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="8" t="n">
+      <c r="B26" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="C26" s="9" t="n">
+      <c r="C26" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="D26" s="9" t="n">
+      <c r="D26" s="10" t="n">
         <v>72</v>
       </c>
-      <c r="E26" s="9" t="n">
+      <c r="E26" s="10" t="n">
         <f aca="false">$B$43</f>
         <v>72</v>
       </c>
-      <c r="F26" s="9" t="n">
+      <c r="F26" s="10" t="n">
         <f aca="false">E26-D26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="10" t="n">
+      <c r="G26" s="11" t="n">
         <f aca="false">D23</f>
         <v>10</v>
       </c>
-      <c r="H26" s="10" t="n">
+      <c r="H26" s="11" t="n">
         <f aca="false">B26+G26</f>
         <v>19</v>
       </c>
-      <c r="I26" s="10" t="n">
+      <c r="I26" s="11" t="n">
         <f aca="false">E24</f>
         <v>37</v>
       </c>
-      <c r="J26" s="10" t="n">
+      <c r="J26" s="11" t="n">
         <f aca="false">I26-B26</f>
         <v>28</v>
       </c>
-      <c r="K26" s="10" t="n">
+      <c r="K26" s="11" t="n">
         <f aca="false">I26-G26-B26</f>
         <v>18</v>
       </c>
-      <c r="L26" s="10" t="n">
+      <c r="L26" s="11" t="n">
         <f aca="false">D24-E23-B26</f>
         <v>0</v>
       </c>
-      <c r="M26" s="10" t="n">
+      <c r="M26" s="11" t="n">
         <f aca="false">E24-E23-B26</f>
         <v>0</v>
       </c>
-      <c r="N26" s="10" t="n">
+      <c r="N26" s="11" t="n">
         <f aca="false">D24-D23-B26</f>
         <v>18</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="8" t="n">
+      <c r="B27" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="10" t="n">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="11" t="n">
         <f aca="false">D23</f>
         <v>10</v>
       </c>
-      <c r="H27" s="10" t="n">
+      <c r="H27" s="11" t="n">
         <f aca="false">B27+G27</f>
         <v>32</v>
       </c>
-      <c r="I27" s="10" t="n">
+      <c r="I27" s="11" t="n">
         <f aca="false">E26</f>
         <v>72</v>
       </c>
-      <c r="J27" s="10" t="n">
+      <c r="J27" s="11" t="n">
         <f aca="false">I27-B27</f>
         <v>50</v>
       </c>
-      <c r="K27" s="10" t="n">
+      <c r="K27" s="11" t="n">
         <f aca="false">I27-G27-B27</f>
         <v>40</v>
       </c>
-      <c r="L27" s="10" t="n">
+      <c r="L27" s="11" t="n">
         <f aca="false">D26-E23-B27</f>
         <v>22</v>
       </c>
-      <c r="M27" s="10" t="n">
+      <c r="M27" s="11" t="n">
         <f aca="false">E26-E23-B27</f>
         <v>22</v>
       </c>
-      <c r="N27" s="10" t="n">
+      <c r="N27" s="11" t="n">
         <f aca="false">D26-D23-B27</f>
         <v>40</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="8" t="n">
+      <c r="B28" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="10" t="n">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="11" t="n">
         <f aca="false">D24</f>
         <v>37</v>
       </c>
-      <c r="H28" s="10" t="n">
+      <c r="H28" s="11" t="n">
         <f aca="false">B28+G28</f>
         <v>54</v>
       </c>
-      <c r="I28" s="10" t="n">
+      <c r="I28" s="11" t="n">
         <f aca="false">E25</f>
         <v>54</v>
       </c>
-      <c r="J28" s="10" t="n">
+      <c r="J28" s="11" t="n">
         <f aca="false">I28-B28</f>
         <v>37</v>
       </c>
-      <c r="K28" s="10" t="n">
+      <c r="K28" s="11" t="n">
         <f aca="false">I28-G28-B28</f>
         <v>0</v>
       </c>
-      <c r="L28" s="10" t="n">
+      <c r="L28" s="11" t="n">
         <f aca="false">D25-E24-B28</f>
         <v>0</v>
       </c>
-      <c r="M28" s="10" t="n">
+      <c r="M28" s="11" t="n">
         <f aca="false">E25-E24-B28</f>
         <v>0</v>
       </c>
-      <c r="N28" s="10" t="n">
+      <c r="N28" s="11" t="n">
         <f aca="false">D25-D24-B28</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="8" t="n">
+      <c r="B29" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="10" t="n">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="11" t="n">
         <f aca="false">D24</f>
         <v>37</v>
       </c>
-      <c r="H29" s="10" t="n">
+      <c r="H29" s="11" t="n">
         <f aca="false">B29+G29</f>
         <v>57</v>
       </c>
-      <c r="I29" s="10" t="n">
+      <c r="I29" s="11" t="n">
         <f aca="false">E26</f>
         <v>72</v>
       </c>
-      <c r="J29" s="10" t="n">
+      <c r="J29" s="11" t="n">
         <f aca="false">I29-B29</f>
         <v>52</v>
       </c>
-      <c r="K29" s="10" t="n">
+      <c r="K29" s="11" t="n">
         <f aca="false">I29-G29-B29</f>
         <v>15</v>
       </c>
-      <c r="L29" s="10" t="n">
+      <c r="L29" s="11" t="n">
         <f aca="false">D26-E24-B29</f>
         <v>15</v>
       </c>
-      <c r="M29" s="10" t="n">
+      <c r="M29" s="11" t="n">
         <f aca="false">E26-E24-B29</f>
         <v>15</v>
       </c>
-      <c r="N29" s="10" t="n">
+      <c r="N29" s="11" t="n">
         <f aca="false">D26-D24-B29</f>
         <v>15</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="8" t="n">
+      <c r="B30" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="10" t="n">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="11" t="n">
         <f aca="false">D25</f>
         <v>54</v>
       </c>
-      <c r="H30" s="10" t="n">
+      <c r="H30" s="11" t="n">
         <f aca="false">B30+G30</f>
         <v>72</v>
       </c>
-      <c r="I30" s="10" t="n">
+      <c r="I30" s="11" t="n">
         <f aca="false">E26</f>
         <v>72</v>
       </c>
-      <c r="J30" s="10" t="n">
+      <c r="J30" s="11" t="n">
         <f aca="false">I30-B30</f>
         <v>54</v>
       </c>
-      <c r="K30" s="10" t="n">
+      <c r="K30" s="11" t="n">
         <f aca="false">I30-G30-B30</f>
         <v>0</v>
       </c>
-      <c r="L30" s="10" t="n">
+      <c r="L30" s="11" t="n">
         <f aca="false">D26-E25-B30</f>
         <v>0</v>
       </c>
-      <c r="M30" s="10" t="n">
+      <c r="M30" s="11" t="n">
         <f aca="false">E26-E25-B30</f>
         <v>0</v>
       </c>
-      <c r="N30" s="10" t="n">
+      <c r="N30" s="11" t="n">
         <f aca="false">D26-D25-B30</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13" t="s">
+      <c r="D32" s="14"/>
+      <c r="E32" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13" t="s">
+      <c r="F32" s="14"/>
+      <c r="G32" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13" t="s">
+      <c r="H32" s="14"/>
+      <c r="I32" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13" t="s">
+      <c r="J32" s="14"/>
+      <c r="K32" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13" t="s">
+      <c r="L32" s="14"/>
+      <c r="M32" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13" t="s">
+      <c r="N32" s="14"/>
+      <c r="O32" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13" t="s">
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13" t="s">
+      <c r="R32" s="14"/>
+      <c r="S32" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13" t="s">
+      <c r="T32" s="14"/>
+      <c r="U32" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13" t="s">
+      <c r="V32" s="14"/>
+      <c r="W32" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13" t="s">
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="13" t="s">
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="AB32" s="13"/>
+      <c r="AB32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="15" t="n">
+      <c r="B33" s="16" t="n">
         <f aca="false">B21</f>
         <v>19</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="15" t="n">
+      <c r="D33" s="16" t="n">
         <f aca="false">B22</f>
         <v>10</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="15" t="n">
+      <c r="F33" s="16" t="n">
         <f aca="false">B23</f>
         <v>35</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H33" s="15" t="n">
+      <c r="H33" s="16" t="n">
         <f aca="false">B21+B25</f>
         <v>39</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="I33" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J33" s="15" t="n">
+      <c r="J33" s="16" t="n">
         <f aca="false">B22+B27</f>
         <v>32</v>
       </c>
-      <c r="K33" s="15" t="s">
+      <c r="K33" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="L33" s="15" t="n">
+      <c r="L33" s="16" t="n">
         <f aca="false">B24</f>
         <v>18</v>
       </c>
-      <c r="M33" s="15" t="s">
+      <c r="M33" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="N33" s="15" t="n">
+      <c r="N33" s="16" t="n">
         <f aca="false">B25</f>
         <v>20</v>
       </c>
-      <c r="O33" s="15" t="s">
+      <c r="O33" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="P33" s="15" t="n">
+      <c r="P33" s="16" t="n">
         <f aca="false">B24+B29</f>
         <v>38</v>
       </c>
-      <c r="Q33" s="15" t="s">
+      <c r="Q33" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="R33" s="15" t="n">
+      <c r="R33" s="16" t="n">
         <f aca="false">B26</f>
         <v>9</v>
       </c>
-      <c r="S33" s="15" t="s">
+      <c r="S33" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="T33" s="15" t="n">
+      <c r="T33" s="16" t="n">
         <f aca="false">B26+B28</f>
         <v>26</v>
       </c>
-      <c r="U33" s="15" t="s">
+      <c r="U33" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="V33" s="15" t="n">
+      <c r="V33" s="16" t="n">
         <f aca="false">B27</f>
         <v>22</v>
       </c>
-      <c r="W33" s="15" t="s">
+      <c r="W33" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="X33" s="15" t="n">
+      <c r="X33" s="16" t="n">
         <f aca="false">B28</f>
         <v>17</v>
       </c>
-      <c r="Y33" s="15" t="s">
+      <c r="Y33" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Z33" s="15" t="n">
+      <c r="Z33" s="16" t="n">
         <f aca="false">B29</f>
         <v>20</v>
       </c>
-      <c r="AA33" s="15" t="s">
+      <c r="AA33" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AB33" s="15" t="n">
+      <c r="AB33" s="16" t="n">
         <f aca="false">B30</f>
         <v>18</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="15" t="n">
+      <c r="F34" s="16" t="n">
         <f aca="false">B21+B24</f>
         <v>37</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="H34" s="15" t="n">
+      <c r="H34" s="16" t="n">
         <f aca="false">B23+B28</f>
         <v>52</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="I34" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J34" s="15" t="n">
+      <c r="J34" s="16" t="n">
         <f aca="false">B23+B29</f>
         <v>55</v>
       </c>
-      <c r="M34" s="16" t="s">
+      <c r="M34" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="N34" s="15" t="n">
+      <c r="N34" s="16" t="n">
         <f aca="false">B24+B28</f>
         <v>35</v>
       </c>
-      <c r="O34" s="15" t="s">
+      <c r="O34" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="P34" s="15" t="n">
+      <c r="P34" s="16" t="n">
         <f aca="false">B25+B30</f>
         <v>38</v>
       </c>
-      <c r="U34" s="15" t="s">
+      <c r="U34" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="V34" s="15" t="n">
+      <c r="V34" s="16" t="n">
         <f aca="false">B26+B29</f>
         <v>29</v>
       </c>
-      <c r="Y34" s="15" t="s">
+      <c r="Y34" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="Z34" s="15" t="n">
+      <c r="Z34" s="16" t="n">
         <f aca="false">B28+B30</f>
         <v>35</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="15" t="n">
+      <c r="F35" s="16" t="n">
         <f aca="false">B22+B26</f>
         <v>19</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H35" s="15" t="n">
+      <c r="H35" s="16" t="n">
         <f aca="false">B21+B24+B28</f>
         <v>54</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="I35" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J35" s="15" t="n">
+      <c r="J35" s="16" t="n">
         <f aca="false">B21+B24+B29</f>
         <v>57</v>
       </c>
-      <c r="O35" s="15" t="s">
+      <c r="O35" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="P35" s="15" t="n">
+      <c r="P35" s="16" t="n">
         <f aca="false">B24+B28+B30</f>
         <v>53</v>
       </c>
-      <c r="U35" s="15" t="s">
+      <c r="U35" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="V35" s="15" t="n">
+      <c r="V35" s="16" t="n">
         <f aca="false">B26+B28+B30</f>
         <v>44</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="H36" s="15" t="n">
+      <c r="H36" s="16" t="n">
         <f aca="false">B22+B26+B28</f>
         <v>36</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I36" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J36" s="15" t="n">
+      <c r="J36" s="16" t="n">
         <f aca="false">B22+B26+B29</f>
         <v>39</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I37" s="15" t="s">
+      <c r="I37" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="J37" s="15" t="n">
+      <c r="J37" s="16" t="n">
         <f aca="false">B21+B25+B30</f>
         <v>57</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I38" s="15" t="s">
+      <c r="I38" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="J38" s="15" t="n">
+      <c r="J38" s="16" t="n">
         <f aca="false">B23+B28+B30</f>
         <v>70</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I39" s="15" t="s">
+      <c r="I39" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="J39" s="15" t="n">
+      <c r="J39" s="16" t="n">
         <f aca="false">B21+B24+B28+B30</f>
         <v>72</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I40" s="15" t="s">
+      <c r="I40" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="J40" s="15" t="n">
+      <c r="J40" s="16" t="n">
         <f aca="false">B22+B26+B28+B30</f>
         <v>54</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="17" t="n">
+      <c r="B42" s="18" t="n">
         <f aca="false">MAX(B33)</f>
         <v>19</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="17" t="n">
+      <c r="C42" s="16"/>
+      <c r="D42" s="18" t="n">
         <f aca="false">MAX(D33)</f>
         <v>10</v>
       </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="17" t="n">
+      <c r="E42" s="16"/>
+      <c r="F42" s="18" t="n">
         <f aca="false">MAX(F33:F35)</f>
         <v>37</v>
       </c>
-      <c r="G42" s="15"/>
-      <c r="H42" s="17" t="n">
+      <c r="G42" s="16"/>
+      <c r="H42" s="18" t="n">
         <f aca="false">MAX(H33:H36)</f>
         <v>54</v>
       </c>
-      <c r="I42" s="15"/>
-      <c r="J42" s="17" t="n">
+      <c r="I42" s="16"/>
+      <c r="J42" s="18" t="n">
         <f aca="false">MAX(J33:J40)</f>
         <v>72</v>
       </c>
-      <c r="K42" s="15"/>
-      <c r="L42" s="17" t="n">
+      <c r="K42" s="16"/>
+      <c r="L42" s="18" t="n">
         <f aca="false">MAX(L33:L40)</f>
         <v>18</v>
       </c>
-      <c r="M42" s="15"/>
-      <c r="N42" s="17" t="n">
+      <c r="M42" s="16"/>
+      <c r="N42" s="18" t="n">
         <f aca="false">MAX(N33:N40)</f>
         <v>35</v>
       </c>
-      <c r="O42" s="15"/>
-      <c r="P42" s="17" t="n">
+      <c r="O42" s="16"/>
+      <c r="P42" s="18" t="n">
         <f aca="false">MAX(P33:P40)</f>
         <v>53</v>
       </c>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="17" t="n">
+      <c r="Q42" s="16"/>
+      <c r="R42" s="18" t="n">
         <f aca="false">MAX(R33:R40)</f>
         <v>9</v>
       </c>
-      <c r="S42" s="15"/>
-      <c r="T42" s="17" t="n">
+      <c r="S42" s="16"/>
+      <c r="T42" s="18" t="n">
         <f aca="false">MAX(T33:T40)</f>
         <v>26</v>
       </c>
-      <c r="U42" s="15"/>
-      <c r="V42" s="17" t="n">
+      <c r="U42" s="16"/>
+      <c r="V42" s="18" t="n">
         <f aca="false">MAX(V33:V40)</f>
         <v>44</v>
       </c>
-      <c r="W42" s="15"/>
-      <c r="X42" s="17" t="n">
+      <c r="W42" s="16"/>
+      <c r="X42" s="18" t="n">
         <f aca="false">MAX(X33:X40)</f>
         <v>17</v>
       </c>
-      <c r="Y42" s="15"/>
-      <c r="Z42" s="17" t="n">
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="18" t="n">
         <f aca="false">MAX(Z33:Z40)</f>
         <v>35</v>
       </c>
-      <c r="AA42" s="15"/>
-      <c r="AB42" s="17" t="n">
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="18" t="n">
         <f aca="false">MAX(AB33:AB40)</f>
         <v>18</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="18" t="n">
+      <c r="B43" s="19" t="n">
         <f aca="false">MAX(B42:AB42)</f>
         <v>72</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="B48" s="22" t="n">
+      <c r="A48" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="B48" s="23" t="n">
         <v>19</v>
       </c>
-      <c r="C48" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" s="23" t="s">
+      <c r="C48" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="23"/>
+      <c r="E48" s="24"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="B49" s="22" t="n">
+      <c r="A49" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="B49" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="C49" s="19" t="n">
+      <c r="C49" s="20" t="n">
         <v>18</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E49" s="23"/>
+      <c r="E49" s="24"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="B50" s="22" t="n">
+      <c r="A50" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" s="23" t="n">
         <v>35</v>
       </c>
-      <c r="C50" s="19" t="n">
+      <c r="C50" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E50" s="23"/>
+      <c r="E50" s="24"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="21" t="n">
+      <c r="A51" s="22" t="n">
         <v>19</v>
       </c>
-      <c r="B51" s="22" t="n">
+      <c r="B51" s="23" t="n">
         <v>18</v>
       </c>
-      <c r="C51" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="23" t="s">
+      <c r="C51" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E51" s="23"/>
+      <c r="E51" s="24"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="21" t="n">
+      <c r="A52" s="22" t="n">
         <v>19</v>
       </c>
-      <c r="B52" s="22" t="n">
+      <c r="B52" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="C52" s="19" t="n">
+      <c r="C52" s="20" t="n">
         <v>15</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E52" s="23"/>
+      <c r="E52" s="24"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="21" t="n">
+      <c r="A53" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="B53" s="22" t="n">
+      <c r="B53" s="23" t="n">
         <v>9</v>
       </c>
-      <c r="C53" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" s="23" t="s">
+      <c r="C53" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E53" s="23"/>
+      <c r="E53" s="24"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="21" t="n">
+      <c r="A54" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="B54" s="22" t="n">
+      <c r="B54" s="23" t="n">
         <v>22</v>
       </c>
-      <c r="C54" s="19" t="n">
+      <c r="C54" s="20" t="n">
         <v>22</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E54" s="23"/>
+      <c r="E54" s="24"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="21" t="n">
+      <c r="A55" s="22" t="n">
         <v>37</v>
       </c>
-      <c r="B55" s="22" t="n">
+      <c r="B55" s="23" t="n">
         <v>17</v>
       </c>
-      <c r="C55" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" s="23" t="s">
+      <c r="C55" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E55" s="23"/>
+      <c r="E55" s="24"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="21" t="n">
+      <c r="A56" s="22" t="n">
         <v>37</v>
       </c>
-      <c r="B56" s="22" t="n">
+      <c r="B56" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="C56" s="19" t="n">
+      <c r="C56" s="20" t="n">
         <v>15</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E56" s="23"/>
+      <c r="E56" s="24"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="21" t="n">
+      <c r="A57" s="22" t="n">
         <v>54</v>
       </c>
-      <c r="B57" s="22" t="n">
+      <c r="B57" s="23" t="n">
         <v>18</v>
       </c>
-      <c r="C57" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" s="23" t="s">
+      <c r="C57" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E57" s="23"/>
+      <c r="E57" s="24"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="26"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="25"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="26"/>
+      <c r="N63" s="26"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="25"/>
+      <c r="A64" s="26"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="26"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="25"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="26"/>
+      <c r="N65" s="26"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="25"/>
+      <c r="A66" s="26"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="26"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="25"/>
+      <c r="A67" s="26"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="26"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="25"/>
-      <c r="N68" s="25"/>
+      <c r="A68" s="26"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="25"/>
-      <c r="N69" s="25"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="26"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="25"/>
-      <c r="L70" s="25"/>
-      <c r="M70" s="25"/>
-      <c r="N70" s="25"/>
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="26"/>
+      <c r="N70" s="26"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="25"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="25"/>
-      <c r="M71" s="25"/>
-      <c r="N71" s="25"/>
+      <c r="A71" s="26"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="26"/>
+      <c r="N71" s="26"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="25"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="25"/>
-      <c r="M72" s="25"/>
-      <c r="N72" s="25"/>
+      <c r="A72" s="26"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="26"/>
+      <c r="N72" s="26"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="25"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="25"/>
-      <c r="M73" s="25"/>
-      <c r="N73" s="25"/>
+      <c r="A73" s="26"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="25"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="25"/>
-      <c r="M74" s="25"/>
-      <c r="N74" s="25"/>
+      <c r="A74" s="26"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="26"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="25"/>
-      <c r="N75" s="25"/>
+      <c r="A75" s="26"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="26"/>
+      <c r="N75" s="26"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="25"/>
-      <c r="M76" s="25"/>
-      <c r="N76" s="25"/>
+      <c r="A76" s="26"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="26"/>
+      <c r="N76" s="26"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="25"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
-      <c r="L77" s="25"/>
-      <c r="M77" s="25"/>
-      <c r="N77" s="25"/>
+      <c r="A77" s="26"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="25"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="25"/>
-      <c r="L78" s="25"/>
-      <c r="M78" s="25"/>
-      <c r="N78" s="25"/>
+      <c r="A78" s="26"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="26"/>
+      <c r="N78" s="26"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="25"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="25"/>
-      <c r="K79" s="25"/>
-      <c r="L79" s="25"/>
-      <c r="M79" s="25"/>
-      <c r="N79" s="25"/>
+      <c r="A79" s="26"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="26"/>
+      <c r="N79" s="26"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="25"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="25"/>
-      <c r="L80" s="25"/>
-      <c r="M80" s="25"/>
-      <c r="N80" s="25"/>
+      <c r="A80" s="26"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="26"/>
+      <c r="M80" s="26"/>
+      <c r="N80" s="26"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="25"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="25"/>
-      <c r="K81" s="25"/>
-      <c r="L81" s="25"/>
-      <c r="M81" s="25"/>
-      <c r="N81" s="25"/>
+      <c r="A81" s="26"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="26"/>
+      <c r="N81" s="26"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="25"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="25"/>
-      <c r="L82" s="25"/>
-      <c r="M82" s="25"/>
-      <c r="N82" s="25"/>
+      <c r="A82" s="26"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="26"/>
+      <c r="N82" s="26"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="35"/>
-      <c r="B83" s="18"/>
+      <c r="B83" s="19"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="36" t="s">
@@ -6452,7 +7165,7 @@
         <v>0.1</v>
       </c>
       <c r="L87" s="39" t="n">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="M87" s="39"/>
       <c r="N87" s="38"/>
@@ -6701,7 +7414,8 @@
         <v>96</v>
       </c>
       <c r="B94" s="40" t="n">
-        <v>147</v>
+        <f aca="false">SUM(B91:K91)</f>
+        <v>55.9999999999996</v>
       </c>
       <c r="C94" s="41"/>
       <c r="D94" s="41"/>

--- a/MOptim/lab3/МОл3.xlsx
+++ b/MOptim/lab3/МОл3.xlsx
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="49">
   <si>
     <t xml:space="preserve">Коефициенты</t>
   </si>
@@ -732,7 +732,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -777,10 +777,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="5" borderId="3" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -821,7 +817,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -924,7 +920,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1361,11 +1357,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="13776592"/>
-        <c:axId val="78106121"/>
+        <c:axId val="61015622"/>
+        <c:axId val="94752686"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="13776592"/>
+        <c:axId val="61015622"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,7 +1427,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78106121"/>
+        <c:crossAx val="94752686"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1439,7 +1435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78106121"/>
+        <c:axId val="94752686"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1512,7 +1508,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13776592"/>
+        <c:crossAx val="61015622"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1575,9 +1571,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>2221200</xdr:colOff>
+      <xdr:colOff>2220840</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1586,7 +1582,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4095720" y="7686720"/>
-        <a:ext cx="6075000" cy="2809800"/>
+        <a:ext cx="6074640" cy="2809440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1605,9 +1601,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1186200</xdr:colOff>
+      <xdr:colOff>1185840</xdr:colOff>
       <xdr:row>128</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1621,7 +1617,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5048280" y="19660680"/>
-          <a:ext cx="4087440" cy="2802240"/>
+          <a:ext cx="4087080" cy="2801880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1806,10 +1802,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A5:O126"/>
+  <dimension ref="A5:O143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L95" activeCellId="0" sqref="L95"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D86" activeCellId="0" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2065,7 +2061,6 @@
         <v>0</v>
       </c>
       <c r="E21" s="10" t="n">
-        <f aca="false">$B$43-J42</f>
         <v>0</v>
       </c>
       <c r="F21" s="10" t="n">
@@ -2082,15 +2077,15 @@
       </c>
       <c r="I21" s="7" t="n">
         <f aca="false">E22</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J21" s="7" t="n">
         <f aca="false">I21-B21</f>
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="K21" s="7" t="n">
         <f aca="false">I21-G21-B21</f>
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="L21" s="7" t="n">
         <f aca="false">D22-E21-B21</f>
@@ -2098,11 +2093,11 @@
       </c>
       <c r="M21" s="7" t="n">
         <f aca="false">E22-E21-B21</f>
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="N21" s="7" t="n">
         <f aca="false">J21-G21</f>
-        <v>-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2120,12 +2115,11 @@
         <v>19</v>
       </c>
       <c r="E22" s="10" t="n">
-        <f aca="false">$B$43-MAX(L42:P42)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F22" s="10" t="n">
         <f aca="false">E22-D22</f>
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="G22" s="7" t="n">
         <f aca="false">D21</f>
@@ -2137,15 +2131,15 @@
       </c>
       <c r="I22" s="7" t="n">
         <f aca="false">E23</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J22" s="7" t="n">
         <f aca="false">I22-B22</f>
-        <v>-10</v>
+        <v>18</v>
       </c>
       <c r="K22" s="7" t="n">
         <f aca="false">I22-G22-B22</f>
-        <v>-10</v>
+        <v>18</v>
       </c>
       <c r="L22" s="7" t="n">
         <f aca="false">D23-E21-B22</f>
@@ -2153,11 +2147,11 @@
       </c>
       <c r="M22" s="7" t="n">
         <f aca="false">E23-E21-B22</f>
-        <v>-10</v>
+        <v>18</v>
       </c>
       <c r="N22" s="7" t="n">
         <f aca="false">J22-G22</f>
-        <v>-10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2175,12 +2169,11 @@
         <v>10</v>
       </c>
       <c r="E23" s="10" t="n">
-        <f aca="false">$B$43-MAX(R42:V42)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F23" s="10" t="n">
         <f aca="false">E23-D23</f>
-        <v>-10</v>
+        <v>18</v>
       </c>
       <c r="G23" s="7" t="n">
         <f aca="false">D21</f>
@@ -2192,15 +2185,15 @@
       </c>
       <c r="I23" s="7" t="n">
         <f aca="false">E24</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J23" s="7" t="n">
         <f aca="false">I23-B23</f>
-        <v>-35</v>
+        <v>2</v>
       </c>
       <c r="K23" s="7" t="n">
         <f aca="false">I23-G23-B23</f>
-        <v>-35</v>
+        <v>2</v>
       </c>
       <c r="L23" s="7" t="n">
         <f aca="false">D24-E21-B23</f>
@@ -2208,11 +2201,11 @@
       </c>
       <c r="M23" s="7" t="n">
         <f aca="false">E24-E21-B23</f>
-        <v>-35</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7" t="n">
         <f aca="false">J23-G23</f>
-        <v>-35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2229,12 +2222,11 @@
         <v>37</v>
       </c>
       <c r="E24" s="10" t="n">
-        <f aca="false">$B$43-MAX(X42:Z42)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F24" s="10" t="n">
         <f aca="false">E24-D24</f>
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="G24" s="7" t="n">
         <f aca="false">D22</f>
@@ -2246,27 +2238,27 @@
       </c>
       <c r="I24" s="7" t="n">
         <f aca="false">E24</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J24" s="7" t="n">
         <f aca="false">I24-B24</f>
-        <v>-18</v>
+        <v>19</v>
       </c>
       <c r="K24" s="7" t="n">
         <f aca="false">I24-G24-B24</f>
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="L24" s="7" t="n">
         <f aca="false">D24-E22-B24</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M24" s="7" t="n">
         <f aca="false">E24-E22-B24</f>
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7" t="n">
         <f aca="false">J24-G24</f>
-        <v>-37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2283,12 +2275,11 @@
         <v>54</v>
       </c>
       <c r="E25" s="10" t="n">
-        <f aca="false">$B$43-AB42</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F25" s="10" t="n">
         <f aca="false">E25-D25</f>
-        <v>-54</v>
+        <v>0</v>
       </c>
       <c r="G25" s="7" t="n">
         <f aca="false">D22</f>
@@ -2300,27 +2291,27 @@
       </c>
       <c r="I25" s="7" t="n">
         <f aca="false">E25</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="J25" s="7" t="n">
         <f aca="false">I25-B25</f>
-        <v>-20</v>
+        <v>34</v>
       </c>
       <c r="K25" s="7" t="n">
         <f aca="false">I25-G25-B25</f>
-        <v>-39</v>
+        <v>15</v>
       </c>
       <c r="L25" s="7" t="n">
         <f aca="false">D25-E22-B25</f>
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M25" s="7" t="n">
         <f aca="false">E25-E22-B25</f>
-        <v>-20</v>
+        <v>15</v>
       </c>
       <c r="N25" s="7" t="n">
         <f aca="false">J25-G25</f>
-        <v>-39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2337,12 +2328,11 @@
         <v>72</v>
       </c>
       <c r="E26" s="10" t="n">
-        <f aca="false">$B$43</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F26" s="10" t="n">
         <f aca="false">E26-D26</f>
-        <v>-72</v>
+        <v>0</v>
       </c>
       <c r="G26" s="7" t="n">
         <f aca="false">D23</f>
@@ -2354,27 +2344,27 @@
       </c>
       <c r="I26" s="7" t="n">
         <f aca="false">E24</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J26" s="7" t="n">
         <f aca="false">I26-B26</f>
-        <v>-9</v>
+        <v>28</v>
       </c>
       <c r="K26" s="7" t="n">
         <f aca="false">I26-G26-B26</f>
-        <v>-19</v>
+        <v>18</v>
       </c>
       <c r="L26" s="7" t="n">
         <f aca="false">D24-E23-B26</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="M26" s="7" t="n">
         <f aca="false">E24-E23-B26</f>
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7" t="n">
         <f aca="false">J26-G26</f>
-        <v>-19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2384,10 +2374,10 @@
       <c r="B27" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
       <c r="G27" s="7" t="n">
         <f aca="false">D23</f>
         <v>10</v>
@@ -2398,27 +2388,27 @@
       </c>
       <c r="I27" s="7" t="n">
         <f aca="false">E26</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J27" s="7" t="n">
         <f aca="false">I27-B27</f>
-        <v>-22</v>
+        <v>50</v>
       </c>
       <c r="K27" s="7" t="n">
         <f aca="false">I27-G27-B27</f>
-        <v>-32</v>
+        <v>40</v>
       </c>
       <c r="L27" s="7" t="n">
         <f aca="false">D26-E23-B27</f>
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="M27" s="7" t="n">
         <f aca="false">E26-E23-B27</f>
-        <v>-22</v>
+        <v>22</v>
       </c>
       <c r="N27" s="7" t="n">
         <f aca="false">J27-G27</f>
-        <v>-32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2428,10 +2418,10 @@
       <c r="B28" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
       <c r="G28" s="7" t="n">
         <f aca="false">D24</f>
         <v>37</v>
@@ -2442,27 +2432,27 @@
       </c>
       <c r="I28" s="7" t="n">
         <f aca="false">E25</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="J28" s="7" t="n">
         <f aca="false">I28-B28</f>
-        <v>-17</v>
+        <v>37</v>
       </c>
       <c r="K28" s="7" t="n">
         <f aca="false">I28-G28-B28</f>
-        <v>-54</v>
+        <v>0</v>
       </c>
       <c r="L28" s="7" t="n">
         <f aca="false">D25-E24-B28</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="M28" s="7" t="n">
         <f aca="false">E25-E24-B28</f>
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="N28" s="7" t="n">
         <f aca="false">J28-G28</f>
-        <v>-54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2472,10 +2462,10 @@
       <c r="B29" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="7" t="n">
         <f aca="false">D24</f>
         <v>37</v>
@@ -2486,27 +2476,27 @@
       </c>
       <c r="I29" s="7" t="n">
         <f aca="false">E26</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J29" s="7" t="n">
         <f aca="false">I29-B29</f>
-        <v>-20</v>
+        <v>52</v>
       </c>
       <c r="K29" s="7" t="n">
         <f aca="false">I29-G29-B29</f>
-        <v>-57</v>
+        <v>15</v>
       </c>
       <c r="L29" s="7" t="n">
         <f aca="false">D26-E24-B29</f>
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="M29" s="7" t="n">
         <f aca="false">E26-E24-B29</f>
-        <v>-20</v>
+        <v>15</v>
       </c>
       <c r="N29" s="7" t="n">
         <f aca="false">J29-G29</f>
-        <v>-57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2516,10 +2506,10 @@
       <c r="B30" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
       <c r="G30" s="7" t="n">
         <f aca="false">D25</f>
         <v>54</v>
@@ -2530,986 +2520,942 @@
       </c>
       <c r="I30" s="7" t="n">
         <f aca="false">E26</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J30" s="7" t="n">
         <f aca="false">I30-B30</f>
-        <v>-18</v>
+        <v>54</v>
       </c>
       <c r="K30" s="7" t="n">
         <f aca="false">I30-G30-B30</f>
-        <v>-72</v>
+        <v>0</v>
       </c>
       <c r="L30" s="7" t="n">
         <f aca="false">D26-E25-B30</f>
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="M30" s="7" t="n">
         <f aca="false">E26-E25-B30</f>
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="N30" s="7" t="n">
         <f aca="false">J30-G30</f>
-        <v>-72</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N32" s="0"/>
-      <c r="O32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N33" s="0"/>
-      <c r="O33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N34" s="0"/>
-      <c r="O34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N35" s="0"/>
-      <c r="O35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N36" s="0"/>
-      <c r="O36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N37" s="0"/>
-      <c r="O37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N38" s="0"/>
-      <c r="O38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N39" s="0"/>
-      <c r="O39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N40" s="0"/>
-      <c r="O40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N41" s="0"/>
-      <c r="O41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N42" s="0"/>
-      <c r="O42" s="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B48" s="15" t="n">
+      <c r="A48" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B48" s="14" t="n">
         <v>19</v>
       </c>
-      <c r="C48" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" s="16" t="s">
+      <c r="C48" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="16"/>
+      <c r="E48" s="15"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B49" s="15" t="n">
+      <c r="A49" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B49" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="C49" s="12" t="n">
+      <c r="C49" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="16"/>
+      <c r="E49" s="15"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B50" s="15" t="n">
+      <c r="A50" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" s="14" t="n">
         <v>35</v>
       </c>
-      <c r="C50" s="12" t="n">
+      <c r="C50" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="16"/>
+      <c r="E50" s="15"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14" t="n">
+      <c r="A51" s="13" t="n">
         <v>19</v>
       </c>
-      <c r="B51" s="15" t="n">
+      <c r="B51" s="14" t="n">
         <v>18</v>
       </c>
-      <c r="C51" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="16" t="s">
+      <c r="C51" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="16"/>
+      <c r="E51" s="15"/>
       <c r="O51" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14" t="n">
+      <c r="A52" s="13" t="n">
         <v>19</v>
       </c>
-      <c r="B52" s="15" t="n">
+      <c r="B52" s="14" t="n">
         <v>20</v>
       </c>
-      <c r="C52" s="12" t="n">
+      <c r="C52" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="16"/>
-      <c r="O52" s="17" t="s">
+      <c r="E52" s="15"/>
+      <c r="O52" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14" t="n">
+      <c r="A53" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="B53" s="15" t="n">
+      <c r="B53" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="C53" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" s="16" t="s">
+      <c r="C53" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E53" s="16"/>
-      <c r="O53" s="17" t="s">
+      <c r="E53" s="15"/>
+      <c r="O53" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14" t="n">
+      <c r="A54" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="B54" s="15" t="n">
+      <c r="B54" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="C54" s="12" t="n">
+      <c r="C54" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E54" s="16"/>
+      <c r="E54" s="15"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="14" t="n">
+      <c r="A55" s="13" t="n">
         <v>37</v>
       </c>
-      <c r="B55" s="15" t="n">
+      <c r="B55" s="14" t="n">
         <v>17</v>
       </c>
-      <c r="C55" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" s="16" t="s">
+      <c r="C55" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E55" s="16"/>
+      <c r="E55" s="15"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="14" t="n">
+      <c r="A56" s="13" t="n">
         <v>37</v>
       </c>
-      <c r="B56" s="15" t="n">
+      <c r="B56" s="14" t="n">
         <v>20</v>
       </c>
-      <c r="C56" s="12" t="n">
+      <c r="C56" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E56" s="16"/>
+      <c r="E56" s="15"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="14" t="n">
+      <c r="A57" s="13" t="n">
         <v>54</v>
       </c>
-      <c r="B57" s="15" t="n">
+      <c r="B57" s="14" t="n">
         <v>18</v>
       </c>
-      <c r="C57" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" s="16" t="s">
+      <c r="C57" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E57" s="16"/>
+      <c r="E57" s="15"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="18"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="18"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="18"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="18"/>
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="18"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="18"/>
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="18"/>
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="18"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="18"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="18"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="18"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="18"/>
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="18"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="18"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="18"/>
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="18"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="18"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="18"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="19"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="21"/>
+      <c r="A83" s="18"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="20"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="22"/>
-      <c r="K84" s="22"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="24" t="n">
+      <c r="B85" s="23" t="n">
         <v>19</v>
       </c>
-      <c r="C85" s="24" t="n">
+      <c r="C85" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="D85" s="24" t="n">
+      <c r="D85" s="23" t="n">
         <v>35</v>
       </c>
-      <c r="E85" s="24" t="n">
+      <c r="E85" s="23" t="n">
         <v>18</v>
       </c>
-      <c r="F85" s="24" t="n">
+      <c r="F85" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="G85" s="24" t="n">
+      <c r="G85" s="23" t="n">
         <v>9</v>
       </c>
-      <c r="H85" s="24" t="n">
+      <c r="H85" s="23" t="n">
         <v>22</v>
       </c>
-      <c r="I85" s="24" t="n">
+      <c r="I85" s="23" t="n">
         <v>17</v>
       </c>
-      <c r="J85" s="24" t="n">
+      <c r="J85" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="K85" s="24" t="n">
+      <c r="K85" s="23" t="n">
         <v>18</v>
       </c>
-      <c r="L85" s="25" t="s">
+      <c r="L85" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M85" s="25"/>
+      <c r="M85" s="24"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="23" t="s">
+      <c r="A86" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B86" s="23" t="n">
+      <c r="B86" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="C86" s="23" t="n">
+      <c r="C86" s="22" t="n">
         <v>9</v>
       </c>
-      <c r="D86" s="23" t="n">
+      <c r="D86" s="22" t="n">
         <v>11</v>
       </c>
-      <c r="E86" s="23" t="n">
+      <c r="E86" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="F86" s="23" t="n">
+      <c r="F86" s="22" t="n">
         <v>9</v>
       </c>
-      <c r="G86" s="23" t="n">
+      <c r="G86" s="22" t="n">
         <v>12</v>
       </c>
-      <c r="H86" s="23" t="n">
+      <c r="H86" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="I86" s="23" t="n">
+      <c r="I86" s="22" t="n">
         <v>13</v>
       </c>
-      <c r="J86" s="23" t="n">
+      <c r="J86" s="22" t="n">
         <v>13</v>
       </c>
-      <c r="K86" s="23" t="n">
+      <c r="K86" s="22" t="n">
         <v>15</v>
       </c>
-      <c r="L86" s="25"/>
-      <c r="M86" s="25"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B87" s="23" t="n">
+      <c r="B87" s="22" t="n">
         <v>0.08</v>
       </c>
-      <c r="C87" s="23" t="n">
+      <c r="C87" s="22" t="n">
         <v>0.25</v>
       </c>
-      <c r="D87" s="23" t="n">
+      <c r="D87" s="22" t="n">
         <v>0.1</v>
       </c>
-      <c r="E87" s="23" t="n">
+      <c r="E87" s="22" t="n">
         <v>0.15</v>
       </c>
-      <c r="F87" s="23" t="n">
+      <c r="F87" s="22" t="n">
         <v>0.3</v>
       </c>
-      <c r="G87" s="23" t="n">
+      <c r="G87" s="22" t="n">
         <v>0.2</v>
       </c>
-      <c r="H87" s="23" t="n">
+      <c r="H87" s="22" t="n">
         <v>0.08</v>
       </c>
-      <c r="I87" s="23" t="n">
+      <c r="I87" s="22" t="n">
         <v>0.4</v>
       </c>
-      <c r="J87" s="23" t="n">
+      <c r="J87" s="22" t="n">
         <v>0.2</v>
       </c>
-      <c r="K87" s="23" t="n">
+      <c r="K87" s="22" t="n">
         <v>0.1</v>
       </c>
-      <c r="L87" s="26" t="n">
+      <c r="L87" s="25" t="n">
         <v>56</v>
       </c>
-      <c r="M87" s="26"/>
+      <c r="M87" s="25"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B88" s="23" t="n">
+      <c r="B88" s="22" t="n">
         <v>16</v>
       </c>
-      <c r="C88" s="23" t="n">
+      <c r="C88" s="22" t="n">
         <v>9</v>
       </c>
-      <c r="D88" s="23" t="n">
+      <c r="D88" s="22" t="n">
         <v>24</v>
       </c>
-      <c r="E88" s="23" t="n">
+      <c r="E88" s="22" t="n">
         <v>24</v>
       </c>
-      <c r="F88" s="23" t="n">
+      <c r="F88" s="22" t="n">
         <v>39</v>
       </c>
-      <c r="G88" s="23" t="n">
+      <c r="G88" s="22" t="n">
         <v>24</v>
       </c>
-      <c r="H88" s="23" t="n">
+      <c r="H88" s="22" t="n">
         <v>19</v>
       </c>
-      <c r="I88" s="23" t="n">
+      <c r="I88" s="22" t="n">
         <v>39</v>
       </c>
-      <c r="J88" s="23" t="n">
+      <c r="J88" s="22" t="n">
         <v>39</v>
       </c>
-      <c r="K88" s="23" t="n">
+      <c r="K88" s="22" t="n">
         <v>56</v>
       </c>
-      <c r="L88" s="26"/>
-      <c r="M88" s="26"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="25"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B89" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C89" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" s="23" t="n">
+      <c r="B89" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" s="22" t="n">
         <v>15</v>
       </c>
-      <c r="F89" s="23" t="n">
+      <c r="F89" s="22" t="n">
         <v>28</v>
       </c>
-      <c r="G89" s="23" t="n">
+      <c r="G89" s="22" t="n">
         <v>9</v>
       </c>
-      <c r="H89" s="23" t="n">
+      <c r="H89" s="22" t="n">
         <v>9</v>
       </c>
-      <c r="I89" s="23" t="n">
+      <c r="I89" s="22" t="n">
         <v>24</v>
       </c>
-      <c r="J89" s="23" t="n">
+      <c r="J89" s="22" t="n">
         <v>24</v>
       </c>
-      <c r="K89" s="23" t="n">
+      <c r="K89" s="22" t="n">
         <v>39</v>
       </c>
-      <c r="L89" s="26"/>
-      <c r="M89" s="26"/>
+      <c r="L89" s="25"/>
+      <c r="M89" s="25"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="23" t="s">
+      <c r="A90" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B90" s="23" t="n">
+      <c r="B90" s="22" t="n">
         <f aca="false">B88-B89</f>
         <v>16</v>
       </c>
-      <c r="C90" s="23" t="n">
+      <c r="C90" s="22" t="n">
         <f aca="false">C88-C89</f>
         <v>9</v>
       </c>
-      <c r="D90" s="23" t="n">
+      <c r="D90" s="22" t="n">
         <f aca="false">D88-D89</f>
         <v>24</v>
       </c>
-      <c r="E90" s="23" t="n">
+      <c r="E90" s="22" t="n">
         <f aca="false">E88-E89</f>
         <v>9</v>
       </c>
-      <c r="F90" s="23" t="n">
+      <c r="F90" s="22" t="n">
         <f aca="false">F88-F89</f>
         <v>11</v>
       </c>
-      <c r="G90" s="23" t="n">
+      <c r="G90" s="22" t="n">
         <f aca="false">G88-G89</f>
         <v>15</v>
       </c>
-      <c r="H90" s="23" t="n">
+      <c r="H90" s="22" t="n">
         <f aca="false">H88-H89</f>
         <v>10</v>
       </c>
-      <c r="I90" s="23" t="n">
+      <c r="I90" s="22" t="n">
         <f aca="false">I88-I89</f>
         <v>15</v>
       </c>
-      <c r="J90" s="23" t="n">
+      <c r="J90" s="22" t="n">
         <f aca="false">J88-J89</f>
         <v>15</v>
       </c>
-      <c r="K90" s="23" t="n">
+      <c r="K90" s="22" t="n">
         <f aca="false">K88-K89</f>
         <v>17</v>
       </c>
-      <c r="L90" s="26"/>
-      <c r="M90" s="26"/>
+      <c r="L90" s="25"/>
+      <c r="M90" s="25"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B91" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C91" s="23" t="n">
+      <c r="B91" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" s="22" t="n">
         <v>16</v>
       </c>
-      <c r="D91" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" s="23" t="n">
+      <c r="D91" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="H91" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" s="23" t="n">
+      <c r="H91" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" s="22" t="n">
         <v>29.9999999999996</v>
       </c>
-      <c r="L91" s="26"/>
-      <c r="M91" s="26"/>
+      <c r="L91" s="25"/>
+      <c r="M91" s="25"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="23" t="s">
+      <c r="A92" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B92" s="23" t="n">
+      <c r="B92" s="22" t="n">
         <f aca="false">10-0.08*B91</f>
         <v>10</v>
       </c>
-      <c r="C92" s="23" t="n">
+      <c r="C92" s="22" t="n">
         <f aca="false">13-0.25*C91</f>
         <v>9</v>
       </c>
-      <c r="D92" s="23" t="n">
+      <c r="D92" s="22" t="n">
         <f aca="false">24-0.1*D91</f>
         <v>24</v>
       </c>
-      <c r="E92" s="23" t="n">
+      <c r="E92" s="22" t="n">
         <f aca="false">9-0.15*E91</f>
         <v>9</v>
       </c>
-      <c r="F92" s="23" t="n">
+      <c r="F92" s="22" t="n">
         <f aca="false">11-0.3*F91</f>
         <v>11</v>
       </c>
-      <c r="G92" s="23" t="n">
+      <c r="G92" s="22" t="n">
         <f aca="false">17-0.2*G91</f>
         <v>15</v>
       </c>
-      <c r="H92" s="23" t="n">
+      <c r="H92" s="22" t="n">
         <f aca="false">10-0.08*H91</f>
         <v>10</v>
       </c>
-      <c r="I92" s="23" t="n">
+      <c r="I92" s="22" t="n">
         <f aca="false">15-0.04*I91</f>
         <v>15</v>
       </c>
-      <c r="J92" s="23" t="n">
+      <c r="J92" s="22" t="n">
         <f aca="false">15-0.2*J91</f>
         <v>15</v>
       </c>
-      <c r="K92" s="23" t="n">
+      <c r="K92" s="22" t="n">
         <f aca="false">20-0.1*K91</f>
         <v>17</v>
       </c>
-      <c r="L92" s="26"/>
-      <c r="M92" s="26"/>
+      <c r="L92" s="25"/>
+      <c r="M92" s="25"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B93" s="23" t="n">
+      <c r="B93" s="22" t="n">
         <f aca="false">B90</f>
         <v>16</v>
       </c>
-      <c r="C93" s="23" t="n">
+      <c r="C93" s="22" t="n">
         <f aca="false">C90</f>
         <v>9</v>
       </c>
-      <c r="D93" s="23" t="n">
+      <c r="D93" s="22" t="n">
         <f aca="false">D90</f>
         <v>24</v>
       </c>
-      <c r="E93" s="23" t="n">
+      <c r="E93" s="22" t="n">
         <f aca="false">E90</f>
         <v>9</v>
       </c>
-      <c r="F93" s="23" t="n">
+      <c r="F93" s="22" t="n">
         <f aca="false">F90</f>
         <v>11</v>
       </c>
-      <c r="G93" s="23" t="n">
+      <c r="G93" s="22" t="n">
         <f aca="false">G90</f>
         <v>15</v>
       </c>
-      <c r="H93" s="23" t="n">
+      <c r="H93" s="22" t="n">
         <f aca="false">H90</f>
         <v>10</v>
       </c>
-      <c r="I93" s="23" t="n">
+      <c r="I93" s="22" t="n">
         <f aca="false">I90</f>
         <v>15</v>
       </c>
-      <c r="J93" s="23" t="n">
+      <c r="J93" s="22" t="n">
         <f aca="false">J90</f>
         <v>15</v>
       </c>
-      <c r="K93" s="23" t="n">
+      <c r="K93" s="22" t="n">
         <f aca="false">K90</f>
         <v>17</v>
       </c>
-      <c r="L93" s="26"/>
-      <c r="M93" s="26"/>
+      <c r="L93" s="25"/>
+      <c r="M93" s="25"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="27" t="s">
+      <c r="A94" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B94" s="27" t="n">
+      <c r="B94" s="26" t="n">
         <f aca="false">SUM(B91:K91)</f>
         <v>55.9999999999996</v>
       </c>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="28"/>
-      <c r="K94" s="28"/>
-      <c r="L94" s="26"/>
-      <c r="M94" s="26"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="27"/>
+      <c r="J94" s="27"/>
+      <c r="K94" s="27"/>
+      <c r="L94" s="25"/>
+      <c r="M94" s="25"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="9" t="s">
@@ -3842,10 +3788,10 @@
       <c r="B107" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
       <c r="G107" s="7" t="n">
         <f aca="false">D103</f>
         <v>9</v>
@@ -3880,10 +3826,10 @@
       <c r="B108" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
       <c r="G108" s="7" t="n">
         <f aca="false">D104</f>
         <v>24</v>
@@ -3918,10 +3864,10 @@
       <c r="B109" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
       <c r="G109" s="7" t="n">
         <f aca="false">D104</f>
         <v>24</v>
@@ -3956,10 +3902,10 @@
       <c r="B110" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
       <c r="G110" s="7" t="n">
         <f aca="false">D105</f>
         <v>39</v>
@@ -4132,6 +4078,116 @@
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="B134" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B135" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="9" t="n">
+        <v>35</v>
+      </c>
+      <c r="B136" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="B137" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B138" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B139" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="B140" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B141" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B142" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="B143" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
